--- a/Design/Design 2/AfricanCountryRanking-cost-penetration.xlsx
+++ b/Design/Design 2/AfricanCountryRanking-cost-penetration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Ranking (Per Internet Speed)</t>
   </si>
@@ -276,13 +276,19 @@
     <t>01:17:54:39</t>
   </si>
   <si>
-    <t>Total tests</t>
-  </si>
-  <si>
     <t>Ranking (Per Internet Price)</t>
   </si>
   <si>
     <t>Portion of Population Using Internet</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -432,20 +438,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +545,7 @@
             <c:strRef>
               <c:f>Sheet1!$C$2:$C$39</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Kenya</c:v>
                 </c:pt>
@@ -653,9 +655,6 @@
                   <c:v>D R Congo</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Burkina Faso</c:v>
-                </c:pt>
-                <c:pt idx="37">
                   <c:v>Gabon</c:v>
                 </c:pt>
               </c:strCache>
@@ -666,7 +665,7 @@
               <c:f>Sheet1!$D$2:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>8.83</c:v>
                 </c:pt>
@@ -776,9 +775,6 @@
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="37">
                   <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
@@ -795,11 +791,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="402841624"/>
-        <c:axId val="402838096"/>
+        <c:axId val="370745344"/>
+        <c:axId val="370741032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402841624"/>
+        <c:axId val="370745344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +838,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402838096"/>
+        <c:crossAx val="370741032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402838096"/>
+        <c:axId val="370741032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +898,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402841624"/>
+        <c:crossAx val="370745344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1043,7 +1039,7 @@
               <c:f>Sheet1!$D$2:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>8.83</c:v>
                 </c:pt>
@@ -1153,9 +1149,6 @@
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="37">
                   <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
@@ -1166,7 +1159,7 @@
               <c:f>Sheet1!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>87.85</c:v>
                 </c:pt>
@@ -1240,9 +1233,6 @@
                   <c:v>120.52</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1020.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
                   <c:v>116.44</c:v>
                 </c:pt>
               </c:numCache>
@@ -1258,11 +1248,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402840448"/>
-        <c:axId val="402838488"/>
+        <c:axId val="370741424"/>
+        <c:axId val="370741816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402840448"/>
+        <c:axId val="370741424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,12 +1309,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402838488"/>
+        <c:crossAx val="370741816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402838488"/>
+        <c:axId val="370741816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1371,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402840448"/>
+        <c:crossAx val="370741424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1532,7 +1522,7 @@
               <c:f>Sheet1!$H$2:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -1639,9 +1629,6 @@
                   <c:v>6.21</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.96</c:v>
-                </c:pt>
-                <c:pt idx="37">
                   <c:v>48.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1652,7 +1639,7 @@
               <c:f>Sheet1!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>87.85</c:v>
                 </c:pt>
@@ -1726,9 +1713,6 @@
                   <c:v>120.52</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1020.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
                   <c:v>116.44</c:v>
                 </c:pt>
               </c:numCache>
@@ -1744,11 +1728,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="574637600"/>
-        <c:axId val="574638776"/>
+        <c:axId val="370742208"/>
+        <c:axId val="370744168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="574637600"/>
+        <c:axId val="370742208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,12 +1789,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574638776"/>
+        <c:crossAx val="370744168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="574638776"/>
+        <c:axId val="370744168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1851,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574637600"/>
+        <c:crossAx val="370742208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3635,16 +3619,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2962275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3931,13 +3915,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q848"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="5" max="7" width="14.42578125" hidden="1"/>
@@ -3949,7 +3933,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="70.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3969,8 +3953,8 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>87</v>
+      <c r="H1" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3981,12 +3965,12 @@
       <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="22" t="e">
+      <c r="O1" s="21" t="e">
         <f>HYPERLINK("https://www.cable.co.uk/media-centre/release/new-worldwide-broadband-price-league-unveiled/","MORE DATA AVAILABLE: Cable.co.uk, along with specialist researchers BDRC Continental, released the results of their worldwide study into the cost of broadband in 196 countries. You can view the results of that study here and use this data to compare avera"&amp;"ge speed with average cost.")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -5248,7 +5232,7 @@
         <v>1877.85</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -5321,43 +5305,99 @@
     <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="18">
-        <v>63039781</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="C40" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="17">
+        <f>AVERAGE(D2:D39)</f>
+        <v>1.9289473684210525</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" ref="E40:G40" si="2">AVERAGE(E2:E39)</f>
+        <v>4212.4210526315792</v>
+      </c>
+      <c r="F40" s="17">
+        <f t="shared" si="2"/>
+        <v>7647.1842105263158</v>
+      </c>
+      <c r="G40" s="17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="17">
+        <f>AVERAGE(H2:H39)</f>
+        <v>24.251081081081079</v>
+      </c>
+      <c r="I40" s="17">
+        <f>AVERAGE(I2:I39)</f>
+        <v>129.71423076923077</v>
+      </c>
       <c r="J40" s="15"/>
       <c r="K40" s="13"/>
     </row>
     <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="C41" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="15">
+        <f>MIN(D2:D39)</f>
+        <v>0.41</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" ref="E41:I41" si="3">MIN(E2:E39)</f>
+        <v>109</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="G41" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" si="3"/>
+        <v>12.46</v>
+      </c>
       <c r="J41" s="15"/>
       <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="15">
+        <f>MAX(D2:D39)</f>
+        <v>8.83</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" ref="E42:I42" si="4">MAX(E2:E39)</f>
+        <v>43981</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="4"/>
+        <v>93440</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="4"/>
+        <v>58.27</v>
+      </c>
+      <c r="I42" s="15">
+        <f t="shared" si="4"/>
+        <v>1020.6</v>
+      </c>
       <c r="J42" s="15"/>
       <c r="K42" s="13"/>
     </row>
@@ -5368,7 +5408,7 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="20"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -5381,7 +5421,7 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="20"/>
+      <c r="G44" s="18"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
@@ -5394,7 +5434,7 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="20"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
@@ -5407,7 +5447,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="20"/>
+      <c r="G46" s="18"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
@@ -5420,7 +5460,7 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="20"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -5433,7 +5473,7 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="20"/>
+      <c r="G48" s="18"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -5446,7 +5486,7 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="20"/>
+      <c r="G49" s="18"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
@@ -5459,7 +5499,7 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="20"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
@@ -5472,7 +5512,7 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="20"/>
+      <c r="G51" s="18"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
@@ -5485,7 +5525,7 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="20"/>
+      <c r="G52" s="18"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
@@ -5498,7 +5538,7 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="18"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
@@ -5511,7 +5551,7 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="20"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
@@ -5524,7 +5564,7 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="20"/>
+      <c r="G55" s="18"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
@@ -5537,7 +5577,7 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="20"/>
+      <c r="G56" s="18"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -5550,7 +5590,7 @@
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="20"/>
+      <c r="G57" s="18"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -5563,7 +5603,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="20"/>
+      <c r="G58" s="18"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
@@ -5576,7 +5616,7 @@
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
-      <c r="G59" s="20"/>
+      <c r="G59" s="18"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
@@ -5589,7 +5629,7 @@
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
@@ -5602,7 +5642,7 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="20"/>
+      <c r="G61" s="18"/>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
@@ -5615,7 +5655,7 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="18"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
@@ -5628,7 +5668,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="20"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
@@ -5641,7 +5681,7 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="20"/>
+      <c r="G64" s="18"/>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
@@ -5654,7 +5694,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
-      <c r="G65" s="20"/>
+      <c r="G65" s="18"/>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -5667,7 +5707,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
-      <c r="G66" s="20"/>
+      <c r="G66" s="18"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -5680,7 +5720,7 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
-      <c r="G67" s="20"/>
+      <c r="G67" s="18"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
@@ -5693,7 +5733,7 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
-      <c r="G68" s="20"/>
+      <c r="G68" s="18"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
@@ -5706,7 +5746,7 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
-      <c r="G69" s="20"/>
+      <c r="G69" s="18"/>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
@@ -5719,7 +5759,7 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="20"/>
+      <c r="G70" s="18"/>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
@@ -5732,7 +5772,7 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
-      <c r="G71" s="20"/>
+      <c r="G71" s="18"/>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -5745,7 +5785,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="20"/>
+      <c r="G72" s="18"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
@@ -5758,7 +5798,7 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
-      <c r="G73" s="20"/>
+      <c r="G73" s="18"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
@@ -5771,7 +5811,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="20"/>
+      <c r="G74" s="18"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -5784,7 +5824,7 @@
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
-      <c r="G75" s="20"/>
+      <c r="G75" s="18"/>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
@@ -5797,7 +5837,7 @@
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="20"/>
+      <c r="G76" s="18"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
@@ -5810,7 +5850,7 @@
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
-      <c r="G77" s="20"/>
+      <c r="G77" s="18"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -5823,7 +5863,7 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="20"/>
+      <c r="G78" s="18"/>
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
@@ -5836,7 +5876,7 @@
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
-      <c r="G79" s="20"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
@@ -5849,7 +5889,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="20"/>
+      <c r="G80" s="18"/>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
@@ -5862,7 +5902,7 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="20"/>
+      <c r="G81" s="18"/>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
@@ -5875,7 +5915,7 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="18"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
@@ -5888,7 +5928,7 @@
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
-      <c r="G83" s="20"/>
+      <c r="G83" s="18"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
@@ -5901,7 +5941,7 @@
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
-      <c r="G84" s="20"/>
+      <c r="G84" s="18"/>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
@@ -5914,7 +5954,7 @@
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
-      <c r="G85" s="20"/>
+      <c r="G85" s="18"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
@@ -5927,7 +5967,7 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="20"/>
+      <c r="G86" s="18"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
@@ -5940,7 +5980,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
-      <c r="G87" s="20"/>
+      <c r="G87" s="18"/>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
@@ -5953,7 +5993,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
-      <c r="G88" s="20"/>
+      <c r="G88" s="18"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
@@ -5966,7 +6006,7 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="20"/>
+      <c r="G89" s="18"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
@@ -5979,7 +6019,7 @@
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
-      <c r="G90" s="20"/>
+      <c r="G90" s="18"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
@@ -5992,7 +6032,7 @@
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
-      <c r="G91" s="20"/>
+      <c r="G91" s="18"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
@@ -6005,7 +6045,7 @@
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
-      <c r="G92" s="20"/>
+      <c r="G92" s="18"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
@@ -6018,7 +6058,7 @@
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
-      <c r="G93" s="20"/>
+      <c r="G93" s="18"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
@@ -6031,7 +6071,7 @@
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
-      <c r="G94" s="20"/>
+      <c r="G94" s="18"/>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
@@ -6044,7 +6084,7 @@
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
-      <c r="G95" s="20"/>
+      <c r="G95" s="18"/>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
@@ -6057,7 +6097,7 @@
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="20"/>
+      <c r="G96" s="18"/>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
@@ -6070,7 +6110,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
-      <c r="G97" s="20"/>
+      <c r="G97" s="18"/>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
@@ -6083,7 +6123,7 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
-      <c r="G98" s="20"/>
+      <c r="G98" s="18"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
@@ -6096,7 +6136,7 @@
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
-      <c r="G99" s="20"/>
+      <c r="G99" s="18"/>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
@@ -6109,7 +6149,7 @@
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
-      <c r="G100" s="20"/>
+      <c r="G100" s="18"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
@@ -6122,7 +6162,7 @@
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
-      <c r="G101" s="20"/>
+      <c r="G101" s="18"/>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
@@ -6135,7 +6175,7 @@
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
-      <c r="G102" s="20"/>
+      <c r="G102" s="18"/>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="15"/>
@@ -6148,7 +6188,7 @@
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
-      <c r="G103" s="20"/>
+      <c r="G103" s="18"/>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
       <c r="J103" s="15"/>
@@ -6161,7 +6201,7 @@
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
-      <c r="G104" s="20"/>
+      <c r="G104" s="18"/>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
@@ -6174,7 +6214,7 @@
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
-      <c r="G105" s="20"/>
+      <c r="G105" s="18"/>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
@@ -6187,7 +6227,7 @@
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
-      <c r="G106" s="20"/>
+      <c r="G106" s="18"/>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
@@ -6200,7 +6240,7 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="20"/>
+      <c r="G107" s="18"/>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
@@ -6213,7 +6253,7 @@
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="20"/>
+      <c r="G108" s="18"/>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
@@ -6226,7 +6266,7 @@
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="20"/>
+      <c r="G109" s="18"/>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
@@ -6239,7 +6279,7 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="20"/>
+      <c r="G110" s="18"/>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -6252,7 +6292,7 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="20"/>
+      <c r="G111" s="18"/>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -6265,7 +6305,7 @@
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="20"/>
+      <c r="G112" s="18"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -6278,7 +6318,7 @@
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
-      <c r="G113" s="20"/>
+      <c r="G113" s="18"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -6291,7 +6331,7 @@
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
-      <c r="G114" s="20"/>
+      <c r="G114" s="18"/>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -6304,7 +6344,7 @@
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
-      <c r="G115" s="20"/>
+      <c r="G115" s="18"/>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
@@ -6317,7 +6357,7 @@
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
-      <c r="G116" s="20"/>
+      <c r="G116" s="18"/>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -6330,7 +6370,7 @@
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="20"/>
+      <c r="G117" s="18"/>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -6343,7 +6383,7 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
-      <c r="G118" s="20"/>
+      <c r="G118" s="18"/>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -6356,7 +6396,7 @@
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="20"/>
+      <c r="G119" s="18"/>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -6369,7 +6409,7 @@
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
-      <c r="G120" s="20"/>
+      <c r="G120" s="18"/>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -6382,7 +6422,7 @@
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
-      <c r="G121" s="20"/>
+      <c r="G121" s="18"/>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -6395,7 +6435,7 @@
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
-      <c r="G122" s="20"/>
+      <c r="G122" s="18"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -6408,7 +6448,7 @@
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
-      <c r="G123" s="20"/>
+      <c r="G123" s="18"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
@@ -6421,7 +6461,7 @@
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
-      <c r="G124" s="20"/>
+      <c r="G124" s="18"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
@@ -6434,7 +6474,7 @@
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
-      <c r="G125" s="20"/>
+      <c r="G125" s="18"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
@@ -6447,7 +6487,7 @@
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="15"/>
-      <c r="G126" s="20"/>
+      <c r="G126" s="18"/>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
@@ -6460,7 +6500,7 @@
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
-      <c r="G127" s="20"/>
+      <c r="G127" s="18"/>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="15"/>
@@ -6473,7 +6513,7 @@
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
-      <c r="G128" s="20"/>
+      <c r="G128" s="18"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="15"/>
@@ -6486,7 +6526,7 @@
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
-      <c r="G129" s="20"/>
+      <c r="G129" s="18"/>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
       <c r="J129" s="15"/>
@@ -6499,7 +6539,7 @@
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
-      <c r="G130" s="20"/>
+      <c r="G130" s="18"/>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="15"/>
@@ -6512,7 +6552,7 @@
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
-      <c r="G131" s="20"/>
+      <c r="G131" s="18"/>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
@@ -6525,7 +6565,7 @@
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
-      <c r="G132" s="20"/>
+      <c r="G132" s="18"/>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
       <c r="J132" s="15"/>
@@ -6538,7 +6578,7 @@
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
-      <c r="G133" s="20"/>
+      <c r="G133" s="18"/>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
       <c r="J133" s="15"/>
@@ -6551,7 +6591,7 @@
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
-      <c r="G134" s="20"/>
+      <c r="G134" s="18"/>
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
       <c r="J134" s="15"/>
@@ -6564,7 +6604,7 @@
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
-      <c r="G135" s="20"/>
+      <c r="G135" s="18"/>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
       <c r="J135" s="15"/>
@@ -6577,7 +6617,7 @@
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
-      <c r="G136" s="20"/>
+      <c r="G136" s="18"/>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
       <c r="J136" s="15"/>
@@ -6590,7 +6630,7 @@
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
-      <c r="G137" s="20"/>
+      <c r="G137" s="18"/>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
       <c r="J137" s="15"/>
@@ -6603,7 +6643,7 @@
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
-      <c r="G138" s="20"/>
+      <c r="G138" s="18"/>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
       <c r="J138" s="15"/>
@@ -6616,7 +6656,7 @@
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
-      <c r="G139" s="20"/>
+      <c r="G139" s="18"/>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
       <c r="J139" s="15"/>
@@ -6629,7 +6669,7 @@
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
-      <c r="G140" s="20"/>
+      <c r="G140" s="18"/>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
       <c r="J140" s="15"/>
@@ -6642,7 +6682,7 @@
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
-      <c r="G141" s="20"/>
+      <c r="G141" s="18"/>
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
       <c r="J141" s="15"/>
@@ -6655,7 +6695,7 @@
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
-      <c r="G142" s="20"/>
+      <c r="G142" s="18"/>
       <c r="H142" s="15"/>
       <c r="I142" s="15"/>
       <c r="J142" s="15"/>
@@ -6668,7 +6708,7 @@
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
-      <c r="G143" s="20"/>
+      <c r="G143" s="18"/>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
@@ -6681,7 +6721,7 @@
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
-      <c r="G144" s="20"/>
+      <c r="G144" s="18"/>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
@@ -6694,7 +6734,7 @@
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
-      <c r="G145" s="20"/>
+      <c r="G145" s="18"/>
       <c r="H145" s="15"/>
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
@@ -6707,7 +6747,7 @@
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
-      <c r="G146" s="20"/>
+      <c r="G146" s="18"/>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
@@ -6720,7 +6760,7 @@
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
-      <c r="G147" s="20"/>
+      <c r="G147" s="18"/>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
       <c r="J147" s="15"/>
@@ -6733,7 +6773,7 @@
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
-      <c r="G148" s="20"/>
+      <c r="G148" s="18"/>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
       <c r="J148" s="15"/>
@@ -6746,7 +6786,7 @@
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
-      <c r="G149" s="20"/>
+      <c r="G149" s="18"/>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
@@ -6759,7 +6799,7 @@
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
-      <c r="G150" s="20"/>
+      <c r="G150" s="18"/>
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
       <c r="J150" s="15"/>
@@ -6772,7 +6812,7 @@
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
-      <c r="G151" s="20"/>
+      <c r="G151" s="18"/>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
       <c r="J151" s="15"/>
@@ -6785,7 +6825,7 @@
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
-      <c r="G152" s="20"/>
+      <c r="G152" s="18"/>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
@@ -6798,7 +6838,7 @@
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
-      <c r="G153" s="20"/>
+      <c r="G153" s="18"/>
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
@@ -6811,7 +6851,7 @@
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
-      <c r="G154" s="20"/>
+      <c r="G154" s="18"/>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
       <c r="J154" s="15"/>
@@ -6824,7 +6864,7 @@
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
-      <c r="G155" s="20"/>
+      <c r="G155" s="18"/>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
@@ -6837,7 +6877,7 @@
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
-      <c r="G156" s="20"/>
+      <c r="G156" s="18"/>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
@@ -6850,7 +6890,7 @@
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
-      <c r="G157" s="20"/>
+      <c r="G157" s="18"/>
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
@@ -6863,7 +6903,7 @@
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
       <c r="F158" s="15"/>
-      <c r="G158" s="20"/>
+      <c r="G158" s="18"/>
       <c r="H158" s="15"/>
       <c r="I158" s="15"/>
       <c r="J158" s="15"/>
@@ -6876,7 +6916,7 @@
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
-      <c r="G159" s="20"/>
+      <c r="G159" s="18"/>
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
       <c r="J159" s="15"/>
@@ -6889,7 +6929,7 @@
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
-      <c r="G160" s="20"/>
+      <c r="G160" s="18"/>
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
       <c r="J160" s="15"/>
@@ -6902,7 +6942,7 @@
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
-      <c r="G161" s="20"/>
+      <c r="G161" s="18"/>
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
@@ -6915,7 +6955,7 @@
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
-      <c r="G162" s="20"/>
+      <c r="G162" s="18"/>
       <c r="H162" s="15"/>
       <c r="I162" s="15"/>
       <c r="J162" s="15"/>
@@ -6928,7 +6968,7 @@
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
-      <c r="G163" s="20"/>
+      <c r="G163" s="18"/>
       <c r="H163" s="15"/>
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
@@ -6941,7 +6981,7 @@
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
-      <c r="G164" s="20"/>
+      <c r="G164" s="18"/>
       <c r="H164" s="15"/>
       <c r="I164" s="15"/>
       <c r="J164" s="15"/>
@@ -6954,7 +6994,7 @@
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
-      <c r="G165" s="20"/>
+      <c r="G165" s="18"/>
       <c r="H165" s="15"/>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
@@ -6967,7 +7007,7 @@
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
-      <c r="G166" s="20"/>
+      <c r="G166" s="18"/>
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
       <c r="J166" s="15"/>
@@ -6980,7 +7020,7 @@
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
-      <c r="G167" s="20"/>
+      <c r="G167" s="18"/>
       <c r="H167" s="15"/>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
@@ -6993,7 +7033,7 @@
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
-      <c r="G168" s="20"/>
+      <c r="G168" s="18"/>
       <c r="H168" s="15"/>
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
@@ -7006,7 +7046,7 @@
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
-      <c r="G169" s="20"/>
+      <c r="G169" s="18"/>
       <c r="H169" s="15"/>
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
@@ -7019,7 +7059,7 @@
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
-      <c r="G170" s="20"/>
+      <c r="G170" s="18"/>
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
@@ -7032,7 +7072,7 @@
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
-      <c r="G171" s="20"/>
+      <c r="G171" s="18"/>
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
       <c r="J171" s="15"/>
@@ -7045,7 +7085,7 @@
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
-      <c r="G172" s="20"/>
+      <c r="G172" s="18"/>
       <c r="H172" s="15"/>
       <c r="I172" s="15"/>
       <c r="J172" s="15"/>
@@ -7058,7 +7098,7 @@
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
-      <c r="G173" s="20"/>
+      <c r="G173" s="18"/>
       <c r="H173" s="15"/>
       <c r="I173" s="15"/>
       <c r="J173" s="15"/>
@@ -7071,7 +7111,7 @@
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
-      <c r="G174" s="20"/>
+      <c r="G174" s="18"/>
       <c r="H174" s="15"/>
       <c r="I174" s="15"/>
       <c r="J174" s="15"/>
@@ -7084,7 +7124,7 @@
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
-      <c r="G175" s="20"/>
+      <c r="G175" s="18"/>
       <c r="H175" s="15"/>
       <c r="I175" s="15"/>
       <c r="J175" s="15"/>
@@ -7097,7 +7137,7 @@
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
-      <c r="G176" s="20"/>
+      <c r="G176" s="18"/>
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
@@ -7110,7 +7150,7 @@
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
-      <c r="G177" s="20"/>
+      <c r="G177" s="18"/>
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
       <c r="J177" s="15"/>
@@ -7123,7 +7163,7 @@
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
-      <c r="G178" s="20"/>
+      <c r="G178" s="18"/>
       <c r="H178" s="15"/>
       <c r="I178" s="15"/>
       <c r="J178" s="15"/>
@@ -7136,7 +7176,7 @@
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
-      <c r="G179" s="20"/>
+      <c r="G179" s="18"/>
       <c r="H179" s="15"/>
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
@@ -7149,7 +7189,7 @@
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="15"/>
-      <c r="G180" s="20"/>
+      <c r="G180" s="18"/>
       <c r="H180" s="15"/>
       <c r="I180" s="15"/>
       <c r="J180" s="15"/>
@@ -7162,7 +7202,7 @@
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
-      <c r="G181" s="20"/>
+      <c r="G181" s="18"/>
       <c r="H181" s="15"/>
       <c r="I181" s="15"/>
       <c r="J181" s="15"/>
@@ -7175,7 +7215,7 @@
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
-      <c r="G182" s="20"/>
+      <c r="G182" s="18"/>
       <c r="H182" s="15"/>
       <c r="I182" s="15"/>
       <c r="J182" s="15"/>
@@ -7188,7 +7228,7 @@
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
-      <c r="G183" s="20"/>
+      <c r="G183" s="18"/>
       <c r="H183" s="15"/>
       <c r="I183" s="15"/>
       <c r="J183" s="15"/>
@@ -7201,7 +7241,7 @@
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
-      <c r="G184" s="20"/>
+      <c r="G184" s="18"/>
       <c r="H184" s="15"/>
       <c r="I184" s="15"/>
       <c r="J184" s="15"/>
@@ -7214,7 +7254,7 @@
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
-      <c r="G185" s="20"/>
+      <c r="G185" s="18"/>
       <c r="H185" s="15"/>
       <c r="I185" s="15"/>
       <c r="J185" s="15"/>
@@ -7227,7 +7267,7 @@
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
-      <c r="G186" s="20"/>
+      <c r="G186" s="18"/>
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
       <c r="J186" s="15"/>
@@ -7240,7 +7280,7 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
-      <c r="G187" s="20"/>
+      <c r="G187" s="18"/>
       <c r="H187" s="15"/>
       <c r="I187" s="15"/>
       <c r="J187" s="15"/>
@@ -7253,7 +7293,7 @@
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
-      <c r="G188" s="20"/>
+      <c r="G188" s="18"/>
       <c r="H188" s="15"/>
       <c r="I188" s="15"/>
       <c r="J188" s="15"/>
@@ -7266,7 +7306,7 @@
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
-      <c r="G189" s="20"/>
+      <c r="G189" s="18"/>
       <c r="H189" s="15"/>
       <c r="I189" s="15"/>
       <c r="J189" s="15"/>
@@ -7279,7 +7319,7 @@
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
-      <c r="G190" s="20"/>
+      <c r="G190" s="18"/>
       <c r="H190" s="15"/>
       <c r="I190" s="15"/>
       <c r="J190" s="15"/>
@@ -7292,7 +7332,7 @@
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
-      <c r="G191" s="20"/>
+      <c r="G191" s="18"/>
       <c r="H191" s="15"/>
       <c r="I191" s="15"/>
       <c r="J191" s="15"/>
@@ -7305,7 +7345,7 @@
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
-      <c r="G192" s="20"/>
+      <c r="G192" s="18"/>
       <c r="H192" s="15"/>
       <c r="I192" s="15"/>
       <c r="J192" s="15"/>
@@ -7318,7 +7358,7 @@
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="15"/>
-      <c r="G193" s="20"/>
+      <c r="G193" s="18"/>
       <c r="H193" s="15"/>
       <c r="I193" s="15"/>
       <c r="J193" s="15"/>
@@ -7331,7 +7371,7 @@
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
-      <c r="G194" s="20"/>
+      <c r="G194" s="18"/>
       <c r="H194" s="15"/>
       <c r="I194" s="15"/>
       <c r="J194" s="15"/>
@@ -7344,7 +7384,7 @@
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
-      <c r="G195" s="20"/>
+      <c r="G195" s="18"/>
       <c r="H195" s="15"/>
       <c r="I195" s="15"/>
       <c r="J195" s="15"/>
@@ -7357,7 +7397,7 @@
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
-      <c r="G196" s="20"/>
+      <c r="G196" s="18"/>
       <c r="H196" s="15"/>
       <c r="I196" s="15"/>
       <c r="J196" s="15"/>
@@ -7370,7 +7410,7 @@
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
-      <c r="G197" s="20"/>
+      <c r="G197" s="18"/>
       <c r="H197" s="15"/>
       <c r="I197" s="15"/>
       <c r="J197" s="15"/>
@@ -7383,7 +7423,7 @@
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
-      <c r="G198" s="20"/>
+      <c r="G198" s="18"/>
       <c r="H198" s="15"/>
       <c r="I198" s="15"/>
       <c r="J198" s="15"/>
@@ -7396,7 +7436,7 @@
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
-      <c r="G199" s="20"/>
+      <c r="G199" s="18"/>
       <c r="H199" s="15"/>
       <c r="I199" s="15"/>
       <c r="J199" s="15"/>
@@ -7409,7 +7449,7 @@
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
-      <c r="G200" s="20"/>
+      <c r="G200" s="18"/>
       <c r="H200" s="15"/>
       <c r="I200" s="15"/>
       <c r="J200" s="15"/>
@@ -7422,7 +7462,7 @@
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
-      <c r="G201" s="20"/>
+      <c r="G201" s="18"/>
       <c r="H201" s="15"/>
       <c r="I201" s="15"/>
       <c r="J201" s="15"/>
@@ -7435,7 +7475,7 @@
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
-      <c r="G202" s="20"/>
+      <c r="G202" s="18"/>
       <c r="H202" s="15"/>
       <c r="I202" s="15"/>
       <c r="J202" s="15"/>
@@ -7448,7 +7488,7 @@
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
-      <c r="G203" s="20"/>
+      <c r="G203" s="18"/>
       <c r="H203" s="15"/>
       <c r="I203" s="15"/>
       <c r="J203" s="15"/>
@@ -7461,7 +7501,7 @@
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
-      <c r="G204" s="20"/>
+      <c r="G204" s="18"/>
       <c r="H204" s="15"/>
       <c r="I204" s="15"/>
       <c r="J204" s="15"/>
@@ -7474,7 +7514,7 @@
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
-      <c r="G205" s="20"/>
+      <c r="G205" s="18"/>
       <c r="H205" s="15"/>
       <c r="I205" s="15"/>
       <c r="J205" s="15"/>
@@ -7487,7 +7527,7 @@
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
-      <c r="G206" s="20"/>
+      <c r="G206" s="18"/>
       <c r="H206" s="15"/>
       <c r="I206" s="15"/>
       <c r="J206" s="15"/>
@@ -7500,7 +7540,7 @@
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
-      <c r="G207" s="20"/>
+      <c r="G207" s="18"/>
       <c r="H207" s="15"/>
       <c r="I207" s="15"/>
       <c r="J207" s="15"/>
@@ -7513,7 +7553,7 @@
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
-      <c r="G208" s="20"/>
+      <c r="G208" s="18"/>
       <c r="H208" s="15"/>
       <c r="I208" s="15"/>
       <c r="J208" s="15"/>
@@ -7526,7 +7566,7 @@
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
-      <c r="G209" s="20"/>
+      <c r="G209" s="18"/>
       <c r="H209" s="15"/>
       <c r="I209" s="15"/>
       <c r="J209" s="15"/>
@@ -7539,7 +7579,7 @@
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
-      <c r="G210" s="20"/>
+      <c r="G210" s="18"/>
       <c r="H210" s="15"/>
       <c r="I210" s="15"/>
       <c r="J210" s="15"/>
@@ -7552,7 +7592,7 @@
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
-      <c r="G211" s="20"/>
+      <c r="G211" s="18"/>
       <c r="H211" s="15"/>
       <c r="I211" s="15"/>
       <c r="J211" s="15"/>
@@ -7565,7 +7605,7 @@
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
-      <c r="G212" s="20"/>
+      <c r="G212" s="18"/>
       <c r="H212" s="15"/>
       <c r="I212" s="15"/>
       <c r="J212" s="15"/>
@@ -7578,7 +7618,7 @@
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
-      <c r="G213" s="20"/>
+      <c r="G213" s="18"/>
       <c r="H213" s="15"/>
       <c r="I213" s="15"/>
       <c r="J213" s="15"/>
@@ -7591,7 +7631,7 @@
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
-      <c r="G214" s="20"/>
+      <c r="G214" s="18"/>
       <c r="H214" s="15"/>
       <c r="I214" s="15"/>
       <c r="J214" s="15"/>
@@ -7604,7 +7644,7 @@
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
-      <c r="G215" s="20"/>
+      <c r="G215" s="18"/>
       <c r="H215" s="15"/>
       <c r="I215" s="15"/>
       <c r="J215" s="15"/>
@@ -7617,7 +7657,7 @@
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
-      <c r="G216" s="20"/>
+      <c r="G216" s="18"/>
       <c r="H216" s="15"/>
       <c r="I216" s="15"/>
       <c r="J216" s="15"/>
@@ -7630,7 +7670,7 @@
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
-      <c r="G217" s="20"/>
+      <c r="G217" s="18"/>
       <c r="H217" s="15"/>
       <c r="I217" s="15"/>
       <c r="J217" s="15"/>
@@ -7643,7 +7683,7 @@
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
-      <c r="G218" s="20"/>
+      <c r="G218" s="18"/>
       <c r="H218" s="15"/>
       <c r="I218" s="15"/>
       <c r="J218" s="15"/>
@@ -7656,7 +7696,7 @@
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
-      <c r="G219" s="20"/>
+      <c r="G219" s="18"/>
       <c r="H219" s="15"/>
       <c r="I219" s="15"/>
       <c r="J219" s="15"/>
@@ -7669,7 +7709,7 @@
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
-      <c r="G220" s="20"/>
+      <c r="G220" s="18"/>
       <c r="H220" s="15"/>
       <c r="I220" s="15"/>
       <c r="J220" s="15"/>
@@ -7682,7 +7722,7 @@
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="15"/>
-      <c r="G221" s="20"/>
+      <c r="G221" s="18"/>
       <c r="H221" s="15"/>
       <c r="I221" s="15"/>
       <c r="J221" s="15"/>
@@ -7695,7 +7735,7 @@
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
-      <c r="G222" s="20"/>
+      <c r="G222" s="18"/>
       <c r="H222" s="15"/>
       <c r="I222" s="15"/>
       <c r="J222" s="15"/>
@@ -7708,7 +7748,7 @@
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="15"/>
-      <c r="G223" s="20"/>
+      <c r="G223" s="18"/>
       <c r="H223" s="15"/>
       <c r="I223" s="15"/>
       <c r="J223" s="15"/>
@@ -7721,7 +7761,7 @@
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
       <c r="F224" s="15"/>
-      <c r="G224" s="20"/>
+      <c r="G224" s="18"/>
       <c r="H224" s="15"/>
       <c r="I224" s="15"/>
       <c r="J224" s="15"/>
@@ -7734,7 +7774,7 @@
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
       <c r="F225" s="15"/>
-      <c r="G225" s="20"/>
+      <c r="G225" s="18"/>
       <c r="H225" s="15"/>
       <c r="I225" s="15"/>
       <c r="J225" s="15"/>
@@ -7747,7 +7787,7 @@
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
       <c r="F226" s="15"/>
-      <c r="G226" s="20"/>
+      <c r="G226" s="18"/>
       <c r="H226" s="15"/>
       <c r="I226" s="15"/>
       <c r="J226" s="15"/>
@@ -7760,7 +7800,7 @@
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
       <c r="F227" s="15"/>
-      <c r="G227" s="20"/>
+      <c r="G227" s="18"/>
       <c r="H227" s="15"/>
       <c r="I227" s="15"/>
       <c r="J227" s="15"/>
@@ -7773,7 +7813,7 @@
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
       <c r="F228" s="15"/>
-      <c r="G228" s="20"/>
+      <c r="G228" s="18"/>
       <c r="H228" s="15"/>
       <c r="I228" s="15"/>
       <c r="J228" s="15"/>
@@ -7786,7 +7826,7 @@
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
       <c r="F229" s="15"/>
-      <c r="G229" s="20"/>
+      <c r="G229" s="18"/>
       <c r="H229" s="15"/>
       <c r="I229" s="15"/>
       <c r="J229" s="15"/>
@@ -7799,7 +7839,7 @@
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
       <c r="F230" s="15"/>
-      <c r="G230" s="20"/>
+      <c r="G230" s="18"/>
       <c r="H230" s="15"/>
       <c r="I230" s="15"/>
       <c r="J230" s="15"/>
@@ -7812,7 +7852,7 @@
       <c r="D231" s="15"/>
       <c r="E231" s="15"/>
       <c r="F231" s="15"/>
-      <c r="G231" s="20"/>
+      <c r="G231" s="18"/>
       <c r="H231" s="15"/>
       <c r="I231" s="15"/>
       <c r="J231" s="15"/>
@@ -7825,7 +7865,7 @@
       <c r="D232" s="15"/>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
-      <c r="G232" s="20"/>
+      <c r="G232" s="18"/>
       <c r="H232" s="15"/>
       <c r="I232" s="15"/>
       <c r="J232" s="15"/>
@@ -7838,7 +7878,7 @@
       <c r="D233" s="15"/>
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
-      <c r="G233" s="20"/>
+      <c r="G233" s="18"/>
       <c r="H233" s="15"/>
       <c r="I233" s="15"/>
       <c r="J233" s="15"/>
@@ -7851,7 +7891,7 @@
       <c r="D234" s="15"/>
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
-      <c r="G234" s="20"/>
+      <c r="G234" s="18"/>
       <c r="H234" s="15"/>
       <c r="I234" s="15"/>
       <c r="J234" s="15"/>
@@ -7864,7 +7904,7 @@
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
       <c r="F235" s="15"/>
-      <c r="G235" s="20"/>
+      <c r="G235" s="18"/>
       <c r="H235" s="15"/>
       <c r="I235" s="15"/>
       <c r="J235" s="15"/>
@@ -7877,7 +7917,7 @@
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
-      <c r="G236" s="20"/>
+      <c r="G236" s="18"/>
       <c r="H236" s="15"/>
       <c r="I236" s="15"/>
       <c r="J236" s="15"/>
@@ -7890,7 +7930,7 @@
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
-      <c r="G237" s="20"/>
+      <c r="G237" s="18"/>
       <c r="H237" s="15"/>
       <c r="I237" s="15"/>
       <c r="J237" s="15"/>
@@ -7903,7 +7943,7 @@
       <c r="D238" s="15"/>
       <c r="E238" s="15"/>
       <c r="F238" s="15"/>
-      <c r="G238" s="20"/>
+      <c r="G238" s="18"/>
       <c r="H238" s="15"/>
       <c r="I238" s="15"/>
       <c r="J238" s="15"/>
@@ -7916,7 +7956,7 @@
       <c r="D239" s="15"/>
       <c r="E239" s="15"/>
       <c r="F239" s="15"/>
-      <c r="G239" s="20"/>
+      <c r="G239" s="18"/>
       <c r="H239" s="15"/>
       <c r="I239" s="15"/>
       <c r="J239" s="15"/>
@@ -7929,7 +7969,7 @@
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
-      <c r="G240" s="20"/>
+      <c r="G240" s="18"/>
       <c r="H240" s="15"/>
       <c r="I240" s="15"/>
       <c r="J240" s="15"/>
@@ -7942,7 +7982,7 @@
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15"/>
-      <c r="G241" s="20"/>
+      <c r="G241" s="18"/>
       <c r="H241" s="15"/>
       <c r="I241" s="15"/>
       <c r="J241" s="15"/>
@@ -7955,7 +7995,7 @@
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
-      <c r="G242" s="20"/>
+      <c r="G242" s="18"/>
       <c r="H242" s="15"/>
       <c r="I242" s="15"/>
       <c r="J242" s="15"/>
@@ -7968,7 +8008,7 @@
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
       <c r="F243" s="15"/>
-      <c r="G243" s="20"/>
+      <c r="G243" s="18"/>
       <c r="H243" s="15"/>
       <c r="I243" s="15"/>
       <c r="J243" s="15"/>
@@ -7981,7 +8021,7 @@
       <c r="D244" s="15"/>
       <c r="E244" s="15"/>
       <c r="F244" s="15"/>
-      <c r="G244" s="20"/>
+      <c r="G244" s="18"/>
       <c r="H244" s="15"/>
       <c r="I244" s="15"/>
       <c r="J244" s="15"/>
@@ -7994,7 +8034,7 @@
       <c r="D245" s="15"/>
       <c r="E245" s="15"/>
       <c r="F245" s="15"/>
-      <c r="G245" s="20"/>
+      <c r="G245" s="18"/>
       <c r="H245" s="15"/>
       <c r="I245" s="15"/>
       <c r="J245" s="15"/>
@@ -8007,7 +8047,7 @@
       <c r="D246" s="15"/>
       <c r="E246" s="15"/>
       <c r="F246" s="15"/>
-      <c r="G246" s="20"/>
+      <c r="G246" s="18"/>
       <c r="H246" s="15"/>
       <c r="I246" s="15"/>
       <c r="J246" s="15"/>
@@ -8020,7 +8060,7 @@
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
       <c r="F247" s="15"/>
-      <c r="G247" s="20"/>
+      <c r="G247" s="18"/>
       <c r="H247" s="15"/>
       <c r="I247" s="15"/>
       <c r="J247" s="15"/>
@@ -8033,7 +8073,7 @@
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
       <c r="F248" s="15"/>
-      <c r="G248" s="20"/>
+      <c r="G248" s="18"/>
       <c r="H248" s="15"/>
       <c r="I248" s="15"/>
       <c r="J248" s="15"/>
@@ -8046,7 +8086,7 @@
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
       <c r="F249" s="15"/>
-      <c r="G249" s="20"/>
+      <c r="G249" s="18"/>
       <c r="H249" s="15"/>
       <c r="I249" s="15"/>
       <c r="J249" s="15"/>
@@ -8059,7 +8099,7 @@
       <c r="D250" s="15"/>
       <c r="E250" s="15"/>
       <c r="F250" s="15"/>
-      <c r="G250" s="20"/>
+      <c r="G250" s="18"/>
       <c r="H250" s="15"/>
       <c r="I250" s="15"/>
       <c r="J250" s="15"/>
@@ -8072,7 +8112,7 @@
       <c r="D251" s="15"/>
       <c r="E251" s="15"/>
       <c r="F251" s="15"/>
-      <c r="G251" s="20"/>
+      <c r="G251" s="18"/>
       <c r="H251" s="15"/>
       <c r="I251" s="15"/>
       <c r="J251" s="15"/>
@@ -8085,7 +8125,7 @@
       <c r="D252" s="15"/>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
-      <c r="G252" s="20"/>
+      <c r="G252" s="18"/>
       <c r="H252" s="15"/>
       <c r="I252" s="15"/>
       <c r="J252" s="15"/>
@@ -8098,7 +8138,7 @@
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="15"/>
-      <c r="G253" s="20"/>
+      <c r="G253" s="18"/>
       <c r="H253" s="15"/>
       <c r="I253" s="15"/>
       <c r="J253" s="15"/>
@@ -8111,7 +8151,7 @@
       <c r="D254" s="15"/>
       <c r="E254" s="15"/>
       <c r="F254" s="15"/>
-      <c r="G254" s="20"/>
+      <c r="G254" s="18"/>
       <c r="H254" s="15"/>
       <c r="I254" s="15"/>
       <c r="J254" s="15"/>
@@ -8124,7 +8164,7 @@
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
       <c r="F255" s="15"/>
-      <c r="G255" s="20"/>
+      <c r="G255" s="18"/>
       <c r="H255" s="15"/>
       <c r="I255" s="15"/>
       <c r="J255" s="15"/>
@@ -8137,7 +8177,7 @@
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
-      <c r="G256" s="20"/>
+      <c r="G256" s="18"/>
       <c r="H256" s="15"/>
       <c r="I256" s="15"/>
       <c r="J256" s="15"/>
@@ -8150,7 +8190,7 @@
       <c r="D257" s="15"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
-      <c r="G257" s="20"/>
+      <c r="G257" s="18"/>
       <c r="H257" s="15"/>
       <c r="I257" s="15"/>
       <c r="J257" s="15"/>
@@ -8163,7 +8203,7 @@
       <c r="D258" s="15"/>
       <c r="E258" s="15"/>
       <c r="F258" s="15"/>
-      <c r="G258" s="20"/>
+      <c r="G258" s="18"/>
       <c r="H258" s="15"/>
       <c r="I258" s="15"/>
       <c r="J258" s="15"/>
@@ -8176,7 +8216,7 @@
       <c r="D259" s="15"/>
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
-      <c r="G259" s="20"/>
+      <c r="G259" s="18"/>
       <c r="H259" s="15"/>
       <c r="I259" s="15"/>
       <c r="J259" s="15"/>
@@ -8189,7 +8229,7 @@
       <c r="D260" s="15"/>
       <c r="E260" s="15"/>
       <c r="F260" s="15"/>
-      <c r="G260" s="20"/>
+      <c r="G260" s="18"/>
       <c r="H260" s="15"/>
       <c r="I260" s="15"/>
       <c r="J260" s="15"/>
@@ -8202,7 +8242,7 @@
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
-      <c r="G261" s="20"/>
+      <c r="G261" s="18"/>
       <c r="H261" s="15"/>
       <c r="I261" s="15"/>
       <c r="J261" s="15"/>
@@ -8215,7 +8255,7 @@
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
-      <c r="G262" s="20"/>
+      <c r="G262" s="18"/>
       <c r="H262" s="15"/>
       <c r="I262" s="15"/>
       <c r="J262" s="15"/>
@@ -8228,7 +8268,7 @@
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
       <c r="F263" s="15"/>
-      <c r="G263" s="20"/>
+      <c r="G263" s="18"/>
       <c r="H263" s="15"/>
       <c r="I263" s="15"/>
       <c r="J263" s="15"/>
@@ -8241,7 +8281,7 @@
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
       <c r="F264" s="15"/>
-      <c r="G264" s="20"/>
+      <c r="G264" s="18"/>
       <c r="H264" s="15"/>
       <c r="I264" s="15"/>
       <c r="J264" s="15"/>
@@ -8254,7 +8294,7 @@
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
       <c r="F265" s="15"/>
-      <c r="G265" s="20"/>
+      <c r="G265" s="18"/>
       <c r="H265" s="15"/>
       <c r="I265" s="15"/>
       <c r="J265" s="15"/>
@@ -8267,7 +8307,7 @@
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
       <c r="F266" s="15"/>
-      <c r="G266" s="20"/>
+      <c r="G266" s="18"/>
       <c r="H266" s="15"/>
       <c r="I266" s="15"/>
       <c r="J266" s="15"/>
@@ -8280,7 +8320,7 @@
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="F267" s="15"/>
-      <c r="G267" s="20"/>
+      <c r="G267" s="18"/>
       <c r="H267" s="15"/>
       <c r="I267" s="15"/>
       <c r="J267" s="15"/>
@@ -8293,7 +8333,7 @@
       <c r="D268" s="15"/>
       <c r="E268" s="15"/>
       <c r="F268" s="15"/>
-      <c r="G268" s="20"/>
+      <c r="G268" s="18"/>
       <c r="H268" s="15"/>
       <c r="I268" s="15"/>
       <c r="J268" s="15"/>
@@ -8306,7 +8346,7 @@
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="F269" s="15"/>
-      <c r="G269" s="20"/>
+      <c r="G269" s="18"/>
       <c r="H269" s="15"/>
       <c r="I269" s="15"/>
       <c r="J269" s="15"/>
@@ -8319,7 +8359,7 @@
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
       <c r="F270" s="15"/>
-      <c r="G270" s="20"/>
+      <c r="G270" s="18"/>
       <c r="H270" s="15"/>
       <c r="I270" s="15"/>
       <c r="J270" s="15"/>
@@ -8332,7 +8372,7 @@
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
       <c r="F271" s="15"/>
-      <c r="G271" s="20"/>
+      <c r="G271" s="18"/>
       <c r="H271" s="15"/>
       <c r="I271" s="15"/>
       <c r="J271" s="15"/>
@@ -8345,7 +8385,7 @@
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
-      <c r="G272" s="20"/>
+      <c r="G272" s="18"/>
       <c r="H272" s="15"/>
       <c r="I272" s="15"/>
       <c r="J272" s="15"/>
@@ -8358,7 +8398,7 @@
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="F273" s="15"/>
-      <c r="G273" s="20"/>
+      <c r="G273" s="18"/>
       <c r="H273" s="15"/>
       <c r="I273" s="15"/>
       <c r="J273" s="15"/>
@@ -8371,7 +8411,7 @@
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="F274" s="15"/>
-      <c r="G274" s="20"/>
+      <c r="G274" s="18"/>
       <c r="H274" s="15"/>
       <c r="I274" s="15"/>
       <c r="J274" s="15"/>
@@ -8384,7 +8424,7 @@
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
       <c r="F275" s="15"/>
-      <c r="G275" s="20"/>
+      <c r="G275" s="18"/>
       <c r="H275" s="15"/>
       <c r="I275" s="15"/>
       <c r="J275" s="15"/>
@@ -8397,7 +8437,7 @@
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
       <c r="F276" s="15"/>
-      <c r="G276" s="20"/>
+      <c r="G276" s="18"/>
       <c r="H276" s="15"/>
       <c r="I276" s="15"/>
       <c r="J276" s="15"/>
@@ -8410,7 +8450,7 @@
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="F277" s="15"/>
-      <c r="G277" s="20"/>
+      <c r="G277" s="18"/>
       <c r="H277" s="15"/>
       <c r="I277" s="15"/>
       <c r="J277" s="15"/>
@@ -8423,7 +8463,7 @@
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="F278" s="15"/>
-      <c r="G278" s="20"/>
+      <c r="G278" s="18"/>
       <c r="H278" s="15"/>
       <c r="I278" s="15"/>
       <c r="J278" s="15"/>
@@ -8436,7 +8476,7 @@
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="F279" s="15"/>
-      <c r="G279" s="20"/>
+      <c r="G279" s="18"/>
       <c r="H279" s="15"/>
       <c r="I279" s="15"/>
       <c r="J279" s="15"/>
@@ -8449,7 +8489,7 @@
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
       <c r="F280" s="15"/>
-      <c r="G280" s="20"/>
+      <c r="G280" s="18"/>
       <c r="H280" s="15"/>
       <c r="I280" s="15"/>
       <c r="J280" s="15"/>
@@ -8462,7 +8502,7 @@
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
-      <c r="G281" s="20"/>
+      <c r="G281" s="18"/>
       <c r="H281" s="15"/>
       <c r="I281" s="15"/>
       <c r="J281" s="15"/>
@@ -8475,7 +8515,7 @@
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
-      <c r="G282" s="20"/>
+      <c r="G282" s="18"/>
       <c r="H282" s="15"/>
       <c r="I282" s="15"/>
       <c r="J282" s="15"/>
@@ -8488,7 +8528,7 @@
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
-      <c r="G283" s="20"/>
+      <c r="G283" s="18"/>
       <c r="H283" s="15"/>
       <c r="I283" s="15"/>
       <c r="J283" s="15"/>
@@ -8501,7 +8541,7 @@
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
-      <c r="G284" s="20"/>
+      <c r="G284" s="18"/>
       <c r="H284" s="15"/>
       <c r="I284" s="15"/>
       <c r="J284" s="15"/>
@@ -8514,7 +8554,7 @@
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
-      <c r="G285" s="20"/>
+      <c r="G285" s="18"/>
       <c r="H285" s="15"/>
       <c r="I285" s="15"/>
       <c r="J285" s="15"/>
@@ -8527,7 +8567,7 @@
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
-      <c r="G286" s="20"/>
+      <c r="G286" s="18"/>
       <c r="H286" s="15"/>
       <c r="I286" s="15"/>
       <c r="J286" s="15"/>
@@ -8540,7 +8580,7 @@
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
-      <c r="G287" s="20"/>
+      <c r="G287" s="18"/>
       <c r="H287" s="15"/>
       <c r="I287" s="15"/>
       <c r="J287" s="15"/>
@@ -8553,7 +8593,7 @@
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
       <c r="F288" s="15"/>
-      <c r="G288" s="20"/>
+      <c r="G288" s="18"/>
       <c r="H288" s="15"/>
       <c r="I288" s="15"/>
       <c r="J288" s="15"/>
@@ -8566,7 +8606,7 @@
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
-      <c r="G289" s="20"/>
+      <c r="G289" s="18"/>
       <c r="H289" s="15"/>
       <c r="I289" s="15"/>
       <c r="J289" s="15"/>
@@ -8579,7 +8619,7 @@
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
-      <c r="G290" s="20"/>
+      <c r="G290" s="18"/>
       <c r="H290" s="15"/>
       <c r="I290" s="15"/>
       <c r="J290" s="15"/>
@@ -8592,7 +8632,7 @@
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
-      <c r="G291" s="20"/>
+      <c r="G291" s="18"/>
       <c r="H291" s="15"/>
       <c r="I291" s="15"/>
       <c r="J291" s="15"/>
@@ -8605,7 +8645,7 @@
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
-      <c r="G292" s="20"/>
+      <c r="G292" s="18"/>
       <c r="H292" s="15"/>
       <c r="I292" s="15"/>
       <c r="J292" s="15"/>
@@ -8618,7 +8658,7 @@
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
       <c r="F293" s="15"/>
-      <c r="G293" s="20"/>
+      <c r="G293" s="18"/>
       <c r="H293" s="15"/>
       <c r="I293" s="15"/>
       <c r="J293" s="15"/>
@@ -8631,7 +8671,7 @@
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
       <c r="F294" s="15"/>
-      <c r="G294" s="20"/>
+      <c r="G294" s="18"/>
       <c r="H294" s="15"/>
       <c r="I294" s="15"/>
       <c r="J294" s="15"/>
@@ -8644,7 +8684,7 @@
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
       <c r="F295" s="15"/>
-      <c r="G295" s="20"/>
+      <c r="G295" s="18"/>
       <c r="H295" s="15"/>
       <c r="I295" s="15"/>
       <c r="J295" s="15"/>
@@ -8657,7 +8697,7 @@
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
       <c r="F296" s="15"/>
-      <c r="G296" s="20"/>
+      <c r="G296" s="18"/>
       <c r="H296" s="15"/>
       <c r="I296" s="15"/>
       <c r="J296" s="15"/>
@@ -8670,7 +8710,7 @@
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
       <c r="F297" s="15"/>
-      <c r="G297" s="20"/>
+      <c r="G297" s="18"/>
       <c r="H297" s="15"/>
       <c r="I297" s="15"/>
       <c r="J297" s="15"/>
@@ -8683,7 +8723,7 @@
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
       <c r="F298" s="15"/>
-      <c r="G298" s="20"/>
+      <c r="G298" s="18"/>
       <c r="H298" s="15"/>
       <c r="I298" s="15"/>
       <c r="J298" s="15"/>
@@ -8696,7 +8736,7 @@
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
       <c r="F299" s="15"/>
-      <c r="G299" s="20"/>
+      <c r="G299" s="18"/>
       <c r="H299" s="15"/>
       <c r="I299" s="15"/>
       <c r="J299" s="15"/>
@@ -8709,7 +8749,7 @@
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
       <c r="F300" s="15"/>
-      <c r="G300" s="20"/>
+      <c r="G300" s="18"/>
       <c r="H300" s="15"/>
       <c r="I300" s="15"/>
       <c r="J300" s="15"/>
@@ -8722,7 +8762,7 @@
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
       <c r="F301" s="15"/>
-      <c r="G301" s="20"/>
+      <c r="G301" s="18"/>
       <c r="H301" s="15"/>
       <c r="I301" s="15"/>
       <c r="J301" s="15"/>
@@ -8735,7 +8775,7 @@
       <c r="D302" s="15"/>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
-      <c r="G302" s="20"/>
+      <c r="G302" s="18"/>
       <c r="H302" s="15"/>
       <c r="I302" s="15"/>
       <c r="J302" s="15"/>
@@ -8748,7 +8788,7 @@
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
       <c r="F303" s="15"/>
-      <c r="G303" s="20"/>
+      <c r="G303" s="18"/>
       <c r="H303" s="15"/>
       <c r="I303" s="15"/>
       <c r="J303" s="15"/>
@@ -8761,7 +8801,7 @@
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
       <c r="F304" s="15"/>
-      <c r="G304" s="20"/>
+      <c r="G304" s="18"/>
       <c r="H304" s="15"/>
       <c r="I304" s="15"/>
       <c r="J304" s="15"/>
@@ -8774,7 +8814,7 @@
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
-      <c r="G305" s="20"/>
+      <c r="G305" s="18"/>
       <c r="H305" s="15"/>
       <c r="I305" s="15"/>
       <c r="J305" s="15"/>
@@ -8787,7 +8827,7 @@
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
-      <c r="G306" s="20"/>
+      <c r="G306" s="18"/>
       <c r="H306" s="15"/>
       <c r="I306" s="15"/>
       <c r="J306" s="15"/>
@@ -8800,7 +8840,7 @@
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
-      <c r="G307" s="20"/>
+      <c r="G307" s="18"/>
       <c r="H307" s="15"/>
       <c r="I307" s="15"/>
       <c r="J307" s="15"/>
@@ -8813,7 +8853,7 @@
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
       <c r="F308" s="15"/>
-      <c r="G308" s="20"/>
+      <c r="G308" s="18"/>
       <c r="H308" s="15"/>
       <c r="I308" s="15"/>
       <c r="J308" s="15"/>
@@ -8826,7 +8866,7 @@
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
-      <c r="G309" s="20"/>
+      <c r="G309" s="18"/>
       <c r="H309" s="15"/>
       <c r="I309" s="15"/>
       <c r="J309" s="15"/>
@@ -8839,7 +8879,7 @@
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
       <c r="F310" s="15"/>
-      <c r="G310" s="20"/>
+      <c r="G310" s="18"/>
       <c r="H310" s="15"/>
       <c r="I310" s="15"/>
       <c r="J310" s="15"/>
@@ -8852,7 +8892,7 @@
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
       <c r="F311" s="15"/>
-      <c r="G311" s="20"/>
+      <c r="G311" s="18"/>
       <c r="H311" s="15"/>
       <c r="I311" s="15"/>
       <c r="J311" s="15"/>
@@ -8865,7 +8905,7 @@
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
-      <c r="G312" s="20"/>
+      <c r="G312" s="18"/>
       <c r="H312" s="15"/>
       <c r="I312" s="15"/>
       <c r="J312" s="15"/>
@@ -8878,7 +8918,7 @@
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
       <c r="F313" s="15"/>
-      <c r="G313" s="20"/>
+      <c r="G313" s="18"/>
       <c r="H313" s="15"/>
       <c r="I313" s="15"/>
       <c r="J313" s="15"/>
@@ -8891,7 +8931,7 @@
       <c r="D314" s="15"/>
       <c r="E314" s="15"/>
       <c r="F314" s="15"/>
-      <c r="G314" s="20"/>
+      <c r="G314" s="18"/>
       <c r="H314" s="15"/>
       <c r="I314" s="15"/>
       <c r="J314" s="15"/>
@@ -8904,7 +8944,7 @@
       <c r="D315" s="15"/>
       <c r="E315" s="15"/>
       <c r="F315" s="15"/>
-      <c r="G315" s="20"/>
+      <c r="G315" s="18"/>
       <c r="H315" s="15"/>
       <c r="I315" s="15"/>
       <c r="J315" s="15"/>
@@ -8917,7 +8957,7 @@
       <c r="D316" s="15"/>
       <c r="E316" s="15"/>
       <c r="F316" s="15"/>
-      <c r="G316" s="20"/>
+      <c r="G316" s="18"/>
       <c r="H316" s="15"/>
       <c r="I316" s="15"/>
       <c r="J316" s="15"/>
@@ -8930,7 +8970,7 @@
       <c r="D317" s="15"/>
       <c r="E317" s="15"/>
       <c r="F317" s="15"/>
-      <c r="G317" s="20"/>
+      <c r="G317" s="18"/>
       <c r="H317" s="15"/>
       <c r="I317" s="15"/>
       <c r="J317" s="15"/>
@@ -8943,7 +8983,7 @@
       <c r="D318" s="15"/>
       <c r="E318" s="15"/>
       <c r="F318" s="15"/>
-      <c r="G318" s="20"/>
+      <c r="G318" s="18"/>
       <c r="H318" s="15"/>
       <c r="I318" s="15"/>
       <c r="J318" s="15"/>
@@ -8956,7 +8996,7 @@
       <c r="D319" s="15"/>
       <c r="E319" s="15"/>
       <c r="F319" s="15"/>
-      <c r="G319" s="20"/>
+      <c r="G319" s="18"/>
       <c r="H319" s="15"/>
       <c r="I319" s="15"/>
       <c r="J319" s="15"/>
@@ -8969,7 +9009,7 @@
       <c r="D320" s="15"/>
       <c r="E320" s="15"/>
       <c r="F320" s="15"/>
-      <c r="G320" s="20"/>
+      <c r="G320" s="18"/>
       <c r="H320" s="15"/>
       <c r="I320" s="15"/>
       <c r="J320" s="15"/>
@@ -8982,7 +9022,7 @@
       <c r="D321" s="15"/>
       <c r="E321" s="15"/>
       <c r="F321" s="15"/>
-      <c r="G321" s="20"/>
+      <c r="G321" s="18"/>
       <c r="H321" s="15"/>
       <c r="I321" s="15"/>
       <c r="J321" s="15"/>
@@ -8995,7 +9035,7 @@
       <c r="D322" s="15"/>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
-      <c r="G322" s="20"/>
+      <c r="G322" s="18"/>
       <c r="H322" s="15"/>
       <c r="I322" s="15"/>
       <c r="J322" s="15"/>
@@ -9008,7 +9048,7 @@
       <c r="D323" s="15"/>
       <c r="E323" s="15"/>
       <c r="F323" s="15"/>
-      <c r="G323" s="20"/>
+      <c r="G323" s="18"/>
       <c r="H323" s="15"/>
       <c r="I323" s="15"/>
       <c r="J323" s="15"/>
@@ -9021,7 +9061,7 @@
       <c r="D324" s="15"/>
       <c r="E324" s="15"/>
       <c r="F324" s="15"/>
-      <c r="G324" s="20"/>
+      <c r="G324" s="18"/>
       <c r="H324" s="15"/>
       <c r="I324" s="15"/>
       <c r="J324" s="15"/>
@@ -9034,7 +9074,7 @@
       <c r="D325" s="15"/>
       <c r="E325" s="15"/>
       <c r="F325" s="15"/>
-      <c r="G325" s="20"/>
+      <c r="G325" s="18"/>
       <c r="H325" s="15"/>
       <c r="I325" s="15"/>
       <c r="J325" s="15"/>
@@ -9047,7 +9087,7 @@
       <c r="D326" s="15"/>
       <c r="E326" s="15"/>
       <c r="F326" s="15"/>
-      <c r="G326" s="20"/>
+      <c r="G326" s="18"/>
       <c r="H326" s="15"/>
       <c r="I326" s="15"/>
       <c r="J326" s="15"/>
@@ -9060,7 +9100,7 @@
       <c r="D327" s="15"/>
       <c r="E327" s="15"/>
       <c r="F327" s="15"/>
-      <c r="G327" s="20"/>
+      <c r="G327" s="18"/>
       <c r="H327" s="15"/>
       <c r="I327" s="15"/>
       <c r="J327" s="15"/>
@@ -9073,7 +9113,7 @@
       <c r="D328" s="15"/>
       <c r="E328" s="15"/>
       <c r="F328" s="15"/>
-      <c r="G328" s="20"/>
+      <c r="G328" s="18"/>
       <c r="H328" s="15"/>
       <c r="I328" s="15"/>
       <c r="J328" s="15"/>
@@ -9086,7 +9126,7 @@
       <c r="D329" s="15"/>
       <c r="E329" s="15"/>
       <c r="F329" s="15"/>
-      <c r="G329" s="20"/>
+      <c r="G329" s="18"/>
       <c r="H329" s="15"/>
       <c r="I329" s="15"/>
       <c r="J329" s="15"/>
@@ -9099,7 +9139,7 @@
       <c r="D330" s="15"/>
       <c r="E330" s="15"/>
       <c r="F330" s="15"/>
-      <c r="G330" s="20"/>
+      <c r="G330" s="18"/>
       <c r="H330" s="15"/>
       <c r="I330" s="15"/>
       <c r="J330" s="15"/>
@@ -9112,7 +9152,7 @@
       <c r="D331" s="15"/>
       <c r="E331" s="15"/>
       <c r="F331" s="15"/>
-      <c r="G331" s="20"/>
+      <c r="G331" s="18"/>
       <c r="H331" s="15"/>
       <c r="I331" s="15"/>
       <c r="J331" s="15"/>
@@ -9125,7 +9165,7 @@
       <c r="D332" s="15"/>
       <c r="E332" s="15"/>
       <c r="F332" s="15"/>
-      <c r="G332" s="20"/>
+      <c r="G332" s="18"/>
       <c r="H332" s="15"/>
       <c r="I332" s="15"/>
       <c r="J332" s="15"/>
@@ -9138,7 +9178,7 @@
       <c r="D333" s="15"/>
       <c r="E333" s="15"/>
       <c r="F333" s="15"/>
-      <c r="G333" s="20"/>
+      <c r="G333" s="18"/>
       <c r="H333" s="15"/>
       <c r="I333" s="15"/>
       <c r="J333" s="15"/>
@@ -9151,7 +9191,7 @@
       <c r="D334" s="15"/>
       <c r="E334" s="15"/>
       <c r="F334" s="15"/>
-      <c r="G334" s="20"/>
+      <c r="G334" s="18"/>
       <c r="H334" s="15"/>
       <c r="I334" s="15"/>
       <c r="J334" s="15"/>
@@ -9164,7 +9204,7 @@
       <c r="D335" s="15"/>
       <c r="E335" s="15"/>
       <c r="F335" s="15"/>
-      <c r="G335" s="20"/>
+      <c r="G335" s="18"/>
       <c r="H335" s="15"/>
       <c r="I335" s="15"/>
       <c r="J335" s="15"/>
@@ -9177,7 +9217,7 @@
       <c r="D336" s="15"/>
       <c r="E336" s="15"/>
       <c r="F336" s="15"/>
-      <c r="G336" s="20"/>
+      <c r="G336" s="18"/>
       <c r="H336" s="15"/>
       <c r="I336" s="15"/>
       <c r="J336" s="15"/>
@@ -9190,7 +9230,7 @@
       <c r="D337" s="15"/>
       <c r="E337" s="15"/>
       <c r="F337" s="15"/>
-      <c r="G337" s="20"/>
+      <c r="G337" s="18"/>
       <c r="H337" s="15"/>
       <c r="I337" s="15"/>
       <c r="J337" s="15"/>
@@ -9203,7 +9243,7 @@
       <c r="D338" s="15"/>
       <c r="E338" s="15"/>
       <c r="F338" s="15"/>
-      <c r="G338" s="20"/>
+      <c r="G338" s="18"/>
       <c r="H338" s="15"/>
       <c r="I338" s="15"/>
       <c r="J338" s="15"/>
@@ -9216,7 +9256,7 @@
       <c r="D339" s="15"/>
       <c r="E339" s="15"/>
       <c r="F339" s="15"/>
-      <c r="G339" s="20"/>
+      <c r="G339" s="18"/>
       <c r="H339" s="15"/>
       <c r="I339" s="15"/>
       <c r="J339" s="15"/>
@@ -9229,7 +9269,7 @@
       <c r="D340" s="15"/>
       <c r="E340" s="15"/>
       <c r="F340" s="15"/>
-      <c r="G340" s="20"/>
+      <c r="G340" s="18"/>
       <c r="H340" s="15"/>
       <c r="I340" s="15"/>
       <c r="J340" s="15"/>
@@ -9242,7 +9282,7 @@
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
       <c r="F341" s="15"/>
-      <c r="G341" s="20"/>
+      <c r="G341" s="18"/>
       <c r="H341" s="15"/>
       <c r="I341" s="15"/>
       <c r="J341" s="15"/>
@@ -9255,7 +9295,7 @@
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
       <c r="F342" s="15"/>
-      <c r="G342" s="20"/>
+      <c r="G342" s="18"/>
       <c r="H342" s="15"/>
       <c r="I342" s="15"/>
       <c r="J342" s="15"/>
@@ -9268,7 +9308,7 @@
       <c r="D343" s="15"/>
       <c r="E343" s="15"/>
       <c r="F343" s="15"/>
-      <c r="G343" s="20"/>
+      <c r="G343" s="18"/>
       <c r="H343" s="15"/>
       <c r="I343" s="15"/>
       <c r="J343" s="15"/>
@@ -9281,7 +9321,7 @@
       <c r="D344" s="15"/>
       <c r="E344" s="15"/>
       <c r="F344" s="15"/>
-      <c r="G344" s="20"/>
+      <c r="G344" s="18"/>
       <c r="H344" s="15"/>
       <c r="I344" s="15"/>
       <c r="J344" s="15"/>
@@ -9294,7 +9334,7 @@
       <c r="D345" s="15"/>
       <c r="E345" s="15"/>
       <c r="F345" s="15"/>
-      <c r="G345" s="20"/>
+      <c r="G345" s="18"/>
       <c r="H345" s="15"/>
       <c r="I345" s="15"/>
       <c r="J345" s="15"/>
@@ -9307,7 +9347,7 @@
       <c r="D346" s="15"/>
       <c r="E346" s="15"/>
       <c r="F346" s="15"/>
-      <c r="G346" s="20"/>
+      <c r="G346" s="18"/>
       <c r="H346" s="15"/>
       <c r="I346" s="15"/>
       <c r="J346" s="15"/>
@@ -9320,7 +9360,7 @@
       <c r="D347" s="15"/>
       <c r="E347" s="15"/>
       <c r="F347" s="15"/>
-      <c r="G347" s="20"/>
+      <c r="G347" s="18"/>
       <c r="H347" s="15"/>
       <c r="I347" s="15"/>
       <c r="J347" s="15"/>
@@ -9333,7 +9373,7 @@
       <c r="D348" s="15"/>
       <c r="E348" s="15"/>
       <c r="F348" s="15"/>
-      <c r="G348" s="20"/>
+      <c r="G348" s="18"/>
       <c r="H348" s="15"/>
       <c r="I348" s="15"/>
       <c r="J348" s="15"/>
@@ -9346,7 +9386,7 @@
       <c r="D349" s="15"/>
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
-      <c r="G349" s="20"/>
+      <c r="G349" s="18"/>
       <c r="H349" s="15"/>
       <c r="I349" s="15"/>
       <c r="J349" s="15"/>
@@ -9359,7 +9399,7 @@
       <c r="D350" s="15"/>
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
-      <c r="G350" s="20"/>
+      <c r="G350" s="18"/>
       <c r="H350" s="15"/>
       <c r="I350" s="15"/>
       <c r="J350" s="15"/>
@@ -9372,7 +9412,7 @@
       <c r="D351" s="15"/>
       <c r="E351" s="15"/>
       <c r="F351" s="15"/>
-      <c r="G351" s="20"/>
+      <c r="G351" s="18"/>
       <c r="H351" s="15"/>
       <c r="I351" s="15"/>
       <c r="J351" s="15"/>
@@ -9385,7 +9425,7 @@
       <c r="D352" s="15"/>
       <c r="E352" s="15"/>
       <c r="F352" s="15"/>
-      <c r="G352" s="20"/>
+      <c r="G352" s="18"/>
       <c r="H352" s="15"/>
       <c r="I352" s="15"/>
       <c r="J352" s="15"/>
@@ -9398,7 +9438,7 @@
       <c r="D353" s="15"/>
       <c r="E353" s="15"/>
       <c r="F353" s="15"/>
-      <c r="G353" s="20"/>
+      <c r="G353" s="18"/>
       <c r="H353" s="15"/>
       <c r="I353" s="15"/>
       <c r="J353" s="15"/>
@@ -9411,7 +9451,7 @@
       <c r="D354" s="15"/>
       <c r="E354" s="15"/>
       <c r="F354" s="15"/>
-      <c r="G354" s="20"/>
+      <c r="G354" s="18"/>
       <c r="H354" s="15"/>
       <c r="I354" s="15"/>
       <c r="J354" s="15"/>
@@ -9424,7 +9464,7 @@
       <c r="D355" s="15"/>
       <c r="E355" s="15"/>
       <c r="F355" s="15"/>
-      <c r="G355" s="20"/>
+      <c r="G355" s="18"/>
       <c r="H355" s="15"/>
       <c r="I355" s="15"/>
       <c r="J355" s="15"/>
@@ -9437,7 +9477,7 @@
       <c r="D356" s="15"/>
       <c r="E356" s="15"/>
       <c r="F356" s="15"/>
-      <c r="G356" s="20"/>
+      <c r="G356" s="18"/>
       <c r="H356" s="15"/>
       <c r="I356" s="15"/>
       <c r="J356" s="15"/>
@@ -9450,7 +9490,7 @@
       <c r="D357" s="15"/>
       <c r="E357" s="15"/>
       <c r="F357" s="15"/>
-      <c r="G357" s="20"/>
+      <c r="G357" s="18"/>
       <c r="H357" s="15"/>
       <c r="I357" s="15"/>
       <c r="J357" s="15"/>
@@ -9463,7 +9503,7 @@
       <c r="D358" s="15"/>
       <c r="E358" s="15"/>
       <c r="F358" s="15"/>
-      <c r="G358" s="20"/>
+      <c r="G358" s="18"/>
       <c r="H358" s="15"/>
       <c r="I358" s="15"/>
       <c r="J358" s="15"/>
@@ -9476,7 +9516,7 @@
       <c r="D359" s="15"/>
       <c r="E359" s="15"/>
       <c r="F359" s="15"/>
-      <c r="G359" s="20"/>
+      <c r="G359" s="18"/>
       <c r="H359" s="15"/>
       <c r="I359" s="15"/>
       <c r="J359" s="15"/>
@@ -9489,7 +9529,7 @@
       <c r="D360" s="15"/>
       <c r="E360" s="15"/>
       <c r="F360" s="15"/>
-      <c r="G360" s="20"/>
+      <c r="G360" s="18"/>
       <c r="H360" s="15"/>
       <c r="I360" s="15"/>
       <c r="J360" s="15"/>
@@ -9502,7 +9542,7 @@
       <c r="D361" s="15"/>
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
-      <c r="G361" s="20"/>
+      <c r="G361" s="18"/>
       <c r="H361" s="15"/>
       <c r="I361" s="15"/>
       <c r="J361" s="15"/>
@@ -9515,7 +9555,7 @@
       <c r="D362" s="15"/>
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
-      <c r="G362" s="20"/>
+      <c r="G362" s="18"/>
       <c r="H362" s="15"/>
       <c r="I362" s="15"/>
       <c r="J362" s="15"/>
@@ -9528,7 +9568,7 @@
       <c r="D363" s="15"/>
       <c r="E363" s="15"/>
       <c r="F363" s="15"/>
-      <c r="G363" s="20"/>
+      <c r="G363" s="18"/>
       <c r="H363" s="15"/>
       <c r="I363" s="15"/>
       <c r="J363" s="15"/>
@@ -9541,7 +9581,7 @@
       <c r="D364" s="15"/>
       <c r="E364" s="15"/>
       <c r="F364" s="15"/>
-      <c r="G364" s="20"/>
+      <c r="G364" s="18"/>
       <c r="H364" s="15"/>
       <c r="I364" s="15"/>
       <c r="J364" s="15"/>
@@ -9554,7 +9594,7 @@
       <c r="D365" s="15"/>
       <c r="E365" s="15"/>
       <c r="F365" s="15"/>
-      <c r="G365" s="20"/>
+      <c r="G365" s="18"/>
       <c r="H365" s="15"/>
       <c r="I365" s="15"/>
       <c r="J365" s="15"/>
@@ -9567,7 +9607,7 @@
       <c r="D366" s="15"/>
       <c r="E366" s="15"/>
       <c r="F366" s="15"/>
-      <c r="G366" s="20"/>
+      <c r="G366" s="18"/>
       <c r="H366" s="15"/>
       <c r="I366" s="15"/>
       <c r="J366" s="15"/>
@@ -9580,7 +9620,7 @@
       <c r="D367" s="15"/>
       <c r="E367" s="15"/>
       <c r="F367" s="15"/>
-      <c r="G367" s="20"/>
+      <c r="G367" s="18"/>
       <c r="H367" s="15"/>
       <c r="I367" s="15"/>
       <c r="J367" s="15"/>
@@ -9593,7 +9633,7 @@
       <c r="D368" s="15"/>
       <c r="E368" s="15"/>
       <c r="F368" s="15"/>
-      <c r="G368" s="20"/>
+      <c r="G368" s="18"/>
       <c r="H368" s="15"/>
       <c r="I368" s="15"/>
       <c r="J368" s="15"/>
@@ -9606,7 +9646,7 @@
       <c r="D369" s="15"/>
       <c r="E369" s="15"/>
       <c r="F369" s="15"/>
-      <c r="G369" s="20"/>
+      <c r="G369" s="18"/>
       <c r="H369" s="15"/>
       <c r="I369" s="15"/>
       <c r="J369" s="15"/>
@@ -9619,7 +9659,7 @@
       <c r="D370" s="15"/>
       <c r="E370" s="15"/>
       <c r="F370" s="15"/>
-      <c r="G370" s="20"/>
+      <c r="G370" s="18"/>
       <c r="H370" s="15"/>
       <c r="I370" s="15"/>
       <c r="J370" s="15"/>
@@ -9632,7 +9672,7 @@
       <c r="D371" s="15"/>
       <c r="E371" s="15"/>
       <c r="F371" s="15"/>
-      <c r="G371" s="20"/>
+      <c r="G371" s="18"/>
       <c r="H371" s="15"/>
       <c r="I371" s="15"/>
       <c r="J371" s="15"/>
@@ -9645,7 +9685,7 @@
       <c r="D372" s="15"/>
       <c r="E372" s="15"/>
       <c r="F372" s="15"/>
-      <c r="G372" s="20"/>
+      <c r="G372" s="18"/>
       <c r="H372" s="15"/>
       <c r="I372" s="15"/>
       <c r="J372" s="15"/>
@@ -9658,7 +9698,7 @@
       <c r="D373" s="15"/>
       <c r="E373" s="15"/>
       <c r="F373" s="15"/>
-      <c r="G373" s="20"/>
+      <c r="G373" s="18"/>
       <c r="H373" s="15"/>
       <c r="I373" s="15"/>
       <c r="J373" s="15"/>
@@ -9671,7 +9711,7 @@
       <c r="D374" s="15"/>
       <c r="E374" s="15"/>
       <c r="F374" s="15"/>
-      <c r="G374" s="20"/>
+      <c r="G374" s="18"/>
       <c r="H374" s="15"/>
       <c r="I374" s="15"/>
       <c r="J374" s="15"/>
@@ -9684,7 +9724,7 @@
       <c r="D375" s="15"/>
       <c r="E375" s="15"/>
       <c r="F375" s="15"/>
-      <c r="G375" s="20"/>
+      <c r="G375" s="18"/>
       <c r="H375" s="15"/>
       <c r="I375" s="15"/>
       <c r="J375" s="15"/>
@@ -9697,7 +9737,7 @@
       <c r="D376" s="15"/>
       <c r="E376" s="15"/>
       <c r="F376" s="15"/>
-      <c r="G376" s="20"/>
+      <c r="G376" s="18"/>
       <c r="H376" s="15"/>
       <c r="I376" s="15"/>
       <c r="J376" s="15"/>
@@ -9710,7 +9750,7 @@
       <c r="D377" s="15"/>
       <c r="E377" s="15"/>
       <c r="F377" s="15"/>
-      <c r="G377" s="20"/>
+      <c r="G377" s="18"/>
       <c r="H377" s="15"/>
       <c r="I377" s="15"/>
       <c r="J377" s="15"/>
@@ -9723,7 +9763,7 @@
       <c r="D378" s="15"/>
       <c r="E378" s="15"/>
       <c r="F378" s="15"/>
-      <c r="G378" s="20"/>
+      <c r="G378" s="18"/>
       <c r="H378" s="15"/>
       <c r="I378" s="15"/>
       <c r="J378" s="15"/>
@@ -9736,7 +9776,7 @@
       <c r="D379" s="15"/>
       <c r="E379" s="15"/>
       <c r="F379" s="15"/>
-      <c r="G379" s="20"/>
+      <c r="G379" s="18"/>
       <c r="H379" s="15"/>
       <c r="I379" s="15"/>
       <c r="J379" s="15"/>
@@ -9749,7 +9789,7 @@
       <c r="D380" s="15"/>
       <c r="E380" s="15"/>
       <c r="F380" s="15"/>
-      <c r="G380" s="20"/>
+      <c r="G380" s="18"/>
       <c r="H380" s="15"/>
       <c r="I380" s="15"/>
       <c r="J380" s="15"/>
@@ -9762,7 +9802,7 @@
       <c r="D381" s="15"/>
       <c r="E381" s="15"/>
       <c r="F381" s="15"/>
-      <c r="G381" s="20"/>
+      <c r="G381" s="18"/>
       <c r="H381" s="15"/>
       <c r="I381" s="15"/>
       <c r="J381" s="15"/>
@@ -9775,7 +9815,7 @@
       <c r="D382" s="15"/>
       <c r="E382" s="15"/>
       <c r="F382" s="15"/>
-      <c r="G382" s="20"/>
+      <c r="G382" s="18"/>
       <c r="H382" s="15"/>
       <c r="I382" s="15"/>
       <c r="J382" s="15"/>
@@ -9788,7 +9828,7 @@
       <c r="D383" s="15"/>
       <c r="E383" s="15"/>
       <c r="F383" s="15"/>
-      <c r="G383" s="20"/>
+      <c r="G383" s="18"/>
       <c r="H383" s="15"/>
       <c r="I383" s="15"/>
       <c r="J383" s="15"/>
@@ -9801,7 +9841,7 @@
       <c r="D384" s="15"/>
       <c r="E384" s="15"/>
       <c r="F384" s="15"/>
-      <c r="G384" s="20"/>
+      <c r="G384" s="18"/>
       <c r="H384" s="15"/>
       <c r="I384" s="15"/>
       <c r="J384" s="15"/>
@@ -9814,7 +9854,7 @@
       <c r="D385" s="15"/>
       <c r="E385" s="15"/>
       <c r="F385" s="15"/>
-      <c r="G385" s="20"/>
+      <c r="G385" s="18"/>
       <c r="H385" s="15"/>
       <c r="I385" s="15"/>
       <c r="J385" s="15"/>
@@ -9827,7 +9867,7 @@
       <c r="D386" s="15"/>
       <c r="E386" s="15"/>
       <c r="F386" s="15"/>
-      <c r="G386" s="20"/>
+      <c r="G386" s="18"/>
       <c r="H386" s="15"/>
       <c r="I386" s="15"/>
       <c r="J386" s="15"/>
@@ -9840,7 +9880,7 @@
       <c r="D387" s="15"/>
       <c r="E387" s="15"/>
       <c r="F387" s="15"/>
-      <c r="G387" s="20"/>
+      <c r="G387" s="18"/>
       <c r="H387" s="15"/>
       <c r="I387" s="15"/>
       <c r="J387" s="15"/>
@@ -9853,7 +9893,7 @@
       <c r="D388" s="15"/>
       <c r="E388" s="15"/>
       <c r="F388" s="15"/>
-      <c r="G388" s="20"/>
+      <c r="G388" s="18"/>
       <c r="H388" s="15"/>
       <c r="I388" s="15"/>
       <c r="J388" s="15"/>
@@ -9866,7 +9906,7 @@
       <c r="D389" s="15"/>
       <c r="E389" s="15"/>
       <c r="F389" s="15"/>
-      <c r="G389" s="20"/>
+      <c r="G389" s="18"/>
       <c r="H389" s="15"/>
       <c r="I389" s="15"/>
       <c r="J389" s="15"/>
@@ -9879,7 +9919,7 @@
       <c r="D390" s="15"/>
       <c r="E390" s="15"/>
       <c r="F390" s="15"/>
-      <c r="G390" s="20"/>
+      <c r="G390" s="18"/>
       <c r="H390" s="15"/>
       <c r="I390" s="15"/>
       <c r="J390" s="15"/>
@@ -9892,7 +9932,7 @@
       <c r="D391" s="15"/>
       <c r="E391" s="15"/>
       <c r="F391" s="15"/>
-      <c r="G391" s="20"/>
+      <c r="G391" s="18"/>
       <c r="H391" s="15"/>
       <c r="I391" s="15"/>
       <c r="J391" s="15"/>
@@ -9905,7 +9945,7 @@
       <c r="D392" s="15"/>
       <c r="E392" s="15"/>
       <c r="F392" s="15"/>
-      <c r="G392" s="20"/>
+      <c r="G392" s="18"/>
       <c r="H392" s="15"/>
       <c r="I392" s="15"/>
       <c r="J392" s="15"/>
@@ -9918,7 +9958,7 @@
       <c r="D393" s="15"/>
       <c r="E393" s="15"/>
       <c r="F393" s="15"/>
-      <c r="G393" s="20"/>
+      <c r="G393" s="18"/>
       <c r="H393" s="15"/>
       <c r="I393" s="15"/>
       <c r="J393" s="15"/>
@@ -9931,7 +9971,7 @@
       <c r="D394" s="15"/>
       <c r="E394" s="15"/>
       <c r="F394" s="15"/>
-      <c r="G394" s="20"/>
+      <c r="G394" s="18"/>
       <c r="H394" s="15"/>
       <c r="I394" s="15"/>
       <c r="J394" s="15"/>
@@ -9944,7 +9984,7 @@
       <c r="D395" s="15"/>
       <c r="E395" s="15"/>
       <c r="F395" s="15"/>
-      <c r="G395" s="20"/>
+      <c r="G395" s="18"/>
       <c r="H395" s="15"/>
       <c r="I395" s="15"/>
       <c r="J395" s="15"/>
@@ -9957,7 +9997,7 @@
       <c r="D396" s="15"/>
       <c r="E396" s="15"/>
       <c r="F396" s="15"/>
-      <c r="G396" s="20"/>
+      <c r="G396" s="18"/>
       <c r="H396" s="15"/>
       <c r="I396" s="15"/>
       <c r="J396" s="15"/>
@@ -9970,7 +10010,7 @@
       <c r="D397" s="15"/>
       <c r="E397" s="15"/>
       <c r="F397" s="15"/>
-      <c r="G397" s="20"/>
+      <c r="G397" s="18"/>
       <c r="H397" s="15"/>
       <c r="I397" s="15"/>
       <c r="J397" s="15"/>
@@ -9983,7 +10023,7 @@
       <c r="D398" s="15"/>
       <c r="E398" s="15"/>
       <c r="F398" s="15"/>
-      <c r="G398" s="20"/>
+      <c r="G398" s="18"/>
       <c r="H398" s="15"/>
       <c r="I398" s="15"/>
       <c r="J398" s="15"/>
@@ -9996,7 +10036,7 @@
       <c r="D399" s="15"/>
       <c r="E399" s="15"/>
       <c r="F399" s="15"/>
-      <c r="G399" s="20"/>
+      <c r="G399" s="18"/>
       <c r="H399" s="15"/>
       <c r="I399" s="15"/>
       <c r="J399" s="15"/>
@@ -10009,7 +10049,7 @@
       <c r="D400" s="15"/>
       <c r="E400" s="15"/>
       <c r="F400" s="15"/>
-      <c r="G400" s="20"/>
+      <c r="G400" s="18"/>
       <c r="H400" s="15"/>
       <c r="I400" s="15"/>
       <c r="J400" s="15"/>
@@ -10022,7 +10062,7 @@
       <c r="D401" s="15"/>
       <c r="E401" s="15"/>
       <c r="F401" s="15"/>
-      <c r="G401" s="20"/>
+      <c r="G401" s="18"/>
       <c r="H401" s="15"/>
       <c r="I401" s="15"/>
       <c r="J401" s="15"/>
@@ -10035,7 +10075,7 @@
       <c r="D402" s="15"/>
       <c r="E402" s="15"/>
       <c r="F402" s="15"/>
-      <c r="G402" s="20"/>
+      <c r="G402" s="18"/>
       <c r="H402" s="15"/>
       <c r="I402" s="15"/>
       <c r="J402" s="15"/>
@@ -10048,7 +10088,7 @@
       <c r="D403" s="15"/>
       <c r="E403" s="15"/>
       <c r="F403" s="15"/>
-      <c r="G403" s="20"/>
+      <c r="G403" s="18"/>
       <c r="H403" s="15"/>
       <c r="I403" s="15"/>
       <c r="J403" s="15"/>
@@ -10061,7 +10101,7 @@
       <c r="D404" s="15"/>
       <c r="E404" s="15"/>
       <c r="F404" s="15"/>
-      <c r="G404" s="20"/>
+      <c r="G404" s="18"/>
       <c r="H404" s="15"/>
       <c r="I404" s="15"/>
       <c r="J404" s="15"/>
@@ -10074,7 +10114,7 @@
       <c r="D405" s="15"/>
       <c r="E405" s="15"/>
       <c r="F405" s="15"/>
-      <c r="G405" s="20"/>
+      <c r="G405" s="18"/>
       <c r="H405" s="15"/>
       <c r="I405" s="15"/>
       <c r="J405" s="15"/>
@@ -10087,7 +10127,7 @@
       <c r="D406" s="15"/>
       <c r="E406" s="15"/>
       <c r="F406" s="15"/>
-      <c r="G406" s="20"/>
+      <c r="G406" s="18"/>
       <c r="H406" s="15"/>
       <c r="I406" s="15"/>
       <c r="J406" s="15"/>
@@ -10100,7 +10140,7 @@
       <c r="D407" s="15"/>
       <c r="E407" s="15"/>
       <c r="F407" s="15"/>
-      <c r="G407" s="20"/>
+      <c r="G407" s="18"/>
       <c r="H407" s="15"/>
       <c r="I407" s="15"/>
       <c r="J407" s="15"/>
@@ -10113,7 +10153,7 @@
       <c r="D408" s="15"/>
       <c r="E408" s="15"/>
       <c r="F408" s="15"/>
-      <c r="G408" s="20"/>
+      <c r="G408" s="18"/>
       <c r="H408" s="15"/>
       <c r="I408" s="15"/>
       <c r="J408" s="15"/>
@@ -10126,7 +10166,7 @@
       <c r="D409" s="15"/>
       <c r="E409" s="15"/>
       <c r="F409" s="15"/>
-      <c r="G409" s="20"/>
+      <c r="G409" s="18"/>
       <c r="H409" s="15"/>
       <c r="I409" s="15"/>
       <c r="J409" s="15"/>
@@ -10139,7 +10179,7 @@
       <c r="D410" s="15"/>
       <c r="E410" s="15"/>
       <c r="F410" s="15"/>
-      <c r="G410" s="20"/>
+      <c r="G410" s="18"/>
       <c r="H410" s="15"/>
       <c r="I410" s="15"/>
       <c r="J410" s="15"/>
@@ -10152,7 +10192,7 @@
       <c r="D411" s="15"/>
       <c r="E411" s="15"/>
       <c r="F411" s="15"/>
-      <c r="G411" s="20"/>
+      <c r="G411" s="18"/>
       <c r="H411" s="15"/>
       <c r="I411" s="15"/>
       <c r="J411" s="15"/>
@@ -10165,7 +10205,7 @@
       <c r="D412" s="15"/>
       <c r="E412" s="15"/>
       <c r="F412" s="15"/>
-      <c r="G412" s="20"/>
+      <c r="G412" s="18"/>
       <c r="H412" s="15"/>
       <c r="I412" s="15"/>
       <c r="J412" s="15"/>
@@ -10178,7 +10218,7 @@
       <c r="D413" s="15"/>
       <c r="E413" s="15"/>
       <c r="F413" s="15"/>
-      <c r="G413" s="20"/>
+      <c r="G413" s="18"/>
       <c r="H413" s="15"/>
       <c r="I413" s="15"/>
       <c r="J413" s="15"/>
@@ -10191,7 +10231,7 @@
       <c r="D414" s="15"/>
       <c r="E414" s="15"/>
       <c r="F414" s="15"/>
-      <c r="G414" s="20"/>
+      <c r="G414" s="18"/>
       <c r="H414" s="15"/>
       <c r="I414" s="15"/>
       <c r="J414" s="15"/>
@@ -10204,7 +10244,7 @@
       <c r="D415" s="15"/>
       <c r="E415" s="15"/>
       <c r="F415" s="15"/>
-      <c r="G415" s="20"/>
+      <c r="G415" s="18"/>
       <c r="H415" s="15"/>
       <c r="I415" s="15"/>
       <c r="J415" s="15"/>
@@ -10217,7 +10257,7 @@
       <c r="D416" s="15"/>
       <c r="E416" s="15"/>
       <c r="F416" s="15"/>
-      <c r="G416" s="20"/>
+      <c r="G416" s="18"/>
       <c r="H416" s="15"/>
       <c r="I416" s="15"/>
       <c r="J416" s="15"/>
@@ -10230,7 +10270,7 @@
       <c r="D417" s="15"/>
       <c r="E417" s="15"/>
       <c r="F417" s="15"/>
-      <c r="G417" s="20"/>
+      <c r="G417" s="18"/>
       <c r="H417" s="15"/>
       <c r="I417" s="15"/>
       <c r="J417" s="15"/>
@@ -10243,7 +10283,7 @@
       <c r="D418" s="15"/>
       <c r="E418" s="15"/>
       <c r="F418" s="15"/>
-      <c r="G418" s="20"/>
+      <c r="G418" s="18"/>
       <c r="H418" s="15"/>
       <c r="I418" s="15"/>
       <c r="J418" s="15"/>
@@ -10256,7 +10296,7 @@
       <c r="D419" s="15"/>
       <c r="E419" s="15"/>
       <c r="F419" s="15"/>
-      <c r="G419" s="20"/>
+      <c r="G419" s="18"/>
       <c r="H419" s="15"/>
       <c r="I419" s="15"/>
       <c r="J419" s="15"/>
@@ -10269,7 +10309,7 @@
       <c r="D420" s="15"/>
       <c r="E420" s="15"/>
       <c r="F420" s="15"/>
-      <c r="G420" s="20"/>
+      <c r="G420" s="18"/>
       <c r="H420" s="15"/>
       <c r="I420" s="15"/>
       <c r="J420" s="15"/>
@@ -10282,7 +10322,7 @@
       <c r="D421" s="15"/>
       <c r="E421" s="15"/>
       <c r="F421" s="15"/>
-      <c r="G421" s="20"/>
+      <c r="G421" s="18"/>
       <c r="H421" s="15"/>
       <c r="I421" s="15"/>
       <c r="J421" s="15"/>
@@ -10295,7 +10335,7 @@
       <c r="D422" s="15"/>
       <c r="E422" s="15"/>
       <c r="F422" s="15"/>
-      <c r="G422" s="20"/>
+      <c r="G422" s="18"/>
       <c r="H422" s="15"/>
       <c r="I422" s="15"/>
       <c r="J422" s="15"/>
@@ -10308,7 +10348,7 @@
       <c r="D423" s="15"/>
       <c r="E423" s="15"/>
       <c r="F423" s="15"/>
-      <c r="G423" s="20"/>
+      <c r="G423" s="18"/>
       <c r="H423" s="15"/>
       <c r="I423" s="15"/>
       <c r="J423" s="15"/>
@@ -10321,7 +10361,7 @@
       <c r="D424" s="15"/>
       <c r="E424" s="15"/>
       <c r="F424" s="15"/>
-      <c r="G424" s="20"/>
+      <c r="G424" s="18"/>
       <c r="H424" s="15"/>
       <c r="I424" s="15"/>
       <c r="J424" s="15"/>
@@ -10334,7 +10374,7 @@
       <c r="D425" s="15"/>
       <c r="E425" s="15"/>
       <c r="F425" s="15"/>
-      <c r="G425" s="20"/>
+      <c r="G425" s="18"/>
       <c r="H425" s="15"/>
       <c r="I425" s="15"/>
       <c r="J425" s="15"/>
@@ -10347,7 +10387,7 @@
       <c r="D426" s="15"/>
       <c r="E426" s="15"/>
       <c r="F426" s="15"/>
-      <c r="G426" s="20"/>
+      <c r="G426" s="18"/>
       <c r="H426" s="15"/>
       <c r="I426" s="15"/>
       <c r="J426" s="15"/>
@@ -10360,7 +10400,7 @@
       <c r="D427" s="15"/>
       <c r="E427" s="15"/>
       <c r="F427" s="15"/>
-      <c r="G427" s="20"/>
+      <c r="G427" s="18"/>
       <c r="H427" s="15"/>
       <c r="I427" s="15"/>
       <c r="J427" s="15"/>
@@ -10373,7 +10413,7 @@
       <c r="D428" s="15"/>
       <c r="E428" s="15"/>
       <c r="F428" s="15"/>
-      <c r="G428" s="20"/>
+      <c r="G428" s="18"/>
       <c r="H428" s="15"/>
       <c r="I428" s="15"/>
       <c r="J428" s="15"/>
@@ -10386,7 +10426,7 @@
       <c r="D429" s="15"/>
       <c r="E429" s="15"/>
       <c r="F429" s="15"/>
-      <c r="G429" s="20"/>
+      <c r="G429" s="18"/>
       <c r="H429" s="15"/>
       <c r="I429" s="15"/>
       <c r="J429" s="15"/>
@@ -10399,7 +10439,7 @@
       <c r="D430" s="15"/>
       <c r="E430" s="15"/>
       <c r="F430" s="15"/>
-      <c r="G430" s="20"/>
+      <c r="G430" s="18"/>
       <c r="H430" s="15"/>
       <c r="I430" s="15"/>
       <c r="J430" s="15"/>
@@ -10412,7 +10452,7 @@
       <c r="D431" s="15"/>
       <c r="E431" s="15"/>
       <c r="F431" s="15"/>
-      <c r="G431" s="20"/>
+      <c r="G431" s="18"/>
       <c r="H431" s="15"/>
       <c r="I431" s="15"/>
       <c r="J431" s="15"/>
@@ -10425,7 +10465,7 @@
       <c r="D432" s="15"/>
       <c r="E432" s="15"/>
       <c r="F432" s="15"/>
-      <c r="G432" s="20"/>
+      <c r="G432" s="18"/>
       <c r="H432" s="15"/>
       <c r="I432" s="15"/>
       <c r="J432" s="15"/>
@@ -10438,7 +10478,7 @@
       <c r="D433" s="15"/>
       <c r="E433" s="15"/>
       <c r="F433" s="15"/>
-      <c r="G433" s="20"/>
+      <c r="G433" s="18"/>
       <c r="H433" s="15"/>
       <c r="I433" s="15"/>
       <c r="J433" s="15"/>
@@ -10451,7 +10491,7 @@
       <c r="D434" s="15"/>
       <c r="E434" s="15"/>
       <c r="F434" s="15"/>
-      <c r="G434" s="20"/>
+      <c r="G434" s="18"/>
       <c r="H434" s="15"/>
       <c r="I434" s="15"/>
       <c r="J434" s="15"/>
@@ -10464,7 +10504,7 @@
       <c r="D435" s="15"/>
       <c r="E435" s="15"/>
       <c r="F435" s="15"/>
-      <c r="G435" s="20"/>
+      <c r="G435" s="18"/>
       <c r="H435" s="15"/>
       <c r="I435" s="15"/>
       <c r="J435" s="15"/>
@@ -10477,7 +10517,7 @@
       <c r="D436" s="15"/>
       <c r="E436" s="15"/>
       <c r="F436" s="15"/>
-      <c r="G436" s="20"/>
+      <c r="G436" s="18"/>
       <c r="H436" s="15"/>
       <c r="I436" s="15"/>
       <c r="J436" s="15"/>
@@ -10490,7 +10530,7 @@
       <c r="D437" s="15"/>
       <c r="E437" s="15"/>
       <c r="F437" s="15"/>
-      <c r="G437" s="20"/>
+      <c r="G437" s="18"/>
       <c r="H437" s="15"/>
       <c r="I437" s="15"/>
       <c r="J437" s="15"/>
@@ -10503,7 +10543,7 @@
       <c r="D438" s="15"/>
       <c r="E438" s="15"/>
       <c r="F438" s="15"/>
-      <c r="G438" s="20"/>
+      <c r="G438" s="18"/>
       <c r="H438" s="15"/>
       <c r="I438" s="15"/>
       <c r="J438" s="15"/>
@@ -10516,7 +10556,7 @@
       <c r="D439" s="15"/>
       <c r="E439" s="15"/>
       <c r="F439" s="15"/>
-      <c r="G439" s="20"/>
+      <c r="G439" s="18"/>
       <c r="H439" s="15"/>
       <c r="I439" s="15"/>
       <c r="J439" s="15"/>
@@ -10529,7 +10569,7 @@
       <c r="D440" s="15"/>
       <c r="E440" s="15"/>
       <c r="F440" s="15"/>
-      <c r="G440" s="20"/>
+      <c r="G440" s="18"/>
       <c r="H440" s="15"/>
       <c r="I440" s="15"/>
       <c r="J440" s="15"/>
@@ -10542,7 +10582,7 @@
       <c r="D441" s="15"/>
       <c r="E441" s="15"/>
       <c r="F441" s="15"/>
-      <c r="G441" s="20"/>
+      <c r="G441" s="18"/>
       <c r="H441" s="15"/>
       <c r="I441" s="15"/>
       <c r="J441" s="15"/>
@@ -10555,7 +10595,7 @@
       <c r="D442" s="15"/>
       <c r="E442" s="15"/>
       <c r="F442" s="15"/>
-      <c r="G442" s="20"/>
+      <c r="G442" s="18"/>
       <c r="H442" s="15"/>
       <c r="I442" s="15"/>
       <c r="J442" s="15"/>
@@ -10568,7 +10608,7 @@
       <c r="D443" s="15"/>
       <c r="E443" s="15"/>
       <c r="F443" s="15"/>
-      <c r="G443" s="20"/>
+      <c r="G443" s="18"/>
       <c r="H443" s="15"/>
       <c r="I443" s="15"/>
       <c r="J443" s="15"/>
@@ -10581,7 +10621,7 @@
       <c r="D444" s="15"/>
       <c r="E444" s="15"/>
       <c r="F444" s="15"/>
-      <c r="G444" s="20"/>
+      <c r="G444" s="18"/>
       <c r="H444" s="15"/>
       <c r="I444" s="15"/>
       <c r="J444" s="15"/>
@@ -10594,7 +10634,7 @@
       <c r="D445" s="15"/>
       <c r="E445" s="15"/>
       <c r="F445" s="15"/>
-      <c r="G445" s="20"/>
+      <c r="G445" s="18"/>
       <c r="H445" s="15"/>
       <c r="I445" s="15"/>
       <c r="J445" s="15"/>
@@ -10607,7 +10647,7 @@
       <c r="D446" s="15"/>
       <c r="E446" s="15"/>
       <c r="F446" s="15"/>
-      <c r="G446" s="20"/>
+      <c r="G446" s="18"/>
       <c r="H446" s="15"/>
       <c r="I446" s="15"/>
       <c r="J446" s="15"/>
@@ -10620,7 +10660,7 @@
       <c r="D447" s="15"/>
       <c r="E447" s="15"/>
       <c r="F447" s="15"/>
-      <c r="G447" s="20"/>
+      <c r="G447" s="18"/>
       <c r="H447" s="15"/>
       <c r="I447" s="15"/>
       <c r="J447" s="15"/>
@@ -10633,7 +10673,7 @@
       <c r="D448" s="15"/>
       <c r="E448" s="15"/>
       <c r="F448" s="15"/>
-      <c r="G448" s="20"/>
+      <c r="G448" s="18"/>
       <c r="H448" s="15"/>
       <c r="I448" s="15"/>
       <c r="J448" s="15"/>
@@ -10646,7 +10686,7 @@
       <c r="D449" s="15"/>
       <c r="E449" s="15"/>
       <c r="F449" s="15"/>
-      <c r="G449" s="20"/>
+      <c r="G449" s="18"/>
       <c r="H449" s="15"/>
       <c r="I449" s="15"/>
       <c r="J449" s="15"/>
@@ -10659,7 +10699,7 @@
       <c r="D450" s="15"/>
       <c r="E450" s="15"/>
       <c r="F450" s="15"/>
-      <c r="G450" s="20"/>
+      <c r="G450" s="18"/>
       <c r="H450" s="15"/>
       <c r="I450" s="15"/>
       <c r="J450" s="15"/>
@@ -10672,7 +10712,7 @@
       <c r="D451" s="15"/>
       <c r="E451" s="15"/>
       <c r="F451" s="15"/>
-      <c r="G451" s="20"/>
+      <c r="G451" s="18"/>
       <c r="H451" s="15"/>
       <c r="I451" s="15"/>
       <c r="J451" s="15"/>
@@ -10685,7 +10725,7 @@
       <c r="D452" s="15"/>
       <c r="E452" s="15"/>
       <c r="F452" s="15"/>
-      <c r="G452" s="20"/>
+      <c r="G452" s="18"/>
       <c r="H452" s="15"/>
       <c r="I452" s="15"/>
       <c r="J452" s="15"/>
@@ -10698,7 +10738,7 @@
       <c r="D453" s="15"/>
       <c r="E453" s="15"/>
       <c r="F453" s="15"/>
-      <c r="G453" s="20"/>
+      <c r="G453" s="18"/>
       <c r="H453" s="15"/>
       <c r="I453" s="15"/>
       <c r="J453" s="15"/>
@@ -10711,7 +10751,7 @@
       <c r="D454" s="15"/>
       <c r="E454" s="15"/>
       <c r="F454" s="15"/>
-      <c r="G454" s="20"/>
+      <c r="G454" s="18"/>
       <c r="H454" s="15"/>
       <c r="I454" s="15"/>
       <c r="J454" s="15"/>
@@ -10724,7 +10764,7 @@
       <c r="D455" s="15"/>
       <c r="E455" s="15"/>
       <c r="F455" s="15"/>
-      <c r="G455" s="20"/>
+      <c r="G455" s="18"/>
       <c r="H455" s="15"/>
       <c r="I455" s="15"/>
       <c r="J455" s="15"/>
@@ -10737,7 +10777,7 @@
       <c r="D456" s="15"/>
       <c r="E456" s="15"/>
       <c r="F456" s="15"/>
-      <c r="G456" s="20"/>
+      <c r="G456" s="18"/>
       <c r="H456" s="15"/>
       <c r="I456" s="15"/>
       <c r="J456" s="15"/>
@@ -10750,7 +10790,7 @@
       <c r="D457" s="15"/>
       <c r="E457" s="15"/>
       <c r="F457" s="15"/>
-      <c r="G457" s="20"/>
+      <c r="G457" s="18"/>
       <c r="H457" s="15"/>
       <c r="I457" s="15"/>
       <c r="J457" s="15"/>
@@ -10763,7 +10803,7 @@
       <c r="D458" s="15"/>
       <c r="E458" s="15"/>
       <c r="F458" s="15"/>
-      <c r="G458" s="20"/>
+      <c r="G458" s="18"/>
       <c r="H458" s="15"/>
       <c r="I458" s="15"/>
       <c r="J458" s="15"/>
@@ -10776,7 +10816,7 @@
       <c r="D459" s="15"/>
       <c r="E459" s="15"/>
       <c r="F459" s="15"/>
-      <c r="G459" s="20"/>
+      <c r="G459" s="18"/>
       <c r="H459" s="15"/>
       <c r="I459" s="15"/>
       <c r="J459" s="15"/>
@@ -10789,7 +10829,7 @@
       <c r="D460" s="15"/>
       <c r="E460" s="15"/>
       <c r="F460" s="15"/>
-      <c r="G460" s="20"/>
+      <c r="G460" s="18"/>
       <c r="H460" s="15"/>
       <c r="I460" s="15"/>
       <c r="J460" s="15"/>
@@ -10802,7 +10842,7 @@
       <c r="D461" s="15"/>
       <c r="E461" s="15"/>
       <c r="F461" s="15"/>
-      <c r="G461" s="20"/>
+      <c r="G461" s="18"/>
       <c r="H461" s="15"/>
       <c r="I461" s="15"/>
       <c r="J461" s="15"/>
@@ -10815,7 +10855,7 @@
       <c r="D462" s="15"/>
       <c r="E462" s="15"/>
       <c r="F462" s="15"/>
-      <c r="G462" s="20"/>
+      <c r="G462" s="18"/>
       <c r="H462" s="15"/>
       <c r="I462" s="15"/>
       <c r="J462" s="15"/>
@@ -10828,7 +10868,7 @@
       <c r="D463" s="15"/>
       <c r="E463" s="15"/>
       <c r="F463" s="15"/>
-      <c r="G463" s="20"/>
+      <c r="G463" s="18"/>
       <c r="H463" s="15"/>
       <c r="I463" s="15"/>
       <c r="J463" s="15"/>
@@ -10841,7 +10881,7 @@
       <c r="D464" s="15"/>
       <c r="E464" s="15"/>
       <c r="F464" s="15"/>
-      <c r="G464" s="20"/>
+      <c r="G464" s="18"/>
       <c r="H464" s="15"/>
       <c r="I464" s="15"/>
       <c r="J464" s="15"/>
@@ -10854,7 +10894,7 @@
       <c r="D465" s="15"/>
       <c r="E465" s="15"/>
       <c r="F465" s="15"/>
-      <c r="G465" s="20"/>
+      <c r="G465" s="18"/>
       <c r="H465" s="15"/>
       <c r="I465" s="15"/>
       <c r="J465" s="15"/>
@@ -10867,7 +10907,7 @@
       <c r="D466" s="15"/>
       <c r="E466" s="15"/>
       <c r="F466" s="15"/>
-      <c r="G466" s="20"/>
+      <c r="G466" s="18"/>
       <c r="H466" s="15"/>
       <c r="I466" s="15"/>
       <c r="J466" s="15"/>
@@ -10880,7 +10920,7 @@
       <c r="D467" s="15"/>
       <c r="E467" s="15"/>
       <c r="F467" s="15"/>
-      <c r="G467" s="20"/>
+      <c r="G467" s="18"/>
       <c r="H467" s="15"/>
       <c r="I467" s="15"/>
       <c r="J467" s="15"/>
@@ -10893,7 +10933,7 @@
       <c r="D468" s="15"/>
       <c r="E468" s="15"/>
       <c r="F468" s="15"/>
-      <c r="G468" s="20"/>
+      <c r="G468" s="18"/>
       <c r="H468" s="15"/>
       <c r="I468" s="15"/>
       <c r="J468" s="15"/>
@@ -10906,7 +10946,7 @@
       <c r="D469" s="15"/>
       <c r="E469" s="15"/>
       <c r="F469" s="15"/>
-      <c r="G469" s="20"/>
+      <c r="G469" s="18"/>
       <c r="H469" s="15"/>
       <c r="I469" s="15"/>
       <c r="J469" s="15"/>
@@ -10919,7 +10959,7 @@
       <c r="D470" s="15"/>
       <c r="E470" s="15"/>
       <c r="F470" s="15"/>
-      <c r="G470" s="20"/>
+      <c r="G470" s="18"/>
       <c r="H470" s="15"/>
       <c r="I470" s="15"/>
       <c r="J470" s="15"/>
@@ -10932,7 +10972,7 @@
       <c r="D471" s="15"/>
       <c r="E471" s="15"/>
       <c r="F471" s="15"/>
-      <c r="G471" s="20"/>
+      <c r="G471" s="18"/>
       <c r="H471" s="15"/>
       <c r="I471" s="15"/>
       <c r="J471" s="15"/>
@@ -10945,7 +10985,7 @@
       <c r="D472" s="15"/>
       <c r="E472" s="15"/>
       <c r="F472" s="15"/>
-      <c r="G472" s="20"/>
+      <c r="G472" s="18"/>
       <c r="H472" s="15"/>
       <c r="I472" s="15"/>
       <c r="J472" s="15"/>
@@ -10958,7 +10998,7 @@
       <c r="D473" s="15"/>
       <c r="E473" s="15"/>
       <c r="F473" s="15"/>
-      <c r="G473" s="20"/>
+      <c r="G473" s="18"/>
       <c r="H473" s="15"/>
       <c r="I473" s="15"/>
       <c r="J473" s="15"/>
@@ -10971,7 +11011,7 @@
       <c r="D474" s="15"/>
       <c r="E474" s="15"/>
       <c r="F474" s="15"/>
-      <c r="G474" s="20"/>
+      <c r="G474" s="18"/>
       <c r="H474" s="15"/>
       <c r="I474" s="15"/>
       <c r="J474" s="15"/>
@@ -10984,7 +11024,7 @@
       <c r="D475" s="15"/>
       <c r="E475" s="15"/>
       <c r="F475" s="15"/>
-      <c r="G475" s="20"/>
+      <c r="G475" s="18"/>
       <c r="H475" s="15"/>
       <c r="I475" s="15"/>
       <c r="J475" s="15"/>
@@ -10997,7 +11037,7 @@
       <c r="D476" s="15"/>
       <c r="E476" s="15"/>
       <c r="F476" s="15"/>
-      <c r="G476" s="20"/>
+      <c r="G476" s="18"/>
       <c r="H476" s="15"/>
       <c r="I476" s="15"/>
       <c r="J476" s="15"/>
@@ -11010,7 +11050,7 @@
       <c r="D477" s="15"/>
       <c r="E477" s="15"/>
       <c r="F477" s="15"/>
-      <c r="G477" s="20"/>
+      <c r="G477" s="18"/>
       <c r="H477" s="15"/>
       <c r="I477" s="15"/>
       <c r="J477" s="15"/>
@@ -11023,7 +11063,7 @@
       <c r="D478" s="15"/>
       <c r="E478" s="15"/>
       <c r="F478" s="15"/>
-      <c r="G478" s="20"/>
+      <c r="G478" s="18"/>
       <c r="H478" s="15"/>
       <c r="I478" s="15"/>
       <c r="J478" s="15"/>
@@ -11036,7 +11076,7 @@
       <c r="D479" s="15"/>
       <c r="E479" s="15"/>
       <c r="F479" s="15"/>
-      <c r="G479" s="20"/>
+      <c r="G479" s="18"/>
       <c r="H479" s="15"/>
       <c r="I479" s="15"/>
       <c r="J479" s="15"/>
@@ -11049,7 +11089,7 @@
       <c r="D480" s="15"/>
       <c r="E480" s="15"/>
       <c r="F480" s="15"/>
-      <c r="G480" s="20"/>
+      <c r="G480" s="18"/>
       <c r="H480" s="15"/>
       <c r="I480" s="15"/>
       <c r="J480" s="15"/>
@@ -11062,7 +11102,7 @@
       <c r="D481" s="15"/>
       <c r="E481" s="15"/>
       <c r="F481" s="15"/>
-      <c r="G481" s="20"/>
+      <c r="G481" s="18"/>
       <c r="H481" s="15"/>
       <c r="I481" s="15"/>
       <c r="J481" s="15"/>
@@ -11075,7 +11115,7 @@
       <c r="D482" s="15"/>
       <c r="E482" s="15"/>
       <c r="F482" s="15"/>
-      <c r="G482" s="20"/>
+      <c r="G482" s="18"/>
       <c r="H482" s="15"/>
       <c r="I482" s="15"/>
       <c r="J482" s="15"/>
@@ -11088,7 +11128,7 @@
       <c r="D483" s="15"/>
       <c r="E483" s="15"/>
       <c r="F483" s="15"/>
-      <c r="G483" s="20"/>
+      <c r="G483" s="18"/>
       <c r="H483" s="15"/>
       <c r="I483" s="15"/>
       <c r="J483" s="15"/>
@@ -11101,7 +11141,7 @@
       <c r="D484" s="15"/>
       <c r="E484" s="15"/>
       <c r="F484" s="15"/>
-      <c r="G484" s="20"/>
+      <c r="G484" s="18"/>
       <c r="H484" s="15"/>
       <c r="I484" s="15"/>
       <c r="J484" s="15"/>
@@ -11114,7 +11154,7 @@
       <c r="D485" s="15"/>
       <c r="E485" s="15"/>
       <c r="F485" s="15"/>
-      <c r="G485" s="20"/>
+      <c r="G485" s="18"/>
       <c r="H485" s="15"/>
       <c r="I485" s="15"/>
       <c r="J485" s="15"/>
@@ -11127,7 +11167,7 @@
       <c r="D486" s="15"/>
       <c r="E486" s="15"/>
       <c r="F486" s="15"/>
-      <c r="G486" s="20"/>
+      <c r="G486" s="18"/>
       <c r="H486" s="15"/>
       <c r="I486" s="15"/>
       <c r="J486" s="15"/>
@@ -11140,7 +11180,7 @@
       <c r="D487" s="15"/>
       <c r="E487" s="15"/>
       <c r="F487" s="15"/>
-      <c r="G487" s="20"/>
+      <c r="G487" s="18"/>
       <c r="H487" s="15"/>
       <c r="I487" s="15"/>
       <c r="J487" s="15"/>
@@ -11153,7 +11193,7 @@
       <c r="D488" s="15"/>
       <c r="E488" s="15"/>
       <c r="F488" s="15"/>
-      <c r="G488" s="20"/>
+      <c r="G488" s="18"/>
       <c r="H488" s="15"/>
       <c r="I488" s="15"/>
       <c r="J488" s="15"/>
@@ -11166,7 +11206,7 @@
       <c r="D489" s="15"/>
       <c r="E489" s="15"/>
       <c r="F489" s="15"/>
-      <c r="G489" s="20"/>
+      <c r="G489" s="18"/>
       <c r="H489" s="15"/>
       <c r="I489" s="15"/>
       <c r="J489" s="15"/>
@@ -11179,7 +11219,7 @@
       <c r="D490" s="15"/>
       <c r="E490" s="15"/>
       <c r="F490" s="15"/>
-      <c r="G490" s="20"/>
+      <c r="G490" s="18"/>
       <c r="H490" s="15"/>
       <c r="I490" s="15"/>
       <c r="J490" s="15"/>
@@ -11192,7 +11232,7 @@
       <c r="D491" s="15"/>
       <c r="E491" s="15"/>
       <c r="F491" s="15"/>
-      <c r="G491" s="20"/>
+      <c r="G491" s="18"/>
       <c r="H491" s="15"/>
       <c r="I491" s="15"/>
       <c r="J491" s="15"/>
@@ -11205,7 +11245,7 @@
       <c r="D492" s="15"/>
       <c r="E492" s="15"/>
       <c r="F492" s="15"/>
-      <c r="G492" s="20"/>
+      <c r="G492" s="18"/>
       <c r="H492" s="15"/>
       <c r="I492" s="15"/>
       <c r="J492" s="15"/>
@@ -11218,7 +11258,7 @@
       <c r="D493" s="15"/>
       <c r="E493" s="15"/>
       <c r="F493" s="15"/>
-      <c r="G493" s="20"/>
+      <c r="G493" s="18"/>
       <c r="H493" s="15"/>
       <c r="I493" s="15"/>
       <c r="J493" s="15"/>
@@ -11231,7 +11271,7 @@
       <c r="D494" s="15"/>
       <c r="E494" s="15"/>
       <c r="F494" s="15"/>
-      <c r="G494" s="20"/>
+      <c r="G494" s="18"/>
       <c r="H494" s="15"/>
       <c r="I494" s="15"/>
       <c r="J494" s="15"/>
@@ -11244,7 +11284,7 @@
       <c r="D495" s="15"/>
       <c r="E495" s="15"/>
       <c r="F495" s="15"/>
-      <c r="G495" s="20"/>
+      <c r="G495" s="18"/>
       <c r="H495" s="15"/>
       <c r="I495" s="15"/>
       <c r="J495" s="15"/>
@@ -11257,7 +11297,7 @@
       <c r="D496" s="15"/>
       <c r="E496" s="15"/>
       <c r="F496" s="15"/>
-      <c r="G496" s="20"/>
+      <c r="G496" s="18"/>
       <c r="H496" s="15"/>
       <c r="I496" s="15"/>
       <c r="J496" s="15"/>
@@ -11270,7 +11310,7 @@
       <c r="D497" s="15"/>
       <c r="E497" s="15"/>
       <c r="F497" s="15"/>
-      <c r="G497" s="20"/>
+      <c r="G497" s="18"/>
       <c r="H497" s="15"/>
       <c r="I497" s="15"/>
       <c r="J497" s="15"/>
@@ -11283,7 +11323,7 @@
       <c r="D498" s="15"/>
       <c r="E498" s="15"/>
       <c r="F498" s="15"/>
-      <c r="G498" s="20"/>
+      <c r="G498" s="18"/>
       <c r="H498" s="15"/>
       <c r="I498" s="15"/>
       <c r="J498" s="15"/>
@@ -11296,7 +11336,7 @@
       <c r="D499" s="15"/>
       <c r="E499" s="15"/>
       <c r="F499" s="15"/>
-      <c r="G499" s="20"/>
+      <c r="G499" s="18"/>
       <c r="H499" s="15"/>
       <c r="I499" s="15"/>
       <c r="J499" s="15"/>
@@ -11309,7 +11349,7 @@
       <c r="D500" s="15"/>
       <c r="E500" s="15"/>
       <c r="F500" s="15"/>
-      <c r="G500" s="20"/>
+      <c r="G500" s="18"/>
       <c r="H500" s="15"/>
       <c r="I500" s="15"/>
       <c r="J500" s="15"/>
@@ -11322,7 +11362,7 @@
       <c r="D501" s="15"/>
       <c r="E501" s="15"/>
       <c r="F501" s="15"/>
-      <c r="G501" s="20"/>
+      <c r="G501" s="18"/>
       <c r="H501" s="15"/>
       <c r="I501" s="15"/>
       <c r="J501" s="15"/>
@@ -11335,7 +11375,7 @@
       <c r="D502" s="15"/>
       <c r="E502" s="15"/>
       <c r="F502" s="15"/>
-      <c r="G502" s="20"/>
+      <c r="G502" s="18"/>
       <c r="H502" s="15"/>
       <c r="I502" s="15"/>
       <c r="J502" s="15"/>
@@ -11348,7 +11388,7 @@
       <c r="D503" s="15"/>
       <c r="E503" s="15"/>
       <c r="F503" s="15"/>
-      <c r="G503" s="20"/>
+      <c r="G503" s="18"/>
       <c r="H503" s="15"/>
       <c r="I503" s="15"/>
       <c r="J503" s="15"/>
@@ -11361,7 +11401,7 @@
       <c r="D504" s="15"/>
       <c r="E504" s="15"/>
       <c r="F504" s="15"/>
-      <c r="G504" s="20"/>
+      <c r="G504" s="18"/>
       <c r="H504" s="15"/>
       <c r="I504" s="15"/>
       <c r="J504" s="15"/>
@@ -11374,7 +11414,7 @@
       <c r="D505" s="15"/>
       <c r="E505" s="15"/>
       <c r="F505" s="15"/>
-      <c r="G505" s="20"/>
+      <c r="G505" s="18"/>
       <c r="H505" s="15"/>
       <c r="I505" s="15"/>
       <c r="J505" s="15"/>
@@ -11387,7 +11427,7 @@
       <c r="D506" s="15"/>
       <c r="E506" s="15"/>
       <c r="F506" s="15"/>
-      <c r="G506" s="20"/>
+      <c r="G506" s="18"/>
       <c r="H506" s="15"/>
       <c r="I506" s="15"/>
       <c r="J506" s="15"/>
@@ -11400,7 +11440,7 @@
       <c r="D507" s="15"/>
       <c r="E507" s="15"/>
       <c r="F507" s="15"/>
-      <c r="G507" s="20"/>
+      <c r="G507" s="18"/>
       <c r="H507" s="15"/>
       <c r="I507" s="15"/>
       <c r="J507" s="15"/>
@@ -11413,7 +11453,7 @@
       <c r="D508" s="15"/>
       <c r="E508" s="15"/>
       <c r="F508" s="15"/>
-      <c r="G508" s="20"/>
+      <c r="G508" s="18"/>
       <c r="H508" s="15"/>
       <c r="I508" s="15"/>
       <c r="J508" s="15"/>
@@ -11426,7 +11466,7 @@
       <c r="D509" s="15"/>
       <c r="E509" s="15"/>
       <c r="F509" s="15"/>
-      <c r="G509" s="20"/>
+      <c r="G509" s="18"/>
       <c r="H509" s="15"/>
       <c r="I509" s="15"/>
       <c r="J509" s="15"/>
@@ -11439,7 +11479,7 @@
       <c r="D510" s="15"/>
       <c r="E510" s="15"/>
       <c r="F510" s="15"/>
-      <c r="G510" s="20"/>
+      <c r="G510" s="18"/>
       <c r="H510" s="15"/>
       <c r="I510" s="15"/>
       <c r="J510" s="15"/>
@@ -11452,7 +11492,7 @@
       <c r="D511" s="15"/>
       <c r="E511" s="15"/>
       <c r="F511" s="15"/>
-      <c r="G511" s="20"/>
+      <c r="G511" s="18"/>
       <c r="H511" s="15"/>
       <c r="I511" s="15"/>
       <c r="J511" s="15"/>
@@ -11465,7 +11505,7 @@
       <c r="D512" s="15"/>
       <c r="E512" s="15"/>
       <c r="F512" s="15"/>
-      <c r="G512" s="20"/>
+      <c r="G512" s="18"/>
       <c r="H512" s="15"/>
       <c r="I512" s="15"/>
       <c r="J512" s="15"/>
@@ -11478,7 +11518,7 @@
       <c r="D513" s="15"/>
       <c r="E513" s="15"/>
       <c r="F513" s="15"/>
-      <c r="G513" s="20"/>
+      <c r="G513" s="18"/>
       <c r="H513" s="15"/>
       <c r="I513" s="15"/>
       <c r="J513" s="15"/>
@@ -11491,7 +11531,7 @@
       <c r="D514" s="15"/>
       <c r="E514" s="15"/>
       <c r="F514" s="15"/>
-      <c r="G514" s="20"/>
+      <c r="G514" s="18"/>
       <c r="H514" s="15"/>
       <c r="I514" s="15"/>
       <c r="J514" s="15"/>
@@ -11504,7 +11544,7 @@
       <c r="D515" s="15"/>
       <c r="E515" s="15"/>
       <c r="F515" s="15"/>
-      <c r="G515" s="20"/>
+      <c r="G515" s="18"/>
       <c r="H515" s="15"/>
       <c r="I515" s="15"/>
       <c r="J515" s="15"/>
@@ -11517,7 +11557,7 @@
       <c r="D516" s="15"/>
       <c r="E516" s="15"/>
       <c r="F516" s="15"/>
-      <c r="G516" s="20"/>
+      <c r="G516" s="18"/>
       <c r="H516" s="15"/>
       <c r="I516" s="15"/>
       <c r="J516" s="15"/>
@@ -11530,7 +11570,7 @@
       <c r="D517" s="15"/>
       <c r="E517" s="15"/>
       <c r="F517" s="15"/>
-      <c r="G517" s="20"/>
+      <c r="G517" s="18"/>
       <c r="H517" s="15"/>
       <c r="I517" s="15"/>
       <c r="J517" s="15"/>
@@ -11543,7 +11583,7 @@
       <c r="D518" s="15"/>
       <c r="E518" s="15"/>
       <c r="F518" s="15"/>
-      <c r="G518" s="20"/>
+      <c r="G518" s="18"/>
       <c r="H518" s="15"/>
       <c r="I518" s="15"/>
       <c r="J518" s="15"/>
@@ -11556,7 +11596,7 @@
       <c r="D519" s="15"/>
       <c r="E519" s="15"/>
       <c r="F519" s="15"/>
-      <c r="G519" s="20"/>
+      <c r="G519" s="18"/>
       <c r="H519" s="15"/>
       <c r="I519" s="15"/>
       <c r="J519" s="15"/>
@@ -11569,7 +11609,7 @@
       <c r="D520" s="15"/>
       <c r="E520" s="15"/>
       <c r="F520" s="15"/>
-      <c r="G520" s="20"/>
+      <c r="G520" s="18"/>
       <c r="H520" s="15"/>
       <c r="I520" s="15"/>
       <c r="J520" s="15"/>
@@ -11582,7 +11622,7 @@
       <c r="D521" s="15"/>
       <c r="E521" s="15"/>
       <c r="F521" s="15"/>
-      <c r="G521" s="20"/>
+      <c r="G521" s="18"/>
       <c r="H521" s="15"/>
       <c r="I521" s="15"/>
       <c r="J521" s="15"/>
@@ -11595,7 +11635,7 @@
       <c r="D522" s="15"/>
       <c r="E522" s="15"/>
       <c r="F522" s="15"/>
-      <c r="G522" s="20"/>
+      <c r="G522" s="18"/>
       <c r="H522" s="15"/>
       <c r="I522" s="15"/>
       <c r="J522" s="15"/>
@@ -11608,7 +11648,7 @@
       <c r="D523" s="15"/>
       <c r="E523" s="15"/>
       <c r="F523" s="15"/>
-      <c r="G523" s="20"/>
+      <c r="G523" s="18"/>
       <c r="H523" s="15"/>
       <c r="I523" s="15"/>
       <c r="J523" s="15"/>
@@ -11621,7 +11661,7 @@
       <c r="D524" s="15"/>
       <c r="E524" s="15"/>
       <c r="F524" s="15"/>
-      <c r="G524" s="20"/>
+      <c r="G524" s="18"/>
       <c r="H524" s="15"/>
       <c r="I524" s="15"/>
       <c r="J524" s="15"/>
@@ -11634,7 +11674,7 @@
       <c r="D525" s="15"/>
       <c r="E525" s="15"/>
       <c r="F525" s="15"/>
-      <c r="G525" s="20"/>
+      <c r="G525" s="18"/>
       <c r="H525" s="15"/>
       <c r="I525" s="15"/>
       <c r="J525" s="15"/>
@@ -11647,7 +11687,7 @@
       <c r="D526" s="15"/>
       <c r="E526" s="15"/>
       <c r="F526" s="15"/>
-      <c r="G526" s="20"/>
+      <c r="G526" s="18"/>
       <c r="H526" s="15"/>
       <c r="I526" s="15"/>
       <c r="J526" s="15"/>
@@ -11660,7 +11700,7 @@
       <c r="D527" s="15"/>
       <c r="E527" s="15"/>
       <c r="F527" s="15"/>
-      <c r="G527" s="20"/>
+      <c r="G527" s="18"/>
       <c r="H527" s="15"/>
       <c r="I527" s="15"/>
       <c r="J527" s="15"/>
@@ -11673,7 +11713,7 @@
       <c r="D528" s="15"/>
       <c r="E528" s="15"/>
       <c r="F528" s="15"/>
-      <c r="G528" s="20"/>
+      <c r="G528" s="18"/>
       <c r="H528" s="15"/>
       <c r="I528" s="15"/>
       <c r="J528" s="15"/>
@@ -11686,7 +11726,7 @@
       <c r="D529" s="15"/>
       <c r="E529" s="15"/>
       <c r="F529" s="15"/>
-      <c r="G529" s="20"/>
+      <c r="G529" s="18"/>
       <c r="H529" s="15"/>
       <c r="I529" s="15"/>
       <c r="J529" s="15"/>
@@ -11699,7 +11739,7 @@
       <c r="D530" s="15"/>
       <c r="E530" s="15"/>
       <c r="F530" s="15"/>
-      <c r="G530" s="20"/>
+      <c r="G530" s="18"/>
       <c r="H530" s="15"/>
       <c r="I530" s="15"/>
       <c r="J530" s="15"/>
@@ -11712,7 +11752,7 @@
       <c r="D531" s="15"/>
       <c r="E531" s="15"/>
       <c r="F531" s="15"/>
-      <c r="G531" s="20"/>
+      <c r="G531" s="18"/>
       <c r="H531" s="15"/>
       <c r="I531" s="15"/>
       <c r="J531" s="15"/>
@@ -11725,7 +11765,7 @@
       <c r="D532" s="15"/>
       <c r="E532" s="15"/>
       <c r="F532" s="15"/>
-      <c r="G532" s="20"/>
+      <c r="G532" s="18"/>
       <c r="H532" s="15"/>
       <c r="I532" s="15"/>
       <c r="J532" s="15"/>
@@ -11738,7 +11778,7 @@
       <c r="D533" s="15"/>
       <c r="E533" s="15"/>
       <c r="F533" s="15"/>
-      <c r="G533" s="20"/>
+      <c r="G533" s="18"/>
       <c r="H533" s="15"/>
       <c r="I533" s="15"/>
       <c r="J533" s="15"/>
@@ -11751,7 +11791,7 @@
       <c r="D534" s="15"/>
       <c r="E534" s="15"/>
       <c r="F534" s="15"/>
-      <c r="G534" s="20"/>
+      <c r="G534" s="18"/>
       <c r="H534" s="15"/>
       <c r="I534" s="15"/>
       <c r="J534" s="15"/>
@@ -11764,7 +11804,7 @@
       <c r="D535" s="15"/>
       <c r="E535" s="15"/>
       <c r="F535" s="15"/>
-      <c r="G535" s="20"/>
+      <c r="G535" s="18"/>
       <c r="H535" s="15"/>
       <c r="I535" s="15"/>
       <c r="J535" s="15"/>
@@ -11777,7 +11817,7 @@
       <c r="D536" s="15"/>
       <c r="E536" s="15"/>
       <c r="F536" s="15"/>
-      <c r="G536" s="20"/>
+      <c r="G536" s="18"/>
       <c r="H536" s="15"/>
       <c r="I536" s="15"/>
       <c r="J536" s="15"/>
@@ -11790,7 +11830,7 @@
       <c r="D537" s="15"/>
       <c r="E537" s="15"/>
       <c r="F537" s="15"/>
-      <c r="G537" s="20"/>
+      <c r="G537" s="18"/>
       <c r="H537" s="15"/>
       <c r="I537" s="15"/>
       <c r="J537" s="15"/>
@@ -11803,7 +11843,7 @@
       <c r="D538" s="15"/>
       <c r="E538" s="15"/>
       <c r="F538" s="15"/>
-      <c r="G538" s="20"/>
+      <c r="G538" s="18"/>
       <c r="H538" s="15"/>
       <c r="I538" s="15"/>
       <c r="J538" s="15"/>
@@ -11816,7 +11856,7 @@
       <c r="D539" s="15"/>
       <c r="E539" s="15"/>
       <c r="F539" s="15"/>
-      <c r="G539" s="20"/>
+      <c r="G539" s="18"/>
       <c r="H539" s="15"/>
       <c r="I539" s="15"/>
       <c r="J539" s="15"/>
@@ -11829,7 +11869,7 @@
       <c r="D540" s="15"/>
       <c r="E540" s="15"/>
       <c r="F540" s="15"/>
-      <c r="G540" s="20"/>
+      <c r="G540" s="18"/>
       <c r="H540" s="15"/>
       <c r="I540" s="15"/>
       <c r="J540" s="15"/>
@@ -11842,7 +11882,7 @@
       <c r="D541" s="15"/>
       <c r="E541" s="15"/>
       <c r="F541" s="15"/>
-      <c r="G541" s="20"/>
+      <c r="G541" s="18"/>
       <c r="H541" s="15"/>
       <c r="I541" s="15"/>
       <c r="J541" s="15"/>
@@ -11855,7 +11895,7 @@
       <c r="D542" s="15"/>
       <c r="E542" s="15"/>
       <c r="F542" s="15"/>
-      <c r="G542" s="20"/>
+      <c r="G542" s="18"/>
       <c r="H542" s="15"/>
       <c r="I542" s="15"/>
       <c r="J542" s="15"/>
@@ -11868,7 +11908,7 @@
       <c r="D543" s="15"/>
       <c r="E543" s="15"/>
       <c r="F543" s="15"/>
-      <c r="G543" s="20"/>
+      <c r="G543" s="18"/>
       <c r="H543" s="15"/>
       <c r="I543" s="15"/>
       <c r="J543" s="15"/>
@@ -11881,7 +11921,7 @@
       <c r="D544" s="15"/>
       <c r="E544" s="15"/>
       <c r="F544" s="15"/>
-      <c r="G544" s="20"/>
+      <c r="G544" s="18"/>
       <c r="H544" s="15"/>
       <c r="I544" s="15"/>
       <c r="J544" s="15"/>
@@ -11894,7 +11934,7 @@
       <c r="D545" s="15"/>
       <c r="E545" s="15"/>
       <c r="F545" s="15"/>
-      <c r="G545" s="20"/>
+      <c r="G545" s="18"/>
       <c r="H545" s="15"/>
       <c r="I545" s="15"/>
       <c r="J545" s="15"/>
@@ -11907,7 +11947,7 @@
       <c r="D546" s="15"/>
       <c r="E546" s="15"/>
       <c r="F546" s="15"/>
-      <c r="G546" s="20"/>
+      <c r="G546" s="18"/>
       <c r="H546" s="15"/>
       <c r="I546" s="15"/>
       <c r="J546" s="15"/>
@@ -11920,7 +11960,7 @@
       <c r="D547" s="15"/>
       <c r="E547" s="15"/>
       <c r="F547" s="15"/>
-      <c r="G547" s="20"/>
+      <c r="G547" s="18"/>
       <c r="H547" s="15"/>
       <c r="I547" s="15"/>
       <c r="J547" s="15"/>
@@ -11933,7 +11973,7 @@
       <c r="D548" s="15"/>
       <c r="E548" s="15"/>
       <c r="F548" s="15"/>
-      <c r="G548" s="20"/>
+      <c r="G548" s="18"/>
       <c r="H548" s="15"/>
       <c r="I548" s="15"/>
       <c r="J548" s="15"/>
@@ -11946,7 +11986,7 @@
       <c r="D549" s="15"/>
       <c r="E549" s="15"/>
       <c r="F549" s="15"/>
-      <c r="G549" s="20"/>
+      <c r="G549" s="18"/>
       <c r="H549" s="15"/>
       <c r="I549" s="15"/>
       <c r="J549" s="15"/>
@@ -11959,7 +11999,7 @@
       <c r="D550" s="15"/>
       <c r="E550" s="15"/>
       <c r="F550" s="15"/>
-      <c r="G550" s="20"/>
+      <c r="G550" s="18"/>
       <c r="H550" s="15"/>
       <c r="I550" s="15"/>
       <c r="J550" s="15"/>
@@ -11972,7 +12012,7 @@
       <c r="D551" s="15"/>
       <c r="E551" s="15"/>
       <c r="F551" s="15"/>
-      <c r="G551" s="20"/>
+      <c r="G551" s="18"/>
       <c r="H551" s="15"/>
       <c r="I551" s="15"/>
       <c r="J551" s="15"/>
@@ -11985,7 +12025,7 @@
       <c r="D552" s="15"/>
       <c r="E552" s="15"/>
       <c r="F552" s="15"/>
-      <c r="G552" s="20"/>
+      <c r="G552" s="18"/>
       <c r="H552" s="15"/>
       <c r="I552" s="15"/>
       <c r="J552" s="15"/>
@@ -11998,7 +12038,7 @@
       <c r="D553" s="15"/>
       <c r="E553" s="15"/>
       <c r="F553" s="15"/>
-      <c r="G553" s="20"/>
+      <c r="G553" s="18"/>
       <c r="H553" s="15"/>
       <c r="I553" s="15"/>
       <c r="J553" s="15"/>
@@ -12011,7 +12051,7 @@
       <c r="D554" s="15"/>
       <c r="E554" s="15"/>
       <c r="F554" s="15"/>
-      <c r="G554" s="20"/>
+      <c r="G554" s="18"/>
       <c r="H554" s="15"/>
       <c r="I554" s="15"/>
       <c r="J554" s="15"/>
@@ -12024,7 +12064,7 @@
       <c r="D555" s="15"/>
       <c r="E555" s="15"/>
       <c r="F555" s="15"/>
-      <c r="G555" s="20"/>
+      <c r="G555" s="18"/>
       <c r="H555" s="15"/>
       <c r="I555" s="15"/>
       <c r="J555" s="15"/>
@@ -12037,7 +12077,7 @@
       <c r="D556" s="15"/>
       <c r="E556" s="15"/>
       <c r="F556" s="15"/>
-      <c r="G556" s="20"/>
+      <c r="G556" s="18"/>
       <c r="H556" s="15"/>
       <c r="I556" s="15"/>
       <c r="J556" s="15"/>
@@ -12050,7 +12090,7 @@
       <c r="D557" s="15"/>
       <c r="E557" s="15"/>
       <c r="F557" s="15"/>
-      <c r="G557" s="20"/>
+      <c r="G557" s="18"/>
       <c r="H557" s="15"/>
       <c r="I557" s="15"/>
       <c r="J557" s="15"/>
@@ -12063,7 +12103,7 @@
       <c r="D558" s="15"/>
       <c r="E558" s="15"/>
       <c r="F558" s="15"/>
-      <c r="G558" s="20"/>
+      <c r="G558" s="18"/>
       <c r="H558" s="15"/>
       <c r="I558" s="15"/>
       <c r="J558" s="15"/>
@@ -12076,7 +12116,7 @@
       <c r="D559" s="15"/>
       <c r="E559" s="15"/>
       <c r="F559" s="15"/>
-      <c r="G559" s="20"/>
+      <c r="G559" s="18"/>
       <c r="H559" s="15"/>
       <c r="I559" s="15"/>
       <c r="J559" s="15"/>
@@ -12089,7 +12129,7 @@
       <c r="D560" s="15"/>
       <c r="E560" s="15"/>
       <c r="F560" s="15"/>
-      <c r="G560" s="20"/>
+      <c r="G560" s="18"/>
       <c r="H560" s="15"/>
       <c r="I560" s="15"/>
       <c r="J560" s="15"/>
@@ -12102,7 +12142,7 @@
       <c r="D561" s="15"/>
       <c r="E561" s="15"/>
       <c r="F561" s="15"/>
-      <c r="G561" s="20"/>
+      <c r="G561" s="18"/>
       <c r="H561" s="15"/>
       <c r="I561" s="15"/>
       <c r="J561" s="15"/>
@@ -12115,7 +12155,7 @@
       <c r="D562" s="15"/>
       <c r="E562" s="15"/>
       <c r="F562" s="15"/>
-      <c r="G562" s="20"/>
+      <c r="G562" s="18"/>
       <c r="H562" s="15"/>
       <c r="I562" s="15"/>
       <c r="J562" s="15"/>
@@ -12128,7 +12168,7 @@
       <c r="D563" s="15"/>
       <c r="E563" s="15"/>
       <c r="F563" s="15"/>
-      <c r="G563" s="20"/>
+      <c r="G563" s="18"/>
       <c r="H563" s="15"/>
       <c r="I563" s="15"/>
       <c r="J563" s="15"/>
@@ -12141,7 +12181,7 @@
       <c r="D564" s="15"/>
       <c r="E564" s="15"/>
       <c r="F564" s="15"/>
-      <c r="G564" s="20"/>
+      <c r="G564" s="18"/>
       <c r="H564" s="15"/>
       <c r="I564" s="15"/>
       <c r="J564" s="15"/>
@@ -12154,7 +12194,7 @@
       <c r="D565" s="15"/>
       <c r="E565" s="15"/>
       <c r="F565" s="15"/>
-      <c r="G565" s="20"/>
+      <c r="G565" s="18"/>
       <c r="H565" s="15"/>
       <c r="I565" s="15"/>
       <c r="J565" s="15"/>
@@ -12167,7 +12207,7 @@
       <c r="D566" s="15"/>
       <c r="E566" s="15"/>
       <c r="F566" s="15"/>
-      <c r="G566" s="20"/>
+      <c r="G566" s="18"/>
       <c r="H566" s="15"/>
       <c r="I566" s="15"/>
       <c r="J566" s="15"/>
@@ -12180,7 +12220,7 @@
       <c r="D567" s="15"/>
       <c r="E567" s="15"/>
       <c r="F567" s="15"/>
-      <c r="G567" s="20"/>
+      <c r="G567" s="18"/>
       <c r="H567" s="15"/>
       <c r="I567" s="15"/>
       <c r="J567" s="15"/>
@@ -12193,7 +12233,7 @@
       <c r="D568" s="15"/>
       <c r="E568" s="15"/>
       <c r="F568" s="15"/>
-      <c r="G568" s="20"/>
+      <c r="G568" s="18"/>
       <c r="H568" s="15"/>
       <c r="I568" s="15"/>
       <c r="J568" s="15"/>
@@ -12206,7 +12246,7 @@
       <c r="D569" s="15"/>
       <c r="E569" s="15"/>
       <c r="F569" s="15"/>
-      <c r="G569" s="20"/>
+      <c r="G569" s="18"/>
       <c r="H569" s="15"/>
       <c r="I569" s="15"/>
       <c r="J569" s="15"/>
@@ -12219,7 +12259,7 @@
       <c r="D570" s="15"/>
       <c r="E570" s="15"/>
       <c r="F570" s="15"/>
-      <c r="G570" s="20"/>
+      <c r="G570" s="18"/>
       <c r="H570" s="15"/>
       <c r="I570" s="15"/>
       <c r="J570" s="15"/>
@@ -12232,7 +12272,7 @@
       <c r="D571" s="15"/>
       <c r="E571" s="15"/>
       <c r="F571" s="15"/>
-      <c r="G571" s="20"/>
+      <c r="G571" s="18"/>
       <c r="H571" s="15"/>
       <c r="I571" s="15"/>
       <c r="J571" s="15"/>
@@ -12245,7 +12285,7 @@
       <c r="D572" s="15"/>
       <c r="E572" s="15"/>
       <c r="F572" s="15"/>
-      <c r="G572" s="20"/>
+      <c r="G572" s="18"/>
       <c r="H572" s="15"/>
       <c r="I572" s="15"/>
       <c r="J572" s="15"/>
@@ -12258,7 +12298,7 @@
       <c r="D573" s="15"/>
       <c r="E573" s="15"/>
       <c r="F573" s="15"/>
-      <c r="G573" s="20"/>
+      <c r="G573" s="18"/>
       <c r="H573" s="15"/>
       <c r="I573" s="15"/>
       <c r="J573" s="15"/>
@@ -12271,7 +12311,7 @@
       <c r="D574" s="15"/>
       <c r="E574" s="15"/>
       <c r="F574" s="15"/>
-      <c r="G574" s="20"/>
+      <c r="G574" s="18"/>
       <c r="H574" s="15"/>
       <c r="I574" s="15"/>
       <c r="J574" s="15"/>
@@ -12284,7 +12324,7 @@
       <c r="D575" s="15"/>
       <c r="E575" s="15"/>
       <c r="F575" s="15"/>
-      <c r="G575" s="20"/>
+      <c r="G575" s="18"/>
       <c r="H575" s="15"/>
       <c r="I575" s="15"/>
       <c r="J575" s="15"/>
@@ -12297,7 +12337,7 @@
       <c r="D576" s="15"/>
       <c r="E576" s="15"/>
       <c r="F576" s="15"/>
-      <c r="G576" s="20"/>
+      <c r="G576" s="18"/>
       <c r="H576" s="15"/>
       <c r="I576" s="15"/>
       <c r="J576" s="15"/>
@@ -12310,7 +12350,7 @@
       <c r="D577" s="15"/>
       <c r="E577" s="15"/>
       <c r="F577" s="15"/>
-      <c r="G577" s="20"/>
+      <c r="G577" s="18"/>
       <c r="H577" s="15"/>
       <c r="I577" s="15"/>
       <c r="J577" s="15"/>
@@ -12323,7 +12363,7 @@
       <c r="D578" s="15"/>
       <c r="E578" s="15"/>
       <c r="F578" s="15"/>
-      <c r="G578" s="20"/>
+      <c r="G578" s="18"/>
       <c r="H578" s="15"/>
       <c r="I578" s="15"/>
       <c r="J578" s="15"/>
@@ -12336,7 +12376,7 @@
       <c r="D579" s="15"/>
       <c r="E579" s="15"/>
       <c r="F579" s="15"/>
-      <c r="G579" s="20"/>
+      <c r="G579" s="18"/>
       <c r="H579" s="15"/>
       <c r="I579" s="15"/>
       <c r="J579" s="15"/>
@@ -12349,7 +12389,7 @@
       <c r="D580" s="15"/>
       <c r="E580" s="15"/>
       <c r="F580" s="15"/>
-      <c r="G580" s="20"/>
+      <c r="G580" s="18"/>
       <c r="H580" s="15"/>
       <c r="I580" s="15"/>
       <c r="J580" s="15"/>
@@ -12362,7 +12402,7 @@
       <c r="D581" s="15"/>
       <c r="E581" s="15"/>
       <c r="F581" s="15"/>
-      <c r="G581" s="20"/>
+      <c r="G581" s="18"/>
       <c r="H581" s="15"/>
       <c r="I581" s="15"/>
       <c r="J581" s="15"/>
@@ -12375,7 +12415,7 @@
       <c r="D582" s="15"/>
       <c r="E582" s="15"/>
       <c r="F582" s="15"/>
-      <c r="G582" s="20"/>
+      <c r="G582" s="18"/>
       <c r="H582" s="15"/>
       <c r="I582" s="15"/>
       <c r="J582" s="15"/>
@@ -12388,7 +12428,7 @@
       <c r="D583" s="15"/>
       <c r="E583" s="15"/>
       <c r="F583" s="15"/>
-      <c r="G583" s="20"/>
+      <c r="G583" s="18"/>
       <c r="H583" s="15"/>
       <c r="I583" s="15"/>
       <c r="J583" s="15"/>
@@ -12401,7 +12441,7 @@
       <c r="D584" s="15"/>
       <c r="E584" s="15"/>
       <c r="F584" s="15"/>
-      <c r="G584" s="20"/>
+      <c r="G584" s="18"/>
       <c r="H584" s="15"/>
       <c r="I584" s="15"/>
       <c r="J584" s="15"/>
@@ -12414,7 +12454,7 @@
       <c r="D585" s="15"/>
       <c r="E585" s="15"/>
       <c r="F585" s="15"/>
-      <c r="G585" s="20"/>
+      <c r="G585" s="18"/>
       <c r="H585" s="15"/>
       <c r="I585" s="15"/>
       <c r="J585" s="15"/>
@@ -12427,7 +12467,7 @@
       <c r="D586" s="15"/>
       <c r="E586" s="15"/>
       <c r="F586" s="15"/>
-      <c r="G586" s="20"/>
+      <c r="G586" s="18"/>
       <c r="H586" s="15"/>
       <c r="I586" s="15"/>
       <c r="J586" s="15"/>
@@ -12440,7 +12480,7 @@
       <c r="D587" s="15"/>
       <c r="E587" s="15"/>
       <c r="F587" s="15"/>
-      <c r="G587" s="20"/>
+      <c r="G587" s="18"/>
       <c r="H587" s="15"/>
       <c r="I587" s="15"/>
       <c r="J587" s="15"/>
@@ -12453,7 +12493,7 @@
       <c r="D588" s="15"/>
       <c r="E588" s="15"/>
       <c r="F588" s="15"/>
-      <c r="G588" s="20"/>
+      <c r="G588" s="18"/>
       <c r="H588" s="15"/>
       <c r="I588" s="15"/>
       <c r="J588" s="15"/>
@@ -12466,7 +12506,7 @@
       <c r="D589" s="15"/>
       <c r="E589" s="15"/>
       <c r="F589" s="15"/>
-      <c r="G589" s="20"/>
+      <c r="G589" s="18"/>
       <c r="H589" s="15"/>
       <c r="I589" s="15"/>
       <c r="J589" s="15"/>
@@ -12479,7 +12519,7 @@
       <c r="D590" s="15"/>
       <c r="E590" s="15"/>
       <c r="F590" s="15"/>
-      <c r="G590" s="20"/>
+      <c r="G590" s="18"/>
       <c r="H590" s="15"/>
       <c r="I590" s="15"/>
       <c r="J590" s="15"/>
@@ -12492,7 +12532,7 @@
       <c r="D591" s="15"/>
       <c r="E591" s="15"/>
       <c r="F591" s="15"/>
-      <c r="G591" s="20"/>
+      <c r="G591" s="18"/>
       <c r="H591" s="15"/>
       <c r="I591" s="15"/>
       <c r="J591" s="15"/>
@@ -12505,7 +12545,7 @@
       <c r="D592" s="15"/>
       <c r="E592" s="15"/>
       <c r="F592" s="15"/>
-      <c r="G592" s="20"/>
+      <c r="G592" s="18"/>
       <c r="H592" s="15"/>
       <c r="I592" s="15"/>
       <c r="J592" s="15"/>
@@ -12518,7 +12558,7 @@
       <c r="D593" s="15"/>
       <c r="E593" s="15"/>
       <c r="F593" s="15"/>
-      <c r="G593" s="20"/>
+      <c r="G593" s="18"/>
       <c r="H593" s="15"/>
       <c r="I593" s="15"/>
       <c r="J593" s="15"/>
@@ -12531,7 +12571,7 @@
       <c r="D594" s="15"/>
       <c r="E594" s="15"/>
       <c r="F594" s="15"/>
-      <c r="G594" s="20"/>
+      <c r="G594" s="18"/>
       <c r="H594" s="15"/>
       <c r="I594" s="15"/>
       <c r="J594" s="15"/>
@@ -12544,7 +12584,7 @@
       <c r="D595" s="15"/>
       <c r="E595" s="15"/>
       <c r="F595" s="15"/>
-      <c r="G595" s="20"/>
+      <c r="G595" s="18"/>
       <c r="H595" s="15"/>
       <c r="I595" s="15"/>
       <c r="J595" s="15"/>
@@ -12557,7 +12597,7 @@
       <c r="D596" s="15"/>
       <c r="E596" s="15"/>
       <c r="F596" s="15"/>
-      <c r="G596" s="20"/>
+      <c r="G596" s="18"/>
       <c r="H596" s="15"/>
       <c r="I596" s="15"/>
       <c r="J596" s="15"/>
@@ -12570,7 +12610,7 @@
       <c r="D597" s="15"/>
       <c r="E597" s="15"/>
       <c r="F597" s="15"/>
-      <c r="G597" s="20"/>
+      <c r="G597" s="18"/>
       <c r="H597" s="15"/>
       <c r="I597" s="15"/>
       <c r="J597" s="15"/>
@@ -12583,7 +12623,7 @@
       <c r="D598" s="15"/>
       <c r="E598" s="15"/>
       <c r="F598" s="15"/>
-      <c r="G598" s="20"/>
+      <c r="G598" s="18"/>
       <c r="H598" s="15"/>
       <c r="I598" s="15"/>
       <c r="J598" s="15"/>
@@ -12596,7 +12636,7 @@
       <c r="D599" s="15"/>
       <c r="E599" s="15"/>
       <c r="F599" s="15"/>
-      <c r="G599" s="20"/>
+      <c r="G599" s="18"/>
       <c r="H599" s="15"/>
       <c r="I599" s="15"/>
       <c r="J599" s="15"/>
@@ -12609,7 +12649,7 @@
       <c r="D600" s="15"/>
       <c r="E600" s="15"/>
       <c r="F600" s="15"/>
-      <c r="G600" s="20"/>
+      <c r="G600" s="18"/>
       <c r="H600" s="15"/>
       <c r="I600" s="15"/>
       <c r="J600" s="15"/>
@@ -12622,7 +12662,7 @@
       <c r="D601" s="15"/>
       <c r="E601" s="15"/>
       <c r="F601" s="15"/>
-      <c r="G601" s="20"/>
+      <c r="G601" s="18"/>
       <c r="H601" s="15"/>
       <c r="I601" s="15"/>
       <c r="J601" s="15"/>
@@ -12635,7 +12675,7 @@
       <c r="D602" s="15"/>
       <c r="E602" s="15"/>
       <c r="F602" s="15"/>
-      <c r="G602" s="20"/>
+      <c r="G602" s="18"/>
       <c r="H602" s="15"/>
       <c r="I602" s="15"/>
       <c r="J602" s="15"/>
@@ -12648,7 +12688,7 @@
       <c r="D603" s="15"/>
       <c r="E603" s="15"/>
       <c r="F603" s="15"/>
-      <c r="G603" s="20"/>
+      <c r="G603" s="18"/>
       <c r="H603" s="15"/>
       <c r="I603" s="15"/>
       <c r="J603" s="15"/>
@@ -12661,7 +12701,7 @@
       <c r="D604" s="15"/>
       <c r="E604" s="15"/>
       <c r="F604" s="15"/>
-      <c r="G604" s="20"/>
+      <c r="G604" s="18"/>
       <c r="H604" s="15"/>
       <c r="I604" s="15"/>
       <c r="J604" s="15"/>
@@ -12674,7 +12714,7 @@
       <c r="D605" s="15"/>
       <c r="E605" s="15"/>
       <c r="F605" s="15"/>
-      <c r="G605" s="20"/>
+      <c r="G605" s="18"/>
       <c r="H605" s="15"/>
       <c r="I605" s="15"/>
       <c r="J605" s="15"/>
@@ -12687,7 +12727,7 @@
       <c r="D606" s="15"/>
       <c r="E606" s="15"/>
       <c r="F606" s="15"/>
-      <c r="G606" s="20"/>
+      <c r="G606" s="18"/>
       <c r="H606" s="15"/>
       <c r="I606" s="15"/>
       <c r="J606" s="15"/>
@@ -12700,7 +12740,7 @@
       <c r="D607" s="15"/>
       <c r="E607" s="15"/>
       <c r="F607" s="15"/>
-      <c r="G607" s="20"/>
+      <c r="G607" s="18"/>
       <c r="H607" s="15"/>
       <c r="I607" s="15"/>
       <c r="J607" s="15"/>
@@ -12713,7 +12753,7 @@
       <c r="D608" s="15"/>
       <c r="E608" s="15"/>
       <c r="F608" s="15"/>
-      <c r="G608" s="20"/>
+      <c r="G608" s="18"/>
       <c r="H608" s="15"/>
       <c r="I608" s="15"/>
       <c r="J608" s="15"/>
@@ -12726,7 +12766,7 @@
       <c r="D609" s="15"/>
       <c r="E609" s="15"/>
       <c r="F609" s="15"/>
-      <c r="G609" s="20"/>
+      <c r="G609" s="18"/>
       <c r="H609" s="15"/>
       <c r="I609" s="15"/>
       <c r="J609" s="15"/>
@@ -12739,7 +12779,7 @@
       <c r="D610" s="15"/>
       <c r="E610" s="15"/>
       <c r="F610" s="15"/>
-      <c r="G610" s="20"/>
+      <c r="G610" s="18"/>
       <c r="H610" s="15"/>
       <c r="I610" s="15"/>
       <c r="J610" s="15"/>
@@ -12752,7 +12792,7 @@
       <c r="D611" s="15"/>
       <c r="E611" s="15"/>
       <c r="F611" s="15"/>
-      <c r="G611" s="20"/>
+      <c r="G611" s="18"/>
       <c r="H611" s="15"/>
       <c r="I611" s="15"/>
       <c r="J611" s="15"/>
@@ -12765,7 +12805,7 @@
       <c r="D612" s="15"/>
       <c r="E612" s="15"/>
       <c r="F612" s="15"/>
-      <c r="G612" s="20"/>
+      <c r="G612" s="18"/>
       <c r="H612" s="15"/>
       <c r="I612" s="15"/>
       <c r="J612" s="15"/>
@@ -12778,7 +12818,7 @@
       <c r="D613" s="15"/>
       <c r="E613" s="15"/>
       <c r="F613" s="15"/>
-      <c r="G613" s="20"/>
+      <c r="G613" s="18"/>
       <c r="H613" s="15"/>
       <c r="I613" s="15"/>
       <c r="J613" s="15"/>
@@ -12791,7 +12831,7 @@
       <c r="D614" s="15"/>
       <c r="E614" s="15"/>
       <c r="F614" s="15"/>
-      <c r="G614" s="20"/>
+      <c r="G614" s="18"/>
       <c r="H614" s="15"/>
       <c r="I614" s="15"/>
       <c r="J614" s="15"/>
@@ -12804,7 +12844,7 @@
       <c r="D615" s="15"/>
       <c r="E615" s="15"/>
       <c r="F615" s="15"/>
-      <c r="G615" s="20"/>
+      <c r="G615" s="18"/>
       <c r="H615" s="15"/>
       <c r="I615" s="15"/>
       <c r="J615" s="15"/>
@@ -12817,7 +12857,7 @@
       <c r="D616" s="15"/>
       <c r="E616" s="15"/>
       <c r="F616" s="15"/>
-      <c r="G616" s="20"/>
+      <c r="G616" s="18"/>
       <c r="H616" s="15"/>
       <c r="I616" s="15"/>
       <c r="J616" s="15"/>
@@ -12830,7 +12870,7 @@
       <c r="D617" s="15"/>
       <c r="E617" s="15"/>
       <c r="F617" s="15"/>
-      <c r="G617" s="20"/>
+      <c r="G617" s="18"/>
       <c r="H617" s="15"/>
       <c r="I617" s="15"/>
       <c r="J617" s="15"/>
@@ -12843,7 +12883,7 @@
       <c r="D618" s="15"/>
       <c r="E618" s="15"/>
       <c r="F618" s="15"/>
-      <c r="G618" s="20"/>
+      <c r="G618" s="18"/>
       <c r="H618" s="15"/>
       <c r="I618" s="15"/>
       <c r="J618" s="15"/>
@@ -12856,7 +12896,7 @@
       <c r="D619" s="15"/>
       <c r="E619" s="15"/>
       <c r="F619" s="15"/>
-      <c r="G619" s="20"/>
+      <c r="G619" s="18"/>
       <c r="H619" s="15"/>
       <c r="I619" s="15"/>
       <c r="J619" s="15"/>
@@ -12869,7 +12909,7 @@
       <c r="D620" s="15"/>
       <c r="E620" s="15"/>
       <c r="F620" s="15"/>
-      <c r="G620" s="20"/>
+      <c r="G620" s="18"/>
       <c r="H620" s="15"/>
       <c r="I620" s="15"/>
       <c r="J620" s="15"/>
@@ -12882,7 +12922,7 @@
       <c r="D621" s="15"/>
       <c r="E621" s="15"/>
       <c r="F621" s="15"/>
-      <c r="G621" s="20"/>
+      <c r="G621" s="18"/>
       <c r="H621" s="15"/>
       <c r="I621" s="15"/>
       <c r="J621" s="15"/>
@@ -12895,7 +12935,7 @@
       <c r="D622" s="15"/>
       <c r="E622" s="15"/>
       <c r="F622" s="15"/>
-      <c r="G622" s="20"/>
+      <c r="G622" s="18"/>
       <c r="H622" s="15"/>
       <c r="I622" s="15"/>
       <c r="J622" s="15"/>
@@ -12908,7 +12948,7 @@
       <c r="D623" s="15"/>
       <c r="E623" s="15"/>
       <c r="F623" s="15"/>
-      <c r="G623" s="20"/>
+      <c r="G623" s="18"/>
       <c r="H623" s="15"/>
       <c r="I623" s="15"/>
       <c r="J623" s="15"/>
@@ -12921,7 +12961,7 @@
       <c r="D624" s="15"/>
       <c r="E624" s="15"/>
       <c r="F624" s="15"/>
-      <c r="G624" s="20"/>
+      <c r="G624" s="18"/>
       <c r="H624" s="15"/>
       <c r="I624" s="15"/>
       <c r="J624" s="15"/>
@@ -12934,7 +12974,7 @@
       <c r="D625" s="15"/>
       <c r="E625" s="15"/>
       <c r="F625" s="15"/>
-      <c r="G625" s="20"/>
+      <c r="G625" s="18"/>
       <c r="H625" s="15"/>
       <c r="I625" s="15"/>
       <c r="J625" s="15"/>
@@ -12947,7 +12987,7 @@
       <c r="D626" s="15"/>
       <c r="E626" s="15"/>
       <c r="F626" s="15"/>
-      <c r="G626" s="20"/>
+      <c r="G626" s="18"/>
       <c r="H626" s="15"/>
       <c r="I626" s="15"/>
       <c r="J626" s="15"/>
@@ -12960,7 +13000,7 @@
       <c r="D627" s="15"/>
       <c r="E627" s="15"/>
       <c r="F627" s="15"/>
-      <c r="G627" s="20"/>
+      <c r="G627" s="18"/>
       <c r="H627" s="15"/>
       <c r="I627" s="15"/>
       <c r="J627" s="15"/>
@@ -12973,7 +13013,7 @@
       <c r="D628" s="15"/>
       <c r="E628" s="15"/>
       <c r="F628" s="15"/>
-      <c r="G628" s="20"/>
+      <c r="G628" s="18"/>
       <c r="H628" s="15"/>
       <c r="I628" s="15"/>
       <c r="J628" s="15"/>
@@ -12986,7 +13026,7 @@
       <c r="D629" s="15"/>
       <c r="E629" s="15"/>
       <c r="F629" s="15"/>
-      <c r="G629" s="20"/>
+      <c r="G629" s="18"/>
       <c r="H629" s="15"/>
       <c r="I629" s="15"/>
       <c r="J629" s="15"/>
@@ -12999,7 +13039,7 @@
       <c r="D630" s="15"/>
       <c r="E630" s="15"/>
       <c r="F630" s="15"/>
-      <c r="G630" s="20"/>
+      <c r="G630" s="18"/>
       <c r="H630" s="15"/>
       <c r="I630" s="15"/>
       <c r="J630" s="15"/>
@@ -13012,7 +13052,7 @@
       <c r="D631" s="15"/>
       <c r="E631" s="15"/>
       <c r="F631" s="15"/>
-      <c r="G631" s="20"/>
+      <c r="G631" s="18"/>
       <c r="H631" s="15"/>
       <c r="I631" s="15"/>
       <c r="J631" s="15"/>
@@ -13025,7 +13065,7 @@
       <c r="D632" s="15"/>
       <c r="E632" s="15"/>
       <c r="F632" s="15"/>
-      <c r="G632" s="20"/>
+      <c r="G632" s="18"/>
       <c r="H632" s="15"/>
       <c r="I632" s="15"/>
       <c r="J632" s="15"/>
@@ -13038,7 +13078,7 @@
       <c r="D633" s="15"/>
       <c r="E633" s="15"/>
       <c r="F633" s="15"/>
-      <c r="G633" s="20"/>
+      <c r="G633" s="18"/>
       <c r="H633" s="15"/>
       <c r="I633" s="15"/>
       <c r="J633" s="15"/>
@@ -13051,7 +13091,7 @@
       <c r="D634" s="15"/>
       <c r="E634" s="15"/>
       <c r="F634" s="15"/>
-      <c r="G634" s="20"/>
+      <c r="G634" s="18"/>
       <c r="H634" s="15"/>
       <c r="I634" s="15"/>
       <c r="J634" s="15"/>
@@ -13064,7 +13104,7 @@
       <c r="D635" s="15"/>
       <c r="E635" s="15"/>
       <c r="F635" s="15"/>
-      <c r="G635" s="20"/>
+      <c r="G635" s="18"/>
       <c r="H635" s="15"/>
       <c r="I635" s="15"/>
       <c r="J635" s="15"/>
@@ -13077,7 +13117,7 @@
       <c r="D636" s="15"/>
       <c r="E636" s="15"/>
       <c r="F636" s="15"/>
-      <c r="G636" s="20"/>
+      <c r="G636" s="18"/>
       <c r="H636" s="15"/>
       <c r="I636" s="15"/>
       <c r="J636" s="15"/>
@@ -13090,7 +13130,7 @@
       <c r="D637" s="15"/>
       <c r="E637" s="15"/>
       <c r="F637" s="15"/>
-      <c r="G637" s="20"/>
+      <c r="G637" s="18"/>
       <c r="H637" s="15"/>
       <c r="I637" s="15"/>
       <c r="J637" s="15"/>
@@ -13103,7 +13143,7 @@
       <c r="D638" s="15"/>
       <c r="E638" s="15"/>
       <c r="F638" s="15"/>
-      <c r="G638" s="20"/>
+      <c r="G638" s="18"/>
       <c r="H638" s="15"/>
       <c r="I638" s="15"/>
       <c r="J638" s="15"/>
@@ -13116,7 +13156,7 @@
       <c r="D639" s="15"/>
       <c r="E639" s="15"/>
       <c r="F639" s="15"/>
-      <c r="G639" s="20"/>
+      <c r="G639" s="18"/>
       <c r="H639" s="15"/>
       <c r="I639" s="15"/>
       <c r="J639" s="15"/>
@@ -13129,7 +13169,7 @@
       <c r="D640" s="15"/>
       <c r="E640" s="15"/>
       <c r="F640" s="15"/>
-      <c r="G640" s="20"/>
+      <c r="G640" s="18"/>
       <c r="H640" s="15"/>
       <c r="I640" s="15"/>
       <c r="J640" s="15"/>
@@ -13142,7 +13182,7 @@
       <c r="D641" s="15"/>
       <c r="E641" s="15"/>
       <c r="F641" s="15"/>
-      <c r="G641" s="20"/>
+      <c r="G641" s="18"/>
       <c r="H641" s="15"/>
       <c r="I641" s="15"/>
       <c r="J641" s="15"/>
@@ -13155,7 +13195,7 @@
       <c r="D642" s="15"/>
       <c r="E642" s="15"/>
       <c r="F642" s="15"/>
-      <c r="G642" s="20"/>
+      <c r="G642" s="18"/>
       <c r="H642" s="15"/>
       <c r="I642" s="15"/>
       <c r="J642" s="15"/>
@@ -13168,7 +13208,7 @@
       <c r="D643" s="15"/>
       <c r="E643" s="15"/>
       <c r="F643" s="15"/>
-      <c r="G643" s="20"/>
+      <c r="G643" s="18"/>
       <c r="H643" s="15"/>
       <c r="I643" s="15"/>
       <c r="J643" s="15"/>
@@ -13181,7 +13221,7 @@
       <c r="D644" s="15"/>
       <c r="E644" s="15"/>
       <c r="F644" s="15"/>
-      <c r="G644" s="20"/>
+      <c r="G644" s="18"/>
       <c r="H644" s="15"/>
       <c r="I644" s="15"/>
       <c r="J644" s="15"/>
@@ -13194,7 +13234,7 @@
       <c r="D645" s="15"/>
       <c r="E645" s="15"/>
       <c r="F645" s="15"/>
-      <c r="G645" s="20"/>
+      <c r="G645" s="18"/>
       <c r="H645" s="15"/>
       <c r="I645" s="15"/>
       <c r="J645" s="15"/>
@@ -13207,7 +13247,7 @@
       <c r="D646" s="15"/>
       <c r="E646" s="15"/>
       <c r="F646" s="15"/>
-      <c r="G646" s="20"/>
+      <c r="G646" s="18"/>
       <c r="H646" s="15"/>
       <c r="I646" s="15"/>
       <c r="J646" s="15"/>
@@ -13220,7 +13260,7 @@
       <c r="D647" s="15"/>
       <c r="E647" s="15"/>
       <c r="F647" s="15"/>
-      <c r="G647" s="20"/>
+      <c r="G647" s="18"/>
       <c r="H647" s="15"/>
       <c r="I647" s="15"/>
       <c r="J647" s="15"/>
@@ -13233,7 +13273,7 @@
       <c r="D648" s="15"/>
       <c r="E648" s="15"/>
       <c r="F648" s="15"/>
-      <c r="G648" s="20"/>
+      <c r="G648" s="18"/>
       <c r="H648" s="15"/>
       <c r="I648" s="15"/>
       <c r="J648" s="15"/>
@@ -13246,7 +13286,7 @@
       <c r="D649" s="15"/>
       <c r="E649" s="15"/>
       <c r="F649" s="15"/>
-      <c r="G649" s="20"/>
+      <c r="G649" s="18"/>
       <c r="H649" s="15"/>
       <c r="I649" s="15"/>
       <c r="J649" s="15"/>
@@ -13259,7 +13299,7 @@
       <c r="D650" s="15"/>
       <c r="E650" s="15"/>
       <c r="F650" s="15"/>
-      <c r="G650" s="20"/>
+      <c r="G650" s="18"/>
       <c r="H650" s="15"/>
       <c r="I650" s="15"/>
       <c r="J650" s="15"/>
@@ -13272,7 +13312,7 @@
       <c r="D651" s="15"/>
       <c r="E651" s="15"/>
       <c r="F651" s="15"/>
-      <c r="G651" s="20"/>
+      <c r="G651" s="18"/>
       <c r="H651" s="15"/>
       <c r="I651" s="15"/>
       <c r="J651" s="15"/>
@@ -13285,7 +13325,7 @@
       <c r="D652" s="15"/>
       <c r="E652" s="15"/>
       <c r="F652" s="15"/>
-      <c r="G652" s="20"/>
+      <c r="G652" s="18"/>
       <c r="H652" s="15"/>
       <c r="I652" s="15"/>
       <c r="J652" s="15"/>
@@ -13298,7 +13338,7 @@
       <c r="D653" s="15"/>
       <c r="E653" s="15"/>
       <c r="F653" s="15"/>
-      <c r="G653" s="20"/>
+      <c r="G653" s="18"/>
       <c r="H653" s="15"/>
       <c r="I653" s="15"/>
       <c r="J653" s="15"/>
@@ -13311,7 +13351,7 @@
       <c r="D654" s="15"/>
       <c r="E654" s="15"/>
       <c r="F654" s="15"/>
-      <c r="G654" s="20"/>
+      <c r="G654" s="18"/>
       <c r="H654" s="15"/>
       <c r="I654" s="15"/>
       <c r="J654" s="15"/>
@@ -13324,7 +13364,7 @@
       <c r="D655" s="15"/>
       <c r="E655" s="15"/>
       <c r="F655" s="15"/>
-      <c r="G655" s="20"/>
+      <c r="G655" s="18"/>
       <c r="H655" s="15"/>
       <c r="I655" s="15"/>
       <c r="J655" s="15"/>
@@ -13337,7 +13377,7 @@
       <c r="D656" s="15"/>
       <c r="E656" s="15"/>
       <c r="F656" s="15"/>
-      <c r="G656" s="20"/>
+      <c r="G656" s="18"/>
       <c r="H656" s="15"/>
       <c r="I656" s="15"/>
       <c r="J656" s="15"/>
@@ -13350,7 +13390,7 @@
       <c r="D657" s="15"/>
       <c r="E657" s="15"/>
       <c r="F657" s="15"/>
-      <c r="G657" s="20"/>
+      <c r="G657" s="18"/>
       <c r="H657" s="15"/>
       <c r="I657" s="15"/>
       <c r="J657" s="15"/>
@@ -13363,7 +13403,7 @@
       <c r="D658" s="15"/>
       <c r="E658" s="15"/>
       <c r="F658" s="15"/>
-      <c r="G658" s="20"/>
+      <c r="G658" s="18"/>
       <c r="H658" s="15"/>
       <c r="I658" s="15"/>
       <c r="J658" s="15"/>
@@ -13376,7 +13416,7 @@
       <c r="D659" s="15"/>
       <c r="E659" s="15"/>
       <c r="F659" s="15"/>
-      <c r="G659" s="20"/>
+      <c r="G659" s="18"/>
       <c r="H659" s="15"/>
       <c r="I659" s="15"/>
       <c r="J659" s="15"/>
@@ -13389,7 +13429,7 @@
       <c r="D660" s="15"/>
       <c r="E660" s="15"/>
       <c r="F660" s="15"/>
-      <c r="G660" s="20"/>
+      <c r="G660" s="18"/>
       <c r="H660" s="15"/>
       <c r="I660" s="15"/>
       <c r="J660" s="15"/>
@@ -13402,7 +13442,7 @@
       <c r="D661" s="15"/>
       <c r="E661" s="15"/>
       <c r="F661" s="15"/>
-      <c r="G661" s="20"/>
+      <c r="G661" s="18"/>
       <c r="H661" s="15"/>
       <c r="I661" s="15"/>
       <c r="J661" s="15"/>
@@ -13415,7 +13455,7 @@
       <c r="D662" s="15"/>
       <c r="E662" s="15"/>
       <c r="F662" s="15"/>
-      <c r="G662" s="20"/>
+      <c r="G662" s="18"/>
       <c r="H662" s="15"/>
       <c r="I662" s="15"/>
       <c r="J662" s="15"/>
@@ -13428,7 +13468,7 @@
       <c r="D663" s="15"/>
       <c r="E663" s="15"/>
       <c r="F663" s="15"/>
-      <c r="G663" s="20"/>
+      <c r="G663" s="18"/>
       <c r="H663" s="15"/>
       <c r="I663" s="15"/>
       <c r="J663" s="15"/>
@@ -13441,7 +13481,7 @@
       <c r="D664" s="15"/>
       <c r="E664" s="15"/>
       <c r="F664" s="15"/>
-      <c r="G664" s="20"/>
+      <c r="G664" s="18"/>
       <c r="H664" s="15"/>
       <c r="I664" s="15"/>
       <c r="J664" s="15"/>
@@ -13454,7 +13494,7 @@
       <c r="D665" s="15"/>
       <c r="E665" s="15"/>
       <c r="F665" s="15"/>
-      <c r="G665" s="20"/>
+      <c r="G665" s="18"/>
       <c r="H665" s="15"/>
       <c r="I665" s="15"/>
       <c r="J665" s="15"/>
@@ -13467,7 +13507,7 @@
       <c r="D666" s="15"/>
       <c r="E666" s="15"/>
       <c r="F666" s="15"/>
-      <c r="G666" s="20"/>
+      <c r="G666" s="18"/>
       <c r="H666" s="15"/>
       <c r="I666" s="15"/>
       <c r="J666" s="15"/>
@@ -13480,7 +13520,7 @@
       <c r="D667" s="15"/>
       <c r="E667" s="15"/>
       <c r="F667" s="15"/>
-      <c r="G667" s="20"/>
+      <c r="G667" s="18"/>
       <c r="H667" s="15"/>
       <c r="I667" s="15"/>
       <c r="J667" s="15"/>
@@ -13493,7 +13533,7 @@
       <c r="D668" s="15"/>
       <c r="E668" s="15"/>
       <c r="F668" s="15"/>
-      <c r="G668" s="20"/>
+      <c r="G668" s="18"/>
       <c r="H668" s="15"/>
       <c r="I668" s="15"/>
       <c r="J668" s="15"/>
@@ -13506,7 +13546,7 @@
       <c r="D669" s="15"/>
       <c r="E669" s="15"/>
       <c r="F669" s="15"/>
-      <c r="G669" s="20"/>
+      <c r="G669" s="18"/>
       <c r="H669" s="15"/>
       <c r="I669" s="15"/>
       <c r="J669" s="15"/>
@@ -13519,7 +13559,7 @@
       <c r="D670" s="15"/>
       <c r="E670" s="15"/>
       <c r="F670" s="15"/>
-      <c r="G670" s="20"/>
+      <c r="G670" s="18"/>
       <c r="H670" s="15"/>
       <c r="I670" s="15"/>
       <c r="J670" s="15"/>
@@ -13532,7 +13572,7 @@
       <c r="D671" s="15"/>
       <c r="E671" s="15"/>
       <c r="F671" s="15"/>
-      <c r="G671" s="20"/>
+      <c r="G671" s="18"/>
       <c r="H671" s="15"/>
       <c r="I671" s="15"/>
       <c r="J671" s="15"/>
@@ -13545,7 +13585,7 @@
       <c r="D672" s="15"/>
       <c r="E672" s="15"/>
       <c r="F672" s="15"/>
-      <c r="G672" s="20"/>
+      <c r="G672" s="18"/>
       <c r="H672" s="15"/>
       <c r="I672" s="15"/>
       <c r="J672" s="15"/>
@@ -13558,7 +13598,7 @@
       <c r="D673" s="15"/>
       <c r="E673" s="15"/>
       <c r="F673" s="15"/>
-      <c r="G673" s="20"/>
+      <c r="G673" s="18"/>
       <c r="H673" s="15"/>
       <c r="I673" s="15"/>
       <c r="J673" s="15"/>
@@ -13571,7 +13611,7 @@
       <c r="D674" s="15"/>
       <c r="E674" s="15"/>
       <c r="F674" s="15"/>
-      <c r="G674" s="20"/>
+      <c r="G674" s="18"/>
       <c r="H674" s="15"/>
       <c r="I674" s="15"/>
       <c r="J674" s="15"/>
@@ -13584,7 +13624,7 @@
       <c r="D675" s="15"/>
       <c r="E675" s="15"/>
       <c r="F675" s="15"/>
-      <c r="G675" s="20"/>
+      <c r="G675" s="18"/>
       <c r="H675" s="15"/>
       <c r="I675" s="15"/>
       <c r="J675" s="15"/>
@@ -13597,7 +13637,7 @@
       <c r="D676" s="15"/>
       <c r="E676" s="15"/>
       <c r="F676" s="15"/>
-      <c r="G676" s="20"/>
+      <c r="G676" s="18"/>
       <c r="H676" s="15"/>
       <c r="I676" s="15"/>
       <c r="J676" s="15"/>
@@ -13610,7 +13650,7 @@
       <c r="D677" s="15"/>
       <c r="E677" s="15"/>
       <c r="F677" s="15"/>
-      <c r="G677" s="20"/>
+      <c r="G677" s="18"/>
       <c r="H677" s="15"/>
       <c r="I677" s="15"/>
       <c r="J677" s="15"/>
@@ -13623,7 +13663,7 @@
       <c r="D678" s="15"/>
       <c r="E678" s="15"/>
       <c r="F678" s="15"/>
-      <c r="G678" s="20"/>
+      <c r="G678" s="18"/>
       <c r="H678" s="15"/>
       <c r="I678" s="15"/>
       <c r="J678" s="15"/>
@@ -13636,7 +13676,7 @@
       <c r="D679" s="15"/>
       <c r="E679" s="15"/>
       <c r="F679" s="15"/>
-      <c r="G679" s="20"/>
+      <c r="G679" s="18"/>
       <c r="H679" s="15"/>
       <c r="I679" s="15"/>
       <c r="J679" s="15"/>
@@ -13649,7 +13689,7 @@
       <c r="D680" s="15"/>
       <c r="E680" s="15"/>
       <c r="F680" s="15"/>
-      <c r="G680" s="20"/>
+      <c r="G680" s="18"/>
       <c r="H680" s="15"/>
       <c r="I680" s="15"/>
       <c r="J680" s="15"/>
@@ -13662,7 +13702,7 @@
       <c r="D681" s="15"/>
       <c r="E681" s="15"/>
       <c r="F681" s="15"/>
-      <c r="G681" s="20"/>
+      <c r="G681" s="18"/>
       <c r="H681" s="15"/>
       <c r="I681" s="15"/>
       <c r="J681" s="15"/>
@@ -13675,7 +13715,7 @@
       <c r="D682" s="15"/>
       <c r="E682" s="15"/>
       <c r="F682" s="15"/>
-      <c r="G682" s="20"/>
+      <c r="G682" s="18"/>
       <c r="H682" s="15"/>
       <c r="I682" s="15"/>
       <c r="J682" s="15"/>
@@ -13688,7 +13728,7 @@
       <c r="D683" s="15"/>
       <c r="E683" s="15"/>
       <c r="F683" s="15"/>
-      <c r="G683" s="20"/>
+      <c r="G683" s="18"/>
       <c r="H683" s="15"/>
       <c r="I683" s="15"/>
       <c r="J683" s="15"/>
@@ -13701,7 +13741,7 @@
       <c r="D684" s="15"/>
       <c r="E684" s="15"/>
       <c r="F684" s="15"/>
-      <c r="G684" s="20"/>
+      <c r="G684" s="18"/>
       <c r="H684" s="15"/>
       <c r="I684" s="15"/>
       <c r="J684" s="15"/>
@@ -13714,7 +13754,7 @@
       <c r="D685" s="15"/>
       <c r="E685" s="15"/>
       <c r="F685" s="15"/>
-      <c r="G685" s="20"/>
+      <c r="G685" s="18"/>
       <c r="H685" s="15"/>
       <c r="I685" s="15"/>
       <c r="J685" s="15"/>
@@ -13727,7 +13767,7 @@
       <c r="D686" s="15"/>
       <c r="E686" s="15"/>
       <c r="F686" s="15"/>
-      <c r="G686" s="20"/>
+      <c r="G686" s="18"/>
       <c r="H686" s="15"/>
       <c r="I686" s="15"/>
       <c r="J686" s="15"/>
@@ -13740,7 +13780,7 @@
       <c r="D687" s="15"/>
       <c r="E687" s="15"/>
       <c r="F687" s="15"/>
-      <c r="G687" s="20"/>
+      <c r="G687" s="18"/>
       <c r="H687" s="15"/>
       <c r="I687" s="15"/>
       <c r="J687" s="15"/>
@@ -13753,7 +13793,7 @@
       <c r="D688" s="15"/>
       <c r="E688" s="15"/>
       <c r="F688" s="15"/>
-      <c r="G688" s="20"/>
+      <c r="G688" s="18"/>
       <c r="H688" s="15"/>
       <c r="I688" s="15"/>
       <c r="J688" s="15"/>
@@ -13766,7 +13806,7 @@
       <c r="D689" s="15"/>
       <c r="E689" s="15"/>
       <c r="F689" s="15"/>
-      <c r="G689" s="20"/>
+      <c r="G689" s="18"/>
       <c r="H689" s="15"/>
       <c r="I689" s="15"/>
       <c r="J689" s="15"/>
@@ -13779,7 +13819,7 @@
       <c r="D690" s="15"/>
       <c r="E690" s="15"/>
       <c r="F690" s="15"/>
-      <c r="G690" s="20"/>
+      <c r="G690" s="18"/>
       <c r="H690" s="15"/>
       <c r="I690" s="15"/>
       <c r="J690" s="15"/>
@@ -13792,7 +13832,7 @@
       <c r="D691" s="15"/>
       <c r="E691" s="15"/>
       <c r="F691" s="15"/>
-      <c r="G691" s="20"/>
+      <c r="G691" s="18"/>
       <c r="H691" s="15"/>
       <c r="I691" s="15"/>
       <c r="J691" s="15"/>
@@ -13805,7 +13845,7 @@
       <c r="D692" s="15"/>
       <c r="E692" s="15"/>
       <c r="F692" s="15"/>
-      <c r="G692" s="20"/>
+      <c r="G692" s="18"/>
       <c r="H692" s="15"/>
       <c r="I692" s="15"/>
       <c r="J692" s="15"/>
@@ -13818,7 +13858,7 @@
       <c r="D693" s="15"/>
       <c r="E693" s="15"/>
       <c r="F693" s="15"/>
-      <c r="G693" s="20"/>
+      <c r="G693" s="18"/>
       <c r="H693" s="15"/>
       <c r="I693" s="15"/>
       <c r="J693" s="15"/>
@@ -13831,7 +13871,7 @@
       <c r="D694" s="15"/>
       <c r="E694" s="15"/>
       <c r="F694" s="15"/>
-      <c r="G694" s="20"/>
+      <c r="G694" s="18"/>
       <c r="H694" s="15"/>
       <c r="I694" s="15"/>
       <c r="J694" s="15"/>
@@ -13844,7 +13884,7 @@
       <c r="D695" s="15"/>
       <c r="E695" s="15"/>
       <c r="F695" s="15"/>
-      <c r="G695" s="20"/>
+      <c r="G695" s="18"/>
       <c r="H695" s="15"/>
       <c r="I695" s="15"/>
       <c r="J695" s="15"/>
@@ -13857,7 +13897,7 @@
       <c r="D696" s="15"/>
       <c r="E696" s="15"/>
       <c r="F696" s="15"/>
-      <c r="G696" s="20"/>
+      <c r="G696" s="18"/>
       <c r="H696" s="15"/>
       <c r="I696" s="15"/>
       <c r="J696" s="15"/>
@@ -13870,7 +13910,7 @@
       <c r="D697" s="15"/>
       <c r="E697" s="15"/>
       <c r="F697" s="15"/>
-      <c r="G697" s="20"/>
+      <c r="G697" s="18"/>
       <c r="H697" s="15"/>
       <c r="I697" s="15"/>
       <c r="J697" s="15"/>
@@ -13883,7 +13923,7 @@
       <c r="D698" s="15"/>
       <c r="E698" s="15"/>
       <c r="F698" s="15"/>
-      <c r="G698" s="20"/>
+      <c r="G698" s="18"/>
       <c r="H698" s="15"/>
       <c r="I698" s="15"/>
       <c r="J698" s="15"/>
@@ -13896,7 +13936,7 @@
       <c r="D699" s="15"/>
       <c r="E699" s="15"/>
       <c r="F699" s="15"/>
-      <c r="G699" s="20"/>
+      <c r="G699" s="18"/>
       <c r="H699" s="15"/>
       <c r="I699" s="15"/>
       <c r="J699" s="15"/>
@@ -13909,7 +13949,7 @@
       <c r="D700" s="15"/>
       <c r="E700" s="15"/>
       <c r="F700" s="15"/>
-      <c r="G700" s="20"/>
+      <c r="G700" s="18"/>
       <c r="H700" s="15"/>
       <c r="I700" s="15"/>
       <c r="J700" s="15"/>
@@ -13922,7 +13962,7 @@
       <c r="D701" s="15"/>
       <c r="E701" s="15"/>
       <c r="F701" s="15"/>
-      <c r="G701" s="20"/>
+      <c r="G701" s="18"/>
       <c r="H701" s="15"/>
       <c r="I701" s="15"/>
       <c r="J701" s="15"/>
@@ -13935,7 +13975,7 @@
       <c r="D702" s="15"/>
       <c r="E702" s="15"/>
       <c r="F702" s="15"/>
-      <c r="G702" s="20"/>
+      <c r="G702" s="18"/>
       <c r="H702" s="15"/>
       <c r="I702" s="15"/>
       <c r="J702" s="15"/>
@@ -13948,7 +13988,7 @@
       <c r="D703" s="15"/>
       <c r="E703" s="15"/>
       <c r="F703" s="15"/>
-      <c r="G703" s="20"/>
+      <c r="G703" s="18"/>
       <c r="H703" s="15"/>
       <c r="I703" s="15"/>
       <c r="J703" s="15"/>
@@ -13961,7 +14001,7 @@
       <c r="D704" s="15"/>
       <c r="E704" s="15"/>
       <c r="F704" s="15"/>
-      <c r="G704" s="20"/>
+      <c r="G704" s="18"/>
       <c r="H704" s="15"/>
       <c r="I704" s="15"/>
       <c r="J704" s="15"/>
@@ -13974,7 +14014,7 @@
       <c r="D705" s="15"/>
       <c r="E705" s="15"/>
       <c r="F705" s="15"/>
-      <c r="G705" s="20"/>
+      <c r="G705" s="18"/>
       <c r="H705" s="15"/>
       <c r="I705" s="15"/>
       <c r="J705" s="15"/>
@@ -13987,7 +14027,7 @@
       <c r="D706" s="15"/>
       <c r="E706" s="15"/>
       <c r="F706" s="15"/>
-      <c r="G706" s="20"/>
+      <c r="G706" s="18"/>
       <c r="H706" s="15"/>
       <c r="I706" s="15"/>
       <c r="J706" s="15"/>
@@ -14000,7 +14040,7 @@
       <c r="D707" s="15"/>
       <c r="E707" s="15"/>
       <c r="F707" s="15"/>
-      <c r="G707" s="20"/>
+      <c r="G707" s="18"/>
       <c r="H707" s="15"/>
       <c r="I707" s="15"/>
       <c r="J707" s="15"/>
@@ -14013,7 +14053,7 @@
       <c r="D708" s="15"/>
       <c r="E708" s="15"/>
       <c r="F708" s="15"/>
-      <c r="G708" s="20"/>
+      <c r="G708" s="18"/>
       <c r="H708" s="15"/>
       <c r="I708" s="15"/>
       <c r="J708" s="15"/>
@@ -14026,7 +14066,7 @@
       <c r="D709" s="15"/>
       <c r="E709" s="15"/>
       <c r="F709" s="15"/>
-      <c r="G709" s="20"/>
+      <c r="G709" s="18"/>
       <c r="H709" s="15"/>
       <c r="I709" s="15"/>
       <c r="J709" s="15"/>
@@ -14039,7 +14079,7 @@
       <c r="D710" s="15"/>
       <c r="E710" s="15"/>
       <c r="F710" s="15"/>
-      <c r="G710" s="20"/>
+      <c r="G710" s="18"/>
       <c r="H710" s="15"/>
       <c r="I710" s="15"/>
       <c r="J710" s="15"/>
@@ -14052,7 +14092,7 @@
       <c r="D711" s="15"/>
       <c r="E711" s="15"/>
       <c r="F711" s="15"/>
-      <c r="G711" s="20"/>
+      <c r="G711" s="18"/>
       <c r="H711" s="15"/>
       <c r="I711" s="15"/>
       <c r="J711" s="15"/>
@@ -14065,7 +14105,7 @@
       <c r="D712" s="15"/>
       <c r="E712" s="15"/>
       <c r="F712" s="15"/>
-      <c r="G712" s="20"/>
+      <c r="G712" s="18"/>
       <c r="H712" s="15"/>
       <c r="I712" s="15"/>
       <c r="J712" s="15"/>
@@ -14078,7 +14118,7 @@
       <c r="D713" s="15"/>
       <c r="E713" s="15"/>
       <c r="F713" s="15"/>
-      <c r="G713" s="20"/>
+      <c r="G713" s="18"/>
       <c r="H713" s="15"/>
       <c r="I713" s="15"/>
       <c r="J713" s="15"/>
@@ -14091,7 +14131,7 @@
       <c r="D714" s="15"/>
       <c r="E714" s="15"/>
       <c r="F714" s="15"/>
-      <c r="G714" s="20"/>
+      <c r="G714" s="18"/>
       <c r="H714" s="15"/>
       <c r="I714" s="15"/>
       <c r="J714" s="15"/>
@@ -14104,7 +14144,7 @@
       <c r="D715" s="15"/>
       <c r="E715" s="15"/>
       <c r="F715" s="15"/>
-      <c r="G715" s="20"/>
+      <c r="G715" s="18"/>
       <c r="H715" s="15"/>
       <c r="I715" s="15"/>
       <c r="J715" s="15"/>
@@ -14117,7 +14157,7 @@
       <c r="D716" s="15"/>
       <c r="E716" s="15"/>
       <c r="F716" s="15"/>
-      <c r="G716" s="20"/>
+      <c r="G716" s="18"/>
       <c r="H716" s="15"/>
       <c r="I716" s="15"/>
       <c r="J716" s="15"/>
@@ -14130,7 +14170,7 @@
       <c r="D717" s="15"/>
       <c r="E717" s="15"/>
       <c r="F717" s="15"/>
-      <c r="G717" s="20"/>
+      <c r="G717" s="18"/>
       <c r="H717" s="15"/>
       <c r="I717" s="15"/>
       <c r="J717" s="15"/>
@@ -14143,7 +14183,7 @@
       <c r="D718" s="15"/>
       <c r="E718" s="15"/>
       <c r="F718" s="15"/>
-      <c r="G718" s="20"/>
+      <c r="G718" s="18"/>
       <c r="H718" s="15"/>
       <c r="I718" s="15"/>
       <c r="J718" s="15"/>
@@ -14156,7 +14196,7 @@
       <c r="D719" s="15"/>
       <c r="E719" s="15"/>
       <c r="F719" s="15"/>
-      <c r="G719" s="20"/>
+      <c r="G719" s="18"/>
       <c r="H719" s="15"/>
       <c r="I719" s="15"/>
       <c r="J719" s="15"/>
@@ -14169,7 +14209,7 @@
       <c r="D720" s="15"/>
       <c r="E720" s="15"/>
       <c r="F720" s="15"/>
-      <c r="G720" s="20"/>
+      <c r="G720" s="18"/>
       <c r="H720" s="15"/>
       <c r="I720" s="15"/>
       <c r="J720" s="15"/>
@@ -14182,7 +14222,7 @@
       <c r="D721" s="15"/>
       <c r="E721" s="15"/>
       <c r="F721" s="15"/>
-      <c r="G721" s="20"/>
+      <c r="G721" s="18"/>
       <c r="H721" s="15"/>
       <c r="I721" s="15"/>
       <c r="J721" s="15"/>
@@ -14195,7 +14235,7 @@
       <c r="D722" s="15"/>
       <c r="E722" s="15"/>
       <c r="F722" s="15"/>
-      <c r="G722" s="20"/>
+      <c r="G722" s="18"/>
       <c r="H722" s="15"/>
       <c r="I722" s="15"/>
       <c r="J722" s="15"/>
@@ -14208,7 +14248,7 @@
       <c r="D723" s="15"/>
       <c r="E723" s="15"/>
       <c r="F723" s="15"/>
-      <c r="G723" s="20"/>
+      <c r="G723" s="18"/>
       <c r="H723" s="15"/>
       <c r="I723" s="15"/>
       <c r="J723" s="15"/>
@@ -14221,7 +14261,7 @@
       <c r="D724" s="15"/>
       <c r="E724" s="15"/>
       <c r="F724" s="15"/>
-      <c r="G724" s="20"/>
+      <c r="G724" s="18"/>
       <c r="H724" s="15"/>
       <c r="I724" s="15"/>
       <c r="J724" s="15"/>
@@ -14234,7 +14274,7 @@
       <c r="D725" s="15"/>
       <c r="E725" s="15"/>
       <c r="F725" s="15"/>
-      <c r="G725" s="20"/>
+      <c r="G725" s="18"/>
       <c r="H725" s="15"/>
       <c r="I725" s="15"/>
       <c r="J725" s="15"/>
@@ -14247,7 +14287,7 @@
       <c r="D726" s="15"/>
       <c r="E726" s="15"/>
       <c r="F726" s="15"/>
-      <c r="G726" s="20"/>
+      <c r="G726" s="18"/>
       <c r="H726" s="15"/>
       <c r="I726" s="15"/>
       <c r="J726" s="15"/>
@@ -14260,7 +14300,7 @@
       <c r="D727" s="15"/>
       <c r="E727" s="15"/>
       <c r="F727" s="15"/>
-      <c r="G727" s="20"/>
+      <c r="G727" s="18"/>
       <c r="H727" s="15"/>
       <c r="I727" s="15"/>
       <c r="J727" s="15"/>
@@ -14273,7 +14313,7 @@
       <c r="D728" s="15"/>
       <c r="E728" s="15"/>
       <c r="F728" s="15"/>
-      <c r="G728" s="20"/>
+      <c r="G728" s="18"/>
       <c r="H728" s="15"/>
       <c r="I728" s="15"/>
       <c r="J728" s="15"/>
@@ -14286,7 +14326,7 @@
       <c r="D729" s="15"/>
       <c r="E729" s="15"/>
       <c r="F729" s="15"/>
-      <c r="G729" s="20"/>
+      <c r="G729" s="18"/>
       <c r="H729" s="15"/>
       <c r="I729" s="15"/>
       <c r="J729" s="15"/>
@@ -14299,7 +14339,7 @@
       <c r="D730" s="15"/>
       <c r="E730" s="15"/>
       <c r="F730" s="15"/>
-      <c r="G730" s="20"/>
+      <c r="G730" s="18"/>
       <c r="H730" s="15"/>
       <c r="I730" s="15"/>
       <c r="J730" s="15"/>
@@ -14312,7 +14352,7 @@
       <c r="D731" s="15"/>
       <c r="E731" s="15"/>
       <c r="F731" s="15"/>
-      <c r="G731" s="20"/>
+      <c r="G731" s="18"/>
       <c r="H731" s="15"/>
       <c r="I731" s="15"/>
       <c r="J731" s="15"/>
@@ -14325,7 +14365,7 @@
       <c r="D732" s="15"/>
       <c r="E732" s="15"/>
       <c r="F732" s="15"/>
-      <c r="G732" s="20"/>
+      <c r="G732" s="18"/>
       <c r="H732" s="15"/>
       <c r="I732" s="15"/>
       <c r="J732" s="15"/>
@@ -14338,7 +14378,7 @@
       <c r="D733" s="15"/>
       <c r="E733" s="15"/>
       <c r="F733" s="15"/>
-      <c r="G733" s="20"/>
+      <c r="G733" s="18"/>
       <c r="H733" s="15"/>
       <c r="I733" s="15"/>
       <c r="J733" s="15"/>
@@ -14351,7 +14391,7 @@
       <c r="D734" s="15"/>
       <c r="E734" s="15"/>
       <c r="F734" s="15"/>
-      <c r="G734" s="20"/>
+      <c r="G734" s="18"/>
       <c r="H734" s="15"/>
       <c r="I734" s="15"/>
       <c r="J734" s="15"/>
@@ -14364,7 +14404,7 @@
       <c r="D735" s="15"/>
       <c r="E735" s="15"/>
       <c r="F735" s="15"/>
-      <c r="G735" s="20"/>
+      <c r="G735" s="18"/>
       <c r="H735" s="15"/>
       <c r="I735" s="15"/>
       <c r="J735" s="15"/>
@@ -14377,7 +14417,7 @@
       <c r="D736" s="15"/>
       <c r="E736" s="15"/>
       <c r="F736" s="15"/>
-      <c r="G736" s="20"/>
+      <c r="G736" s="18"/>
       <c r="H736" s="15"/>
       <c r="I736" s="15"/>
       <c r="J736" s="15"/>
@@ -14390,7 +14430,7 @@
       <c r="D737" s="15"/>
       <c r="E737" s="15"/>
       <c r="F737" s="15"/>
-      <c r="G737" s="20"/>
+      <c r="G737" s="18"/>
       <c r="H737" s="15"/>
       <c r="I737" s="15"/>
       <c r="J737" s="15"/>
@@ -14403,7 +14443,7 @@
       <c r="D738" s="15"/>
       <c r="E738" s="15"/>
       <c r="F738" s="15"/>
-      <c r="G738" s="20"/>
+      <c r="G738" s="18"/>
       <c r="H738" s="15"/>
       <c r="I738" s="15"/>
       <c r="J738" s="15"/>
@@ -14416,7 +14456,7 @@
       <c r="D739" s="15"/>
       <c r="E739" s="15"/>
       <c r="F739" s="15"/>
-      <c r="G739" s="20"/>
+      <c r="G739" s="18"/>
       <c r="H739" s="15"/>
       <c r="I739" s="15"/>
       <c r="J739" s="15"/>
@@ -14429,7 +14469,7 @@
       <c r="D740" s="15"/>
       <c r="E740" s="15"/>
       <c r="F740" s="15"/>
-      <c r="G740" s="20"/>
+      <c r="G740" s="18"/>
       <c r="H740" s="15"/>
       <c r="I740" s="15"/>
       <c r="J740" s="15"/>
@@ -14442,7 +14482,7 @@
       <c r="D741" s="15"/>
       <c r="E741" s="15"/>
       <c r="F741" s="15"/>
-      <c r="G741" s="20"/>
+      <c r="G741" s="18"/>
       <c r="H741" s="15"/>
       <c r="I741" s="15"/>
       <c r="J741" s="15"/>
@@ -14455,7 +14495,7 @@
       <c r="D742" s="15"/>
       <c r="E742" s="15"/>
       <c r="F742" s="15"/>
-      <c r="G742" s="20"/>
+      <c r="G742" s="18"/>
       <c r="H742" s="15"/>
       <c r="I742" s="15"/>
       <c r="J742" s="15"/>
@@ -14468,7 +14508,7 @@
       <c r="D743" s="15"/>
       <c r="E743" s="15"/>
       <c r="F743" s="15"/>
-      <c r="G743" s="20"/>
+      <c r="G743" s="18"/>
       <c r="H743" s="15"/>
       <c r="I743" s="15"/>
       <c r="J743" s="15"/>
@@ -14481,7 +14521,7 @@
       <c r="D744" s="15"/>
       <c r="E744" s="15"/>
       <c r="F744" s="15"/>
-      <c r="G744" s="20"/>
+      <c r="G744" s="18"/>
       <c r="H744" s="15"/>
       <c r="I744" s="15"/>
       <c r="J744" s="15"/>
@@ -14494,7 +14534,7 @@
       <c r="D745" s="15"/>
       <c r="E745" s="15"/>
       <c r="F745" s="15"/>
-      <c r="G745" s="20"/>
+      <c r="G745" s="18"/>
       <c r="H745" s="15"/>
       <c r="I745" s="15"/>
       <c r="J745" s="15"/>
@@ -14507,7 +14547,7 @@
       <c r="D746" s="15"/>
       <c r="E746" s="15"/>
       <c r="F746" s="15"/>
-      <c r="G746" s="20"/>
+      <c r="G746" s="18"/>
       <c r="H746" s="15"/>
       <c r="I746" s="15"/>
       <c r="J746" s="15"/>
@@ -14520,7 +14560,7 @@
       <c r="D747" s="15"/>
       <c r="E747" s="15"/>
       <c r="F747" s="15"/>
-      <c r="G747" s="20"/>
+      <c r="G747" s="18"/>
       <c r="H747" s="15"/>
       <c r="I747" s="15"/>
       <c r="J747" s="15"/>
@@ -14533,7 +14573,7 @@
       <c r="D748" s="15"/>
       <c r="E748" s="15"/>
       <c r="F748" s="15"/>
-      <c r="G748" s="20"/>
+      <c r="G748" s="18"/>
       <c r="H748" s="15"/>
       <c r="I748" s="15"/>
       <c r="J748" s="15"/>
@@ -14546,7 +14586,7 @@
       <c r="D749" s="15"/>
       <c r="E749" s="15"/>
       <c r="F749" s="15"/>
-      <c r="G749" s="20"/>
+      <c r="G749" s="18"/>
       <c r="H749" s="15"/>
       <c r="I749" s="15"/>
       <c r="J749" s="15"/>
@@ -14559,7 +14599,7 @@
       <c r="D750" s="15"/>
       <c r="E750" s="15"/>
       <c r="F750" s="15"/>
-      <c r="G750" s="20"/>
+      <c r="G750" s="18"/>
       <c r="H750" s="15"/>
       <c r="I750" s="15"/>
       <c r="J750" s="15"/>
@@ -14572,7 +14612,7 @@
       <c r="D751" s="15"/>
       <c r="E751" s="15"/>
       <c r="F751" s="15"/>
-      <c r="G751" s="20"/>
+      <c r="G751" s="18"/>
       <c r="H751" s="15"/>
       <c r="I751" s="15"/>
       <c r="J751" s="15"/>
@@ -14585,7 +14625,7 @@
       <c r="D752" s="15"/>
       <c r="E752" s="15"/>
       <c r="F752" s="15"/>
-      <c r="G752" s="20"/>
+      <c r="G752" s="18"/>
       <c r="H752" s="15"/>
       <c r="I752" s="15"/>
       <c r="J752" s="15"/>
@@ -14598,7 +14638,7 @@
       <c r="D753" s="15"/>
       <c r="E753" s="15"/>
       <c r="F753" s="15"/>
-      <c r="G753" s="20"/>
+      <c r="G753" s="18"/>
       <c r="H753" s="15"/>
       <c r="I753" s="15"/>
       <c r="J753" s="15"/>
@@ -14611,7 +14651,7 @@
       <c r="D754" s="15"/>
       <c r="E754" s="15"/>
       <c r="F754" s="15"/>
-      <c r="G754" s="20"/>
+      <c r="G754" s="18"/>
       <c r="H754" s="15"/>
       <c r="I754" s="15"/>
       <c r="J754" s="15"/>
@@ -14624,7 +14664,7 @@
       <c r="D755" s="15"/>
       <c r="E755" s="15"/>
       <c r="F755" s="15"/>
-      <c r="G755" s="20"/>
+      <c r="G755" s="18"/>
       <c r="H755" s="15"/>
       <c r="I755" s="15"/>
       <c r="J755" s="15"/>
@@ -14637,7 +14677,7 @@
       <c r="D756" s="15"/>
       <c r="E756" s="15"/>
       <c r="F756" s="15"/>
-      <c r="G756" s="20"/>
+      <c r="G756" s="18"/>
       <c r="H756" s="15"/>
       <c r="I756" s="15"/>
       <c r="J756" s="15"/>
@@ -14650,7 +14690,7 @@
       <c r="D757" s="15"/>
       <c r="E757" s="15"/>
       <c r="F757" s="15"/>
-      <c r="G757" s="20"/>
+      <c r="G757" s="18"/>
       <c r="H757" s="15"/>
       <c r="I757" s="15"/>
       <c r="J757" s="15"/>
@@ -14663,7 +14703,7 @@
       <c r="D758" s="15"/>
       <c r="E758" s="15"/>
       <c r="F758" s="15"/>
-      <c r="G758" s="20"/>
+      <c r="G758" s="18"/>
       <c r="H758" s="15"/>
       <c r="I758" s="15"/>
       <c r="J758" s="15"/>
@@ -14676,7 +14716,7 @@
       <c r="D759" s="15"/>
       <c r="E759" s="15"/>
       <c r="F759" s="15"/>
-      <c r="G759" s="20"/>
+      <c r="G759" s="18"/>
       <c r="H759" s="15"/>
       <c r="I759" s="15"/>
       <c r="J759" s="15"/>
@@ -14689,7 +14729,7 @@
       <c r="D760" s="15"/>
       <c r="E760" s="15"/>
       <c r="F760" s="15"/>
-      <c r="G760" s="20"/>
+      <c r="G760" s="18"/>
       <c r="H760" s="15"/>
       <c r="I760" s="15"/>
       <c r="J760" s="15"/>
@@ -14702,7 +14742,7 @@
       <c r="D761" s="15"/>
       <c r="E761" s="15"/>
       <c r="F761" s="15"/>
-      <c r="G761" s="20"/>
+      <c r="G761" s="18"/>
       <c r="H761" s="15"/>
       <c r="I761" s="15"/>
       <c r="J761" s="15"/>
@@ -14715,7 +14755,7 @@
       <c r="D762" s="15"/>
       <c r="E762" s="15"/>
       <c r="F762" s="15"/>
-      <c r="G762" s="20"/>
+      <c r="G762" s="18"/>
       <c r="H762" s="15"/>
       <c r="I762" s="15"/>
       <c r="J762" s="15"/>
@@ -14728,7 +14768,7 @@
       <c r="D763" s="15"/>
       <c r="E763" s="15"/>
       <c r="F763" s="15"/>
-      <c r="G763" s="20"/>
+      <c r="G763" s="18"/>
       <c r="H763" s="15"/>
       <c r="I763" s="15"/>
       <c r="J763" s="15"/>
@@ -14741,7 +14781,7 @@
       <c r="D764" s="15"/>
       <c r="E764" s="15"/>
       <c r="F764" s="15"/>
-      <c r="G764" s="20"/>
+      <c r="G764" s="18"/>
       <c r="H764" s="15"/>
       <c r="I764" s="15"/>
       <c r="J764" s="15"/>
@@ -14754,7 +14794,7 @@
       <c r="D765" s="15"/>
       <c r="E765" s="15"/>
       <c r="F765" s="15"/>
-      <c r="G765" s="20"/>
+      <c r="G765" s="18"/>
       <c r="H765" s="15"/>
       <c r="I765" s="15"/>
       <c r="J765" s="15"/>
@@ -14767,7 +14807,7 @@
       <c r="D766" s="15"/>
       <c r="E766" s="15"/>
       <c r="F766" s="15"/>
-      <c r="G766" s="20"/>
+      <c r="G766" s="18"/>
       <c r="H766" s="15"/>
       <c r="I766" s="15"/>
       <c r="J766" s="15"/>
@@ -14780,7 +14820,7 @@
       <c r="D767" s="15"/>
       <c r="E767" s="15"/>
       <c r="F767" s="15"/>
-      <c r="G767" s="20"/>
+      <c r="G767" s="18"/>
       <c r="H767" s="15"/>
       <c r="I767" s="15"/>
       <c r="J767" s="15"/>
@@ -14793,7 +14833,7 @@
       <c r="D768" s="15"/>
       <c r="E768" s="15"/>
       <c r="F768" s="15"/>
-      <c r="G768" s="20"/>
+      <c r="G768" s="18"/>
       <c r="H768" s="15"/>
       <c r="I768" s="15"/>
       <c r="J768" s="15"/>
@@ -14806,7 +14846,7 @@
       <c r="D769" s="15"/>
       <c r="E769" s="15"/>
       <c r="F769" s="15"/>
-      <c r="G769" s="20"/>
+      <c r="G769" s="18"/>
       <c r="H769" s="15"/>
       <c r="I769" s="15"/>
       <c r="J769" s="15"/>
@@ -14819,7 +14859,7 @@
       <c r="D770" s="15"/>
       <c r="E770" s="15"/>
       <c r="F770" s="15"/>
-      <c r="G770" s="20"/>
+      <c r="G770" s="18"/>
       <c r="H770" s="15"/>
       <c r="I770" s="15"/>
       <c r="J770" s="15"/>
@@ -14832,7 +14872,7 @@
       <c r="D771" s="15"/>
       <c r="E771" s="15"/>
       <c r="F771" s="15"/>
-      <c r="G771" s="20"/>
+      <c r="G771" s="18"/>
       <c r="H771" s="15"/>
       <c r="I771" s="15"/>
       <c r="J771" s="15"/>
@@ -14845,7 +14885,7 @@
       <c r="D772" s="15"/>
       <c r="E772" s="15"/>
       <c r="F772" s="15"/>
-      <c r="G772" s="20"/>
+      <c r="G772" s="18"/>
       <c r="H772" s="15"/>
       <c r="I772" s="15"/>
       <c r="J772" s="15"/>
@@ -14858,7 +14898,7 @@
       <c r="D773" s="15"/>
       <c r="E773" s="15"/>
       <c r="F773" s="15"/>
-      <c r="G773" s="20"/>
+      <c r="G773" s="18"/>
       <c r="H773" s="15"/>
       <c r="I773" s="15"/>
       <c r="J773" s="15"/>
@@ -14871,7 +14911,7 @@
       <c r="D774" s="15"/>
       <c r="E774" s="15"/>
       <c r="F774" s="15"/>
-      <c r="G774" s="20"/>
+      <c r="G774" s="18"/>
       <c r="H774" s="15"/>
       <c r="I774" s="15"/>
       <c r="J774" s="15"/>
@@ -14884,7 +14924,7 @@
       <c r="D775" s="15"/>
       <c r="E775" s="15"/>
       <c r="F775" s="15"/>
-      <c r="G775" s="20"/>
+      <c r="G775" s="18"/>
       <c r="H775" s="15"/>
       <c r="I775" s="15"/>
       <c r="J775" s="15"/>
@@ -14897,7 +14937,7 @@
       <c r="D776" s="15"/>
       <c r="E776" s="15"/>
       <c r="F776" s="15"/>
-      <c r="G776" s="20"/>
+      <c r="G776" s="18"/>
       <c r="H776" s="15"/>
       <c r="I776" s="15"/>
       <c r="J776" s="15"/>
@@ -14910,7 +14950,7 @@
       <c r="D777" s="15"/>
       <c r="E777" s="15"/>
       <c r="F777" s="15"/>
-      <c r="G777" s="20"/>
+      <c r="G777" s="18"/>
       <c r="H777" s="15"/>
       <c r="I777" s="15"/>
       <c r="J777" s="15"/>
@@ -14923,7 +14963,7 @@
       <c r="D778" s="15"/>
       <c r="E778" s="15"/>
       <c r="F778" s="15"/>
-      <c r="G778" s="20"/>
+      <c r="G778" s="18"/>
       <c r="H778" s="15"/>
       <c r="I778" s="15"/>
       <c r="J778" s="15"/>
@@ -14936,7 +14976,7 @@
       <c r="D779" s="15"/>
       <c r="E779" s="15"/>
       <c r="F779" s="15"/>
-      <c r="G779" s="20"/>
+      <c r="G779" s="18"/>
       <c r="H779" s="15"/>
       <c r="I779" s="15"/>
       <c r="J779" s="15"/>
@@ -14949,7 +14989,7 @@
       <c r="D780" s="15"/>
       <c r="E780" s="15"/>
       <c r="F780" s="15"/>
-      <c r="G780" s="20"/>
+      <c r="G780" s="18"/>
       <c r="H780" s="15"/>
       <c r="I780" s="15"/>
       <c r="J780" s="15"/>
@@ -14962,7 +15002,7 @@
       <c r="D781" s="15"/>
       <c r="E781" s="15"/>
       <c r="F781" s="15"/>
-      <c r="G781" s="20"/>
+      <c r="G781" s="18"/>
       <c r="H781" s="15"/>
       <c r="I781" s="15"/>
       <c r="J781" s="15"/>
@@ -14975,7 +15015,7 @@
       <c r="D782" s="15"/>
       <c r="E782" s="15"/>
       <c r="F782" s="15"/>
-      <c r="G782" s="20"/>
+      <c r="G782" s="18"/>
       <c r="H782" s="15"/>
       <c r="I782" s="15"/>
       <c r="J782" s="15"/>
@@ -14988,7 +15028,7 @@
       <c r="D783" s="15"/>
       <c r="E783" s="15"/>
       <c r="F783" s="15"/>
-      <c r="G783" s="20"/>
+      <c r="G783" s="18"/>
       <c r="H783" s="15"/>
       <c r="I783" s="15"/>
       <c r="J783" s="15"/>
@@ -15001,7 +15041,7 @@
       <c r="D784" s="15"/>
       <c r="E784" s="15"/>
       <c r="F784" s="15"/>
-      <c r="G784" s="20"/>
+      <c r="G784" s="18"/>
       <c r="H784" s="15"/>
       <c r="I784" s="15"/>
       <c r="J784" s="15"/>
@@ -15014,7 +15054,7 @@
       <c r="D785" s="15"/>
       <c r="E785" s="15"/>
       <c r="F785" s="15"/>
-      <c r="G785" s="20"/>
+      <c r="G785" s="18"/>
       <c r="H785" s="15"/>
       <c r="I785" s="15"/>
       <c r="J785" s="15"/>
@@ -15027,7 +15067,7 @@
       <c r="D786" s="15"/>
       <c r="E786" s="15"/>
       <c r="F786" s="15"/>
-      <c r="G786" s="20"/>
+      <c r="G786" s="18"/>
       <c r="H786" s="15"/>
       <c r="I786" s="15"/>
       <c r="J786" s="15"/>
@@ -15040,7 +15080,7 @@
       <c r="D787" s="15"/>
       <c r="E787" s="15"/>
       <c r="F787" s="15"/>
-      <c r="G787" s="20"/>
+      <c r="G787" s="18"/>
       <c r="H787" s="15"/>
       <c r="I787" s="15"/>
       <c r="J787" s="15"/>
@@ -15053,7 +15093,7 @@
       <c r="D788" s="15"/>
       <c r="E788" s="15"/>
       <c r="F788" s="15"/>
-      <c r="G788" s="20"/>
+      <c r="G788" s="18"/>
       <c r="H788" s="15"/>
       <c r="I788" s="15"/>
       <c r="J788" s="15"/>
@@ -15066,7 +15106,7 @@
       <c r="D789" s="15"/>
       <c r="E789" s="15"/>
       <c r="F789" s="15"/>
-      <c r="G789" s="20"/>
+      <c r="G789" s="18"/>
       <c r="H789" s="15"/>
       <c r="I789" s="15"/>
       <c r="J789" s="15"/>
@@ -15079,7 +15119,7 @@
       <c r="D790" s="15"/>
       <c r="E790" s="15"/>
       <c r="F790" s="15"/>
-      <c r="G790" s="20"/>
+      <c r="G790" s="18"/>
       <c r="H790" s="15"/>
       <c r="I790" s="15"/>
       <c r="J790" s="15"/>
@@ -15092,7 +15132,7 @@
       <c r="D791" s="15"/>
       <c r="E791" s="15"/>
       <c r="F791" s="15"/>
-      <c r="G791" s="20"/>
+      <c r="G791" s="18"/>
       <c r="H791" s="15"/>
       <c r="I791" s="15"/>
       <c r="J791" s="15"/>
@@ -15105,7 +15145,7 @@
       <c r="D792" s="15"/>
       <c r="E792" s="15"/>
       <c r="F792" s="15"/>
-      <c r="G792" s="20"/>
+      <c r="G792" s="18"/>
       <c r="H792" s="15"/>
       <c r="I792" s="15"/>
       <c r="J792" s="15"/>
@@ -15118,7 +15158,7 @@
       <c r="D793" s="15"/>
       <c r="E793" s="15"/>
       <c r="F793" s="15"/>
-      <c r="G793" s="20"/>
+      <c r="G793" s="18"/>
       <c r="H793" s="15"/>
       <c r="I793" s="15"/>
       <c r="J793" s="15"/>
@@ -15131,7 +15171,7 @@
       <c r="D794" s="15"/>
       <c r="E794" s="15"/>
       <c r="F794" s="15"/>
-      <c r="G794" s="20"/>
+      <c r="G794" s="18"/>
       <c r="H794" s="15"/>
       <c r="I794" s="15"/>
       <c r="J794" s="15"/>
@@ -15144,7 +15184,7 @@
       <c r="D795" s="15"/>
       <c r="E795" s="15"/>
       <c r="F795" s="15"/>
-      <c r="G795" s="20"/>
+      <c r="G795" s="18"/>
       <c r="H795" s="15"/>
       <c r="I795" s="15"/>
       <c r="J795" s="15"/>
@@ -15157,7 +15197,7 @@
       <c r="D796" s="15"/>
       <c r="E796" s="15"/>
       <c r="F796" s="15"/>
-      <c r="G796" s="20"/>
+      <c r="G796" s="18"/>
       <c r="H796" s="15"/>
       <c r="I796" s="15"/>
       <c r="J796" s="15"/>
@@ -15170,7 +15210,7 @@
       <c r="D797" s="15"/>
       <c r="E797" s="15"/>
       <c r="F797" s="15"/>
-      <c r="G797" s="20"/>
+      <c r="G797" s="18"/>
       <c r="H797" s="15"/>
       <c r="I797" s="15"/>
       <c r="J797" s="15"/>
@@ -15183,7 +15223,7 @@
       <c r="D798" s="15"/>
       <c r="E798" s="15"/>
       <c r="F798" s="15"/>
-      <c r="G798" s="20"/>
+      <c r="G798" s="18"/>
       <c r="H798" s="15"/>
       <c r="I798" s="15"/>
       <c r="J798" s="15"/>
@@ -15196,7 +15236,7 @@
       <c r="D799" s="15"/>
       <c r="E799" s="15"/>
       <c r="F799" s="15"/>
-      <c r="G799" s="20"/>
+      <c r="G799" s="18"/>
       <c r="H799" s="15"/>
       <c r="I799" s="15"/>
       <c r="J799" s="15"/>
@@ -15209,7 +15249,7 @@
       <c r="D800" s="15"/>
       <c r="E800" s="15"/>
       <c r="F800" s="15"/>
-      <c r="G800" s="20"/>
+      <c r="G800" s="18"/>
       <c r="H800" s="15"/>
       <c r="I800" s="15"/>
       <c r="J800" s="15"/>
@@ -15222,7 +15262,7 @@
       <c r="D801" s="15"/>
       <c r="E801" s="15"/>
       <c r="F801" s="15"/>
-      <c r="G801" s="20"/>
+      <c r="G801" s="18"/>
       <c r="H801" s="15"/>
       <c r="I801" s="15"/>
       <c r="J801" s="15"/>
@@ -15235,7 +15275,7 @@
       <c r="D802" s="15"/>
       <c r="E802" s="15"/>
       <c r="F802" s="15"/>
-      <c r="G802" s="20"/>
+      <c r="G802" s="18"/>
       <c r="H802" s="15"/>
       <c r="I802" s="15"/>
       <c r="J802" s="15"/>
@@ -15248,7 +15288,7 @@
       <c r="D803" s="15"/>
       <c r="E803" s="15"/>
       <c r="F803" s="15"/>
-      <c r="G803" s="20"/>
+      <c r="G803" s="18"/>
       <c r="H803" s="15"/>
       <c r="I803" s="15"/>
       <c r="J803" s="15"/>
@@ -15261,7 +15301,7 @@
       <c r="D804" s="15"/>
       <c r="E804" s="15"/>
       <c r="F804" s="15"/>
-      <c r="G804" s="20"/>
+      <c r="G804" s="18"/>
       <c r="H804" s="15"/>
       <c r="I804" s="15"/>
       <c r="J804" s="15"/>
@@ -15274,7 +15314,7 @@
       <c r="D805" s="15"/>
       <c r="E805" s="15"/>
       <c r="F805" s="15"/>
-      <c r="G805" s="20"/>
+      <c r="G805" s="18"/>
       <c r="H805" s="15"/>
       <c r="I805" s="15"/>
       <c r="J805" s="15"/>
@@ -15287,7 +15327,7 @@
       <c r="D806" s="15"/>
       <c r="E806" s="15"/>
       <c r="F806" s="15"/>
-      <c r="G806" s="20"/>
+      <c r="G806" s="18"/>
       <c r="H806" s="15"/>
       <c r="I806" s="15"/>
       <c r="J806" s="15"/>
@@ -15300,7 +15340,7 @@
       <c r="D807" s="15"/>
       <c r="E807" s="15"/>
       <c r="F807" s="15"/>
-      <c r="G807" s="20"/>
+      <c r="G807" s="18"/>
       <c r="H807" s="15"/>
       <c r="I807" s="15"/>
       <c r="J807" s="15"/>
@@ -15313,7 +15353,7 @@
       <c r="D808" s="15"/>
       <c r="E808" s="15"/>
       <c r="F808" s="15"/>
-      <c r="G808" s="20"/>
+      <c r="G808" s="18"/>
       <c r="H808" s="15"/>
       <c r="I808" s="15"/>
       <c r="J808" s="15"/>
@@ -15326,7 +15366,7 @@
       <c r="D809" s="15"/>
       <c r="E809" s="15"/>
       <c r="F809" s="15"/>
-      <c r="G809" s="20"/>
+      <c r="G809" s="18"/>
       <c r="H809" s="15"/>
       <c r="I809" s="15"/>
       <c r="J809" s="15"/>
@@ -15339,7 +15379,7 @@
       <c r="D810" s="15"/>
       <c r="E810" s="15"/>
       <c r="F810" s="15"/>
-      <c r="G810" s="20"/>
+      <c r="G810" s="18"/>
       <c r="H810" s="15"/>
       <c r="I810" s="15"/>
       <c r="J810" s="15"/>
@@ -15352,7 +15392,7 @@
       <c r="D811" s="15"/>
       <c r="E811" s="15"/>
       <c r="F811" s="15"/>
-      <c r="G811" s="20"/>
+      <c r="G811" s="18"/>
       <c r="H811" s="15"/>
       <c r="I811" s="15"/>
       <c r="J811" s="15"/>
@@ -15365,7 +15405,7 @@
       <c r="D812" s="15"/>
       <c r="E812" s="15"/>
       <c r="F812" s="15"/>
-      <c r="G812" s="20"/>
+      <c r="G812" s="18"/>
       <c r="H812" s="15"/>
       <c r="I812" s="15"/>
       <c r="J812" s="15"/>
@@ -15378,7 +15418,7 @@
       <c r="D813" s="15"/>
       <c r="E813" s="15"/>
       <c r="F813" s="15"/>
-      <c r="G813" s="20"/>
+      <c r="G813" s="18"/>
       <c r="H813" s="15"/>
       <c r="I813" s="15"/>
       <c r="J813" s="15"/>
@@ -15391,7 +15431,7 @@
       <c r="D814" s="15"/>
       <c r="E814" s="15"/>
       <c r="F814" s="15"/>
-      <c r="G814" s="20"/>
+      <c r="G814" s="18"/>
       <c r="H814" s="15"/>
       <c r="I814" s="15"/>
       <c r="J814" s="15"/>
@@ -15404,7 +15444,7 @@
       <c r="D815" s="15"/>
       <c r="E815" s="15"/>
       <c r="F815" s="15"/>
-      <c r="G815" s="20"/>
+      <c r="G815" s="18"/>
       <c r="H815" s="15"/>
       <c r="I815" s="15"/>
       <c r="J815" s="15"/>
@@ -15417,7 +15457,7 @@
       <c r="D816" s="15"/>
       <c r="E816" s="15"/>
       <c r="F816" s="15"/>
-      <c r="G816" s="20"/>
+      <c r="G816" s="18"/>
       <c r="H816" s="15"/>
       <c r="I816" s="15"/>
       <c r="J816" s="15"/>
@@ -15430,7 +15470,7 @@
       <c r="D817" s="15"/>
       <c r="E817" s="15"/>
       <c r="F817" s="15"/>
-      <c r="G817" s="20"/>
+      <c r="G817" s="18"/>
       <c r="H817" s="15"/>
       <c r="I817" s="15"/>
       <c r="J817" s="15"/>
@@ -15443,7 +15483,7 @@
       <c r="D818" s="15"/>
       <c r="E818" s="15"/>
       <c r="F818" s="15"/>
-      <c r="G818" s="20"/>
+      <c r="G818" s="18"/>
       <c r="H818" s="15"/>
       <c r="I818" s="15"/>
       <c r="J818" s="15"/>
@@ -15456,7 +15496,7 @@
       <c r="D819" s="15"/>
       <c r="E819" s="15"/>
       <c r="F819" s="15"/>
-      <c r="G819" s="20"/>
+      <c r="G819" s="18"/>
       <c r="H819" s="15"/>
       <c r="I819" s="15"/>
       <c r="J819" s="15"/>
@@ -15469,7 +15509,7 @@
       <c r="D820" s="15"/>
       <c r="E820" s="15"/>
       <c r="F820" s="15"/>
-      <c r="G820" s="20"/>
+      <c r="G820" s="18"/>
       <c r="H820" s="15"/>
       <c r="I820" s="15"/>
       <c r="J820" s="15"/>
@@ -15482,7 +15522,7 @@
       <c r="D821" s="15"/>
       <c r="E821" s="15"/>
       <c r="F821" s="15"/>
-      <c r="G821" s="20"/>
+      <c r="G821" s="18"/>
       <c r="H821" s="15"/>
       <c r="I821" s="15"/>
       <c r="J821" s="15"/>
@@ -15495,7 +15535,7 @@
       <c r="D822" s="15"/>
       <c r="E822" s="15"/>
       <c r="F822" s="15"/>
-      <c r="G822" s="20"/>
+      <c r="G822" s="18"/>
       <c r="H822" s="15"/>
       <c r="I822" s="15"/>
       <c r="J822" s="15"/>
@@ -15508,7 +15548,7 @@
       <c r="D823" s="15"/>
       <c r="E823" s="15"/>
       <c r="F823" s="15"/>
-      <c r="G823" s="20"/>
+      <c r="G823" s="18"/>
       <c r="H823" s="15"/>
       <c r="I823" s="15"/>
       <c r="J823" s="15"/>
@@ -15521,7 +15561,7 @@
       <c r="D824" s="15"/>
       <c r="E824" s="15"/>
       <c r="F824" s="15"/>
-      <c r="G824" s="20"/>
+      <c r="G824" s="18"/>
       <c r="H824" s="15"/>
       <c r="I824" s="15"/>
       <c r="J824" s="15"/>
@@ -15534,7 +15574,7 @@
       <c r="D825" s="15"/>
       <c r="E825" s="15"/>
       <c r="F825" s="15"/>
-      <c r="G825" s="20"/>
+      <c r="G825" s="18"/>
       <c r="H825" s="15"/>
       <c r="I825" s="15"/>
       <c r="J825" s="15"/>
@@ -15547,7 +15587,7 @@
       <c r="D826" s="15"/>
       <c r="E826" s="15"/>
       <c r="F826" s="15"/>
-      <c r="G826" s="20"/>
+      <c r="G826" s="18"/>
       <c r="H826" s="15"/>
       <c r="I826" s="15"/>
       <c r="J826" s="15"/>
@@ -15560,7 +15600,7 @@
       <c r="D827" s="15"/>
       <c r="E827" s="15"/>
       <c r="F827" s="15"/>
-      <c r="G827" s="20"/>
+      <c r="G827" s="18"/>
       <c r="H827" s="15"/>
       <c r="I827" s="15"/>
       <c r="J827" s="15"/>
@@ -15573,7 +15613,7 @@
       <c r="D828" s="15"/>
       <c r="E828" s="15"/>
       <c r="F828" s="15"/>
-      <c r="G828" s="20"/>
+      <c r="G828" s="18"/>
       <c r="H828" s="15"/>
       <c r="I828" s="15"/>
       <c r="J828" s="15"/>
@@ -15586,7 +15626,7 @@
       <c r="D829" s="15"/>
       <c r="E829" s="15"/>
       <c r="F829" s="15"/>
-      <c r="G829" s="20"/>
+      <c r="G829" s="18"/>
       <c r="H829" s="15"/>
       <c r="I829" s="15"/>
       <c r="J829" s="15"/>
@@ -15599,7 +15639,7 @@
       <c r="D830" s="15"/>
       <c r="E830" s="15"/>
       <c r="F830" s="15"/>
-      <c r="G830" s="20"/>
+      <c r="G830" s="18"/>
       <c r="H830" s="15"/>
       <c r="I830" s="15"/>
       <c r="J830" s="15"/>
@@ -15612,7 +15652,7 @@
       <c r="D831" s="15"/>
       <c r="E831" s="15"/>
       <c r="F831" s="15"/>
-      <c r="G831" s="20"/>
+      <c r="G831" s="18"/>
       <c r="H831" s="15"/>
       <c r="I831" s="15"/>
       <c r="J831" s="15"/>
@@ -15625,7 +15665,7 @@
       <c r="D832" s="15"/>
       <c r="E832" s="15"/>
       <c r="F832" s="15"/>
-      <c r="G832" s="20"/>
+      <c r="G832" s="18"/>
       <c r="H832" s="15"/>
       <c r="I832" s="15"/>
       <c r="J832" s="15"/>
@@ -15638,7 +15678,7 @@
       <c r="D833" s="15"/>
       <c r="E833" s="15"/>
       <c r="F833" s="15"/>
-      <c r="G833" s="20"/>
+      <c r="G833" s="18"/>
       <c r="H833" s="15"/>
       <c r="I833" s="15"/>
       <c r="J833" s="15"/>
@@ -15651,7 +15691,7 @@
       <c r="D834" s="15"/>
       <c r="E834" s="15"/>
       <c r="F834" s="15"/>
-      <c r="G834" s="20"/>
+      <c r="G834" s="18"/>
       <c r="H834" s="15"/>
       <c r="I834" s="15"/>
       <c r="J834" s="15"/>
@@ -15664,7 +15704,7 @@
       <c r="D835" s="15"/>
       <c r="E835" s="15"/>
       <c r="F835" s="15"/>
-      <c r="G835" s="20"/>
+      <c r="G835" s="18"/>
       <c r="H835" s="15"/>
       <c r="I835" s="15"/>
       <c r="J835" s="15"/>
@@ -15677,7 +15717,7 @@
       <c r="D836" s="15"/>
       <c r="E836" s="15"/>
       <c r="F836" s="15"/>
-      <c r="G836" s="20"/>
+      <c r="G836" s="18"/>
       <c r="H836" s="15"/>
       <c r="I836" s="15"/>
       <c r="J836" s="15"/>
@@ -15690,7 +15730,7 @@
       <c r="D837" s="15"/>
       <c r="E837" s="15"/>
       <c r="F837" s="15"/>
-      <c r="G837" s="20"/>
+      <c r="G837" s="18"/>
       <c r="H837" s="15"/>
       <c r="I837" s="15"/>
       <c r="J837" s="15"/>
@@ -15703,7 +15743,7 @@
       <c r="D838" s="15"/>
       <c r="E838" s="15"/>
       <c r="F838" s="15"/>
-      <c r="G838" s="20"/>
+      <c r="G838" s="18"/>
       <c r="H838" s="15"/>
       <c r="I838" s="15"/>
       <c r="J838" s="15"/>
@@ -15716,7 +15756,7 @@
       <c r="D839" s="15"/>
       <c r="E839" s="15"/>
       <c r="F839" s="15"/>
-      <c r="G839" s="20"/>
+      <c r="G839" s="18"/>
       <c r="H839" s="15"/>
       <c r="I839" s="15"/>
       <c r="J839" s="15"/>
@@ -15729,7 +15769,7 @@
       <c r="D840" s="15"/>
       <c r="E840" s="15"/>
       <c r="F840" s="15"/>
-      <c r="G840" s="20"/>
+      <c r="G840" s="18"/>
       <c r="H840" s="15"/>
       <c r="I840" s="15"/>
       <c r="J840" s="15"/>
@@ -15742,7 +15782,7 @@
       <c r="D841" s="15"/>
       <c r="E841" s="15"/>
       <c r="F841" s="15"/>
-      <c r="G841" s="20"/>
+      <c r="G841" s="18"/>
       <c r="H841" s="15"/>
       <c r="I841" s="15"/>
       <c r="J841" s="15"/>
@@ -15755,7 +15795,7 @@
       <c r="D842" s="15"/>
       <c r="E842" s="15"/>
       <c r="F842" s="15"/>
-      <c r="G842" s="20"/>
+      <c r="G842" s="18"/>
       <c r="H842" s="15"/>
       <c r="I842" s="15"/>
       <c r="J842" s="15"/>
@@ -15768,7 +15808,7 @@
       <c r="D843" s="15"/>
       <c r="E843" s="15"/>
       <c r="F843" s="15"/>
-      <c r="G843" s="20"/>
+      <c r="G843" s="18"/>
       <c r="H843" s="15"/>
       <c r="I843" s="15"/>
       <c r="J843" s="15"/>
@@ -15781,7 +15821,7 @@
       <c r="D844" s="15"/>
       <c r="E844" s="15"/>
       <c r="F844" s="15"/>
-      <c r="G844" s="20"/>
+      <c r="G844" s="18"/>
       <c r="H844" s="15"/>
       <c r="I844" s="15"/>
       <c r="J844" s="15"/>
@@ -15794,7 +15834,7 @@
       <c r="D845" s="15"/>
       <c r="E845" s="15"/>
       <c r="F845" s="15"/>
-      <c r="G845" s="20"/>
+      <c r="G845" s="18"/>
       <c r="H845" s="15"/>
       <c r="I845" s="15"/>
       <c r="J845" s="15"/>
@@ -15807,7 +15847,7 @@
       <c r="D846" s="15"/>
       <c r="E846" s="15"/>
       <c r="F846" s="15"/>
-      <c r="G846" s="20"/>
+      <c r="G846" s="18"/>
       <c r="H846" s="15"/>
       <c r="I846" s="15"/>
       <c r="J846" s="15"/>
@@ -15820,7 +15860,7 @@
       <c r="D847" s="15"/>
       <c r="E847" s="15"/>
       <c r="F847" s="15"/>
-      <c r="G847" s="20"/>
+      <c r="G847" s="18"/>
       <c r="H847" s="15"/>
       <c r="I847" s="15"/>
       <c r="J847" s="15"/>
@@ -15833,7 +15873,7 @@
       <c r="D848" s="15"/>
       <c r="E848" s="15"/>
       <c r="F848" s="15"/>
-      <c r="G848" s="20"/>
+      <c r="G848" s="18"/>
       <c r="H848" s="15"/>
       <c r="I848" s="15"/>
       <c r="J848" s="15"/>
